--- a/data/outputVariables.xlsx
+++ b/data/outputVariables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vuw-my.sharepoint.com/personal/fleminte_staff_vuw_ac_nz/Documents/3 a Res_HRC data/ShinyApps/PrevReport/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vuw-my.sharepoint.com/personal/fleminte_staff_vuw_ac_nz/Documents/3 a Res_HRC data/PrevReport/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1181" documentId="8_{63ADBA71-B2C1-4A75-A341-BB6113656299}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0CF12B65-8FD0-4013-8691-D861038A6603}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{66002B5A-1D09-43B0-BE8F-007DBCE076C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{440D41E8-B1B1-499D-9048-47D0AA4528A6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="unused variables" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">variables!$A$1:$F$195</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">variables!$A$1:$F$212</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="531">
   <si>
     <t>Emot2</t>
   </si>
@@ -445,9 +445,6 @@
     <t>Marijuana Use</t>
   </si>
   <si>
-    <t>Ever smoked marijuana</t>
-  </si>
-  <si>
     <t>Current marijuana use</t>
   </si>
   <si>
@@ -796,9 +793,6 @@
     <t>The hospital accident and emergency</t>
   </si>
   <si>
-    <t>Youth centre/youth one stop shop</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -826,48 +820,9 @@
     <t>More than 2 years ago</t>
   </si>
   <si>
-    <t>Health care services accessed in the last 12 months1</t>
-  </si>
-  <si>
-    <t>Hlth8_1</t>
-  </si>
-  <si>
-    <t>Hlth8_2</t>
-  </si>
-  <si>
-    <t>Hlth8_3</t>
-  </si>
-  <si>
-    <t>Hlth8_4</t>
-  </si>
-  <si>
-    <t>Hlth8_5</t>
-  </si>
-  <si>
-    <t>Hlth8_6</t>
-  </si>
-  <si>
-    <t>Hlth8_7</t>
-  </si>
-  <si>
     <t>Family planning or sexual health clinic</t>
   </si>
   <si>
-    <t>Hlth10</t>
-  </si>
-  <si>
-    <t>Hlth9</t>
-  </si>
-  <si>
-    <t>Talked with a health provider in private1,2</t>
-  </si>
-  <si>
-    <t>Health provider assured confidentiality2</t>
-  </si>
-  <si>
-    <t>Unable to access health care when needed in the last 12 months</t>
-  </si>
-  <si>
     <t>Quality and access to health care</t>
   </si>
   <si>
@@ -1000,9 +955,6 @@
     <t>More than 20 minutes of vigorous activity1 on three or more occasions in the last 7 days</t>
   </si>
   <si>
-    <t>Hlth12</t>
-  </si>
-  <si>
     <t>I didn't know how to (e.g. you didn't know where to go or who to call for help or advice)</t>
   </si>
   <si>
@@ -1015,21 +967,12 @@
     <t>A condition that does not last very long (e.g. a cold)</t>
   </si>
   <si>
-    <t>Health Care - Inability to Access</t>
-  </si>
-  <si>
-    <t>Health Care - Difficulty Acccessing</t>
-  </si>
-  <si>
     <t>Health Care - Quality</t>
   </si>
   <si>
     <t>Health Care - Services Accessed</t>
   </si>
   <si>
-    <t>Health Care - Access Timeframe</t>
-  </si>
-  <si>
     <t>Health Care - Usual Access</t>
   </si>
   <si>
@@ -1057,9 +1000,6 @@
     <t>Cig4</t>
   </si>
   <si>
-    <t>Cigarette frequency</t>
-  </si>
-  <si>
     <t>var</t>
   </si>
   <si>
@@ -1225,9 +1165,6 @@
     <t>genDiverse</t>
   </si>
   <si>
-    <t>attract</t>
-  </si>
-  <si>
     <t>sanitDifclt</t>
   </si>
   <si>
@@ -1376,13 +1313,331 @@
   </si>
   <si>
     <t>Binge drinking in the last 4 weeks</t>
+  </si>
+  <si>
+    <t>Sexual attraction</t>
+  </si>
+  <si>
+    <t>The opposite or a different sex (e.g. I am a male attracted to females or I am a female attracted to males)</t>
+  </si>
+  <si>
+    <t>The same sex (e.g. I am a male attracted to males or I am a female attracted to females)</t>
+  </si>
+  <si>
+    <t>I am attracted to males and females</t>
+  </si>
+  <si>
+    <t>I'm not sure</t>
+  </si>
+  <si>
+    <t>Neither</t>
+  </si>
+  <si>
+    <t>Housing (Home 8)</t>
+  </si>
+  <si>
+    <t>Housing (Home 51)</t>
+  </si>
+  <si>
+    <t>Housing security</t>
+  </si>
+  <si>
+    <t>Places used as bedroom</t>
+  </si>
+  <si>
+    <t>A cabin, caravan or sleep out</t>
+  </si>
+  <si>
+    <t>A garage</t>
+  </si>
+  <si>
+    <t>A couch or on the floor</t>
+  </si>
+  <si>
+    <t>A bed with another person (because there is no where else to sleep)</t>
+  </si>
+  <si>
+    <t>Stayed with lots of different people (couch surfing)</t>
+  </si>
+  <si>
+    <t>In a motel, hostel, Marae, boarding home or other emergency housing</t>
+  </si>
+  <si>
+    <t>In car or van</t>
+  </si>
+  <si>
+    <t>Other - please state</t>
+  </si>
+  <si>
+    <t>Housing Security</t>
+  </si>
+  <si>
+    <t>I don't understand this question</t>
+  </si>
+  <si>
+    <t>Sexual Attraction</t>
+  </si>
+  <si>
+    <t>Family split because of housing problems</t>
+  </si>
+  <si>
+    <t>Health care services accessed in the last 12 months</t>
+  </si>
+  <si>
+    <t>Youth centre / youth one stop shop</t>
+  </si>
+  <si>
+    <t>Talked with a health provider in private in last 12 months</t>
+  </si>
+  <si>
+    <t>Health provider assured confidentiality in last 12 months</t>
+  </si>
+  <si>
+    <t>Unable to access health care when needed - at least once in last 12 months</t>
+  </si>
+  <si>
+    <t>treatedUnfairlybyHPEthnicity</t>
+  </si>
+  <si>
+    <t>Have been treated unfairly by health professional because of ethnicity in last 12 months</t>
+  </si>
+  <si>
+    <t>Health Care - Reasons Unable to Access</t>
+  </si>
+  <si>
+    <t>Health Care - Issues Difficulty Getting Help With</t>
+  </si>
+  <si>
+    <t>Health Care - When Last Accessed</t>
+  </si>
+  <si>
+    <t>Monthly or more often cigarette use</t>
+  </si>
+  <si>
+    <t>Cigarette frequency of Smokers</t>
+  </si>
+  <si>
+    <t>Not needed because same as AandE (LB)</t>
+  </si>
+  <si>
+    <t>ML moved to variables tab</t>
+  </si>
+  <si>
+    <t>Have added to variables tab (LB)</t>
+  </si>
+  <si>
+    <t>Monthly or more often vape use</t>
+  </si>
+  <si>
+    <t>Other Drug Use</t>
+  </si>
+  <si>
+    <t>Ever tried any other drugs</t>
+  </si>
+  <si>
+    <t>Ever used or smoked marijuana</t>
+  </si>
+  <si>
+    <t>Gambling</t>
+  </si>
+  <si>
+    <t>Gambling Activities</t>
+  </si>
+  <si>
+    <t>Gamb10_1</t>
+  </si>
+  <si>
+    <t>Instant Kiwi (scratchies)</t>
+  </si>
+  <si>
+    <t>Lotto (including Strike, Powerball and Big Wednesday)</t>
+  </si>
+  <si>
+    <t>Pub or club (pokies)</t>
+  </si>
+  <si>
+    <t>A casino (e.g. roulette, pokies)</t>
+  </si>
+  <si>
+    <t>TAB betting (e.g. on track racing or sports)</t>
+  </si>
+  <si>
+    <t>Games and gambling on a cell/mobile phone for money or prizes (e.g. txt games)</t>
+  </si>
+  <si>
+    <t>Gambling on the Internet for money or prizes (e.g. internet casinos or poker)</t>
+  </si>
+  <si>
+    <t>Bets with friends or family</t>
+  </si>
+  <si>
+    <t>Cards or coin games (e.g. poker)</t>
+  </si>
+  <si>
+    <t>None of these</t>
+  </si>
+  <si>
+    <t>Activities Have Ever Gambled or Bet On</t>
+  </si>
+  <si>
+    <t>Gamb10_2</t>
+  </si>
+  <si>
+    <t>Gamb10_3</t>
+  </si>
+  <si>
+    <t>Gamb10_4</t>
+  </si>
+  <si>
+    <t>Gamb10_5</t>
+  </si>
+  <si>
+    <t>Gamb10_6</t>
+  </si>
+  <si>
+    <t>Gamb10_7</t>
+  </si>
+  <si>
+    <t>Gamb10_8</t>
+  </si>
+  <si>
+    <t>Gamb10_9</t>
+  </si>
+  <si>
+    <t>Gamb10_10</t>
+  </si>
+  <si>
+    <t>Weekly or more often cigarette use comparisons 2001 - 2019</t>
+  </si>
+  <si>
+    <t>Weekly or more often marijuana use comparisons 2001 - 2019</t>
+  </si>
+  <si>
+    <t>Weekly or more often e-cigarette use comparisons 2001 - 2019</t>
+  </si>
+  <si>
+    <t>Binge drinking in the last 4 weeks comparisons 2001 - 2019</t>
+  </si>
+  <si>
+    <t>Other drug use</t>
+  </si>
+  <si>
+    <t>Have tried other drugs</t>
+  </si>
+  <si>
+    <t>Daily cigarette use comparisons 2001 - 2019</t>
+  </si>
+  <si>
+    <t>Monthly or more often e-cigarette use comparisons 2001 - 2019</t>
+  </si>
+  <si>
+    <t>Daily cigarette use</t>
+  </si>
+  <si>
+    <t>Cigarette use daily</t>
+  </si>
+  <si>
+    <t>Binge drinking last 4 weeks</t>
+  </si>
+  <si>
+    <t>Marijuana use at least monthly</t>
+  </si>
+  <si>
+    <t>Cigarette use weekly at least weekly</t>
+  </si>
+  <si>
+    <t>E-cigarette use at least monthly</t>
+  </si>
+  <si>
+    <t>Marijuana use at least weekly</t>
+  </si>
+  <si>
+    <t>monthlyMj</t>
+  </si>
+  <si>
+    <t>Monthly or more often marijuana use comparisons 2001 - 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smoke cigarettes daily </t>
+  </si>
+  <si>
+    <t>Smoke cigarettes weekly or more often</t>
+  </si>
+  <si>
+    <t>Vape weekly or more often</t>
+  </si>
+  <si>
+    <t>Vape monthly or more often</t>
+  </si>
+  <si>
+    <t>Use marijuana weekly or more often</t>
+  </si>
+  <si>
+    <t>Use marijuana monthly or more often</t>
+  </si>
+  <si>
+    <t>E-cigarete use at least weekly</t>
+  </si>
+  <si>
+    <t>Accessed school clinic</t>
+  </si>
+  <si>
+    <t>Accessed school clinic in the last 12 months</t>
+  </si>
+  <si>
+    <t>Tried other drugs comparisons 2001 2019</t>
+  </si>
+  <si>
+    <t>Accessed school clinic in last 12 months comparisons 2001 - 2019</t>
+  </si>
+  <si>
+    <t>Accessed hospital a &amp; e</t>
+  </si>
+  <si>
+    <t>Accessed hospital accident and emergency in last 12 months</t>
+  </si>
+  <si>
+    <t>Accessed hospital A&amp;E in last 12 months comparisons 2001 - 2019</t>
+  </si>
+  <si>
+    <t>Talked with HP in private</t>
+  </si>
+  <si>
+    <t>Assured confidentiality by HP</t>
+  </si>
+  <si>
+    <t>Talked with a health provider in private in last 12 months comparisons 2001 - 2019</t>
+  </si>
+  <si>
+    <t>Health provider assured confidentiality in last 12 months comparisons 2001 - 2019</t>
+  </si>
+  <si>
+    <t>Unable to access health care when needed - at least once in last 12 months comparisons 2001 - 2019</t>
+  </si>
+  <si>
+    <t>Unable to access health care</t>
+  </si>
+  <si>
+    <t>Treated unfairly by HP because of ethnicity</t>
+  </si>
+  <si>
+    <t>Treated unfairly by health professional because of ethnicity in last 12 months comparisons 2001 - 2019</t>
+  </si>
+  <si>
+    <t>Treated unfairly by health professional because of ethnicity in last 12 months</t>
+  </si>
+  <si>
+    <t>treatedUnfairlybyHPEthnicity12Mths</t>
+  </si>
+  <si>
+    <t>Sex26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1404,13 +1659,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1425,7 +1711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1447,11 +1733,248 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="45">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1871,20 +2394,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F195"/>
+  <dimension ref="A1:F242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="E177" sqref="E177"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="D228" sqref="D228"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="5" customWidth="1"/>
     <col min="5" max="5" width="79.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1895,16 +2418,16 @@
         <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="E1" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="F1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2629,242 +3152,242 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" t="s">
         <v>152</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>153</v>
       </c>
-      <c r="C48" t="s">
-        <v>154</v>
-      </c>
       <c r="D48" s="5">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" t="s">
         <v>152</v>
       </c>
-      <c r="B49" t="s">
-        <v>153</v>
-      </c>
       <c r="C49" t="s">
+        <v>154</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
         <v>155</v>
       </c>
-      <c r="D49" s="5">
-        <v>1</v>
-      </c>
-      <c r="E49" t="s">
-        <v>156</v>
-      </c>
       <c r="F49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" t="s">
         <v>152</v>
       </c>
-      <c r="B50" t="s">
-        <v>153</v>
-      </c>
       <c r="C50" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
         <v>158</v>
       </c>
-      <c r="D50" s="5">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
-        <v>159</v>
-      </c>
       <c r="F50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B52" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" t="s">
         <v>160</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" s="5">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
         <v>161</v>
       </c>
-      <c r="D52" s="5">
-        <v>1</v>
-      </c>
-      <c r="E52" t="s">
-        <v>162</v>
-      </c>
       <c r="F52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="5">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="5">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C55" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="5">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="5">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B58" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58" t="s">
         <v>186</v>
       </c>
-      <c r="C58" t="s">
-        <v>187</v>
-      </c>
       <c r="D58" s="5">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F58" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D59" s="5">
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D60" s="5">
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C61" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D61" s="5">
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2881,7 +3404,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F63" t="s">
         <v>115</v>
@@ -2895,13 +3418,13 @@
         <v>115</v>
       </c>
       <c r="C64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D64" s="5">
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F64" t="s">
         <v>115</v>
@@ -2915,13 +3438,13 @@
         <v>115</v>
       </c>
       <c r="C65" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D65" s="5">
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F65" t="s">
         <v>115</v>
@@ -2935,13 +3458,13 @@
         <v>115</v>
       </c>
       <c r="C66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D66" s="5">
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F66" t="s">
         <v>115</v>
@@ -2955,13 +3478,13 @@
         <v>115</v>
       </c>
       <c r="C67" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D67" s="5">
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F67" t="s">
         <v>115</v>
@@ -2972,19 +3495,19 @@
         <v>114</v>
       </c>
       <c r="B69" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D69" s="5">
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F69" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2992,7 +3515,7 @@
         <v>114</v>
       </c>
       <c r="B70" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C70" t="s">
         <v>97</v>
@@ -3001,10 +3524,10 @@
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F70" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -3012,19 +3535,19 @@
         <v>114</v>
       </c>
       <c r="B71" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C71" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D71" s="5">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F71" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -3032,7 +3555,7 @@
         <v>114</v>
       </c>
       <c r="B72" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C72" t="s">
         <v>95</v>
@@ -3041,10 +3564,10 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F72" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -3052,19 +3575,19 @@
         <v>114</v>
       </c>
       <c r="B73" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C73" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D73" s="5">
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F73" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3072,19 +3595,19 @@
         <v>114</v>
       </c>
       <c r="B74" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C74" t="s">
+        <v>177</v>
+      </c>
+      <c r="D74" s="5">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>214</v>
+      </c>
+      <c r="F74" t="s">
         <v>178</v>
-      </c>
-      <c r="D74" s="5">
-        <v>1</v>
-      </c>
-      <c r="E74" t="s">
-        <v>215</v>
-      </c>
-      <c r="F74" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3092,19 +3615,19 @@
         <v>114</v>
       </c>
       <c r="B76" t="s">
+        <v>179</v>
+      </c>
+      <c r="C76" t="s">
         <v>180</v>
       </c>
-      <c r="C76" t="s">
-        <v>181</v>
-      </c>
       <c r="D76" s="5">
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F76" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3112,19 +3635,19 @@
         <v>114</v>
       </c>
       <c r="B77" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D77" s="5">
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F77" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3132,19 +3655,19 @@
         <v>114</v>
       </c>
       <c r="B78" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D78" s="5">
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F78" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3152,19 +3675,19 @@
         <v>114</v>
       </c>
       <c r="B79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D79" s="5">
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3172,19 +3695,19 @@
         <v>114</v>
       </c>
       <c r="B80" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D80" s="5">
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F80" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3195,13 +3718,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B83" t="s">
+        <v>233</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="D83" s="5">
         <v>1</v>
@@ -3210,18 +3733,18 @@
         <v>7</v>
       </c>
       <c r="F83" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B84" t="s">
+        <v>233</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="D84" s="5">
         <v>2</v>
@@ -3230,18 +3753,18 @@
         <v>8</v>
       </c>
       <c r="F84" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B85" t="s">
+        <v>233</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="D85" s="5">
         <v>3</v>
@@ -3250,107 +3773,107 @@
         <v>6</v>
       </c>
       <c r="F85" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B86" t="s">
+        <v>233</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="D86" s="5">
         <v>4</v>
       </c>
       <c r="E86" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F86" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B87" t="s">
+        <v>233</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="D87" s="5">
         <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F87" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B89" t="s">
+        <v>238</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="D89" s="5">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
         <v>240</v>
       </c>
-      <c r="D89" s="5">
-        <v>1</v>
-      </c>
-      <c r="E89" t="s">
-        <v>241</v>
-      </c>
       <c r="F89" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B90" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C90" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D90" s="5">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>241</v>
+      </c>
+      <c r="F90" t="s">
         <v>245</v>
-      </c>
-      <c r="D90" s="5">
-        <v>1</v>
-      </c>
-      <c r="E90" t="s">
-        <v>242</v>
-      </c>
-      <c r="F90" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B91" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D91" s="5">
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F91" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3358,142 +3881,142 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B93" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="C93" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F93" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B94" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="C94" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D94" s="4">
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F94" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B95" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="C95" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D95" s="4">
         <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F95" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B96" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="C96" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D96" s="4">
         <v>4</v>
       </c>
       <c r="E96" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F96" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B97" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="C97" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D97" s="4">
         <v>5</v>
       </c>
       <c r="E97" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F97" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B98" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="C98" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D98" s="4">
         <v>6</v>
       </c>
       <c r="E98" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F98" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B99" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="C99" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D99" s="4">
         <v>7</v>
       </c>
       <c r="E99" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F99" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3501,844 +4024,844 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B101" t="s">
-        <v>329</v>
+        <v>456</v>
       </c>
       <c r="C101" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F101" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B102" t="s">
-        <v>329</v>
+        <v>456</v>
       </c>
       <c r="C102" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D102" s="4">
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F102" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B103" t="s">
-        <v>329</v>
+        <v>456</v>
       </c>
       <c r="C103" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D103" s="4">
         <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F103" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D104" s="4"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>193</v>
-      </c>
-      <c r="B105" t="s">
-        <v>328</v>
-      </c>
-      <c r="C105" t="s">
-        <v>263</v>
-      </c>
-      <c r="D105" s="4">
-        <v>1</v>
-      </c>
-      <c r="E105" t="s">
+      <c r="A105" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="D105" s="18">
+        <v>1</v>
+      </c>
+      <c r="E105" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="F105" s="17" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="D106" s="18">
+        <v>1</v>
+      </c>
+      <c r="E106" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="F105" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>193</v>
-      </c>
-      <c r="B106" t="s">
-        <v>328</v>
-      </c>
-      <c r="C106" t="s">
-        <v>264</v>
-      </c>
-      <c r="D106" s="4">
-        <v>1</v>
-      </c>
-      <c r="E106" t="s">
+      <c r="F106" s="17" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="D107" s="18">
+        <v>1</v>
+      </c>
+      <c r="E107" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="F106" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>193</v>
-      </c>
-      <c r="B107" t="s">
-        <v>328</v>
-      </c>
-      <c r="C107" t="s">
-        <v>265</v>
-      </c>
-      <c r="D107" s="4">
-        <v>1</v>
-      </c>
-      <c r="E107" t="s">
+      <c r="F107" s="17" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="D108" s="18">
+        <v>1</v>
+      </c>
+      <c r="E108" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="F107" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>193</v>
-      </c>
-      <c r="B108" t="s">
-        <v>328</v>
-      </c>
-      <c r="C108" t="s">
-        <v>266</v>
-      </c>
-      <c r="D108" s="4">
-        <v>1</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="F108" s="17" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="D109" s="18">
+        <v>1</v>
+      </c>
+      <c r="E109" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="F109" s="17" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="D110" s="18">
+        <v>1</v>
+      </c>
+      <c r="E110" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="F110" s="17" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="D111" s="18">
+        <v>1</v>
+      </c>
+      <c r="E111" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="F108" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>193</v>
-      </c>
-      <c r="B109" t="s">
-        <v>328</v>
-      </c>
-      <c r="C109" t="s">
-        <v>267</v>
-      </c>
-      <c r="D109" s="4">
-        <v>1</v>
-      </c>
-      <c r="E109" t="s">
-        <v>252</v>
-      </c>
-      <c r="F109" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>193</v>
-      </c>
-      <c r="B110" t="s">
-        <v>328</v>
-      </c>
-      <c r="C110" t="s">
-        <v>268</v>
-      </c>
-      <c r="D110" s="4">
-        <v>1</v>
-      </c>
-      <c r="E110" t="s">
-        <v>270</v>
-      </c>
-      <c r="F110" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>193</v>
-      </c>
-      <c r="B111" t="s">
-        <v>328</v>
-      </c>
-      <c r="C111" t="s">
-        <v>269</v>
-      </c>
-      <c r="D111" s="4">
-        <v>1</v>
-      </c>
-      <c r="E111" t="s">
-        <v>253</v>
-      </c>
-      <c r="F111" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D112" s="4"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>193</v>
-      </c>
-      <c r="B113" t="s">
-        <v>327</v>
-      </c>
-      <c r="C113" t="s">
-        <v>272</v>
-      </c>
-      <c r="D113" s="4">
-        <v>1</v>
-      </c>
-      <c r="E113" t="s">
-        <v>273</v>
-      </c>
-      <c r="F113" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>193</v>
-      </c>
-      <c r="B114" t="s">
-        <v>327</v>
-      </c>
-      <c r="C114" t="s">
-        <v>271</v>
-      </c>
-      <c r="D114" s="4">
-        <v>1</v>
-      </c>
-      <c r="E114" t="s">
-        <v>274</v>
-      </c>
-      <c r="F114" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>193</v>
-      </c>
-      <c r="B115" t="s">
-        <v>327</v>
-      </c>
-      <c r="C115" t="s">
-        <v>320</v>
-      </c>
-      <c r="D115" s="4">
-        <v>1</v>
-      </c>
-      <c r="E115" t="s">
-        <v>275</v>
-      </c>
-      <c r="F115" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D116" s="4"/>
+      <c r="F111" s="17" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D112" s="16"/>
+    </row>
+    <row r="113" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="C113" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="D113" s="18">
+        <v>1</v>
+      </c>
+      <c r="E113" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="F113" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="D114" s="18">
+        <v>1</v>
+      </c>
+      <c r="E114" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="F114" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="D115" s="18">
+        <v>1</v>
+      </c>
+      <c r="E115" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="F115" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="D116" s="18">
+        <v>1</v>
+      </c>
+      <c r="E116" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="F116" s="17" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>193</v>
-      </c>
-      <c r="B117" t="s">
-        <v>325</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D117" s="7">
-        <v>1</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="F117" t="s">
-        <v>299</v>
-      </c>
+      <c r="D117" s="4"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B118" t="s">
-        <v>325</v>
-      </c>
-      <c r="C118" t="s">
-        <v>278</v>
+        <v>454</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="D118" s="7">
         <v>1</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="F118" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B119" t="s">
-        <v>325</v>
+        <v>454</v>
       </c>
       <c r="C119" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D119" s="7">
         <v>1</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>322</v>
+        <v>264</v>
       </c>
       <c r="F119" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B120" t="s">
-        <v>325</v>
+        <v>454</v>
       </c>
       <c r="C120" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D120" s="7">
         <v>1</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="F120" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B121" t="s">
-        <v>325</v>
+        <v>454</v>
       </c>
       <c r="C121" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="D121" s="7">
         <v>1</v>
       </c>
       <c r="E121" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F121" t="s">
         <v>284</v>
-      </c>
-      <c r="F121" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B122" t="s">
-        <v>325</v>
+        <v>454</v>
       </c>
       <c r="C122" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="D122" s="7">
         <v>1</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="F122" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B123" t="s">
-        <v>325</v>
+        <v>454</v>
       </c>
       <c r="C123" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="D123" s="7">
         <v>1</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="F123" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B124" t="s">
-        <v>325</v>
+        <v>454</v>
       </c>
       <c r="C124" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="D124" s="7">
         <v>1</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="F124" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B125" t="s">
-        <v>325</v>
+        <v>454</v>
       </c>
       <c r="C125" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="D125" s="7">
         <v>1</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="F125" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B126" t="s">
-        <v>325</v>
+        <v>454</v>
       </c>
       <c r="C126" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="D126" s="7">
         <v>1</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="F126" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B127" t="s">
-        <v>325</v>
+        <v>454</v>
       </c>
       <c r="C127" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="D127" s="7">
         <v>1</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F127" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B128" t="s">
-        <v>325</v>
+        <v>454</v>
       </c>
       <c r="C128" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="D128" s="7">
         <v>1</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F128" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D129" s="4"/>
+      <c r="A129" t="s">
+        <v>192</v>
+      </c>
+      <c r="B129" t="s">
+        <v>454</v>
+      </c>
+      <c r="C129" t="s">
+        <v>282</v>
+      </c>
+      <c r="D129" s="7">
+        <v>1</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F129" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>193</v>
-      </c>
-      <c r="B130" t="s">
-        <v>326</v>
-      </c>
-      <c r="C130" t="s">
-        <v>300</v>
-      </c>
-      <c r="D130" s="7">
-        <v>1</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="F130" t="s">
-        <v>316</v>
-      </c>
+      <c r="D130" s="4"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B131" t="s">
-        <v>326</v>
+        <v>455</v>
       </c>
       <c r="C131" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="D131" s="7">
         <v>1</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="F131" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B132" t="s">
-        <v>326</v>
+        <v>455</v>
       </c>
       <c r="C132" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="D132" s="7">
         <v>1</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F132" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B133" t="s">
-        <v>326</v>
+        <v>455</v>
       </c>
       <c r="C133" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="D133" s="7">
         <v>1</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="F133" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B134" t="s">
-        <v>326</v>
+        <v>455</v>
       </c>
       <c r="C134" t="s">
+        <v>291</v>
+      </c>
+      <c r="D134" s="7">
+        <v>1</v>
+      </c>
+      <c r="E134" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="D134" s="7">
-        <v>1</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>324</v>
-      </c>
       <c r="F134" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B135" t="s">
-        <v>326</v>
+        <v>455</v>
       </c>
       <c r="C135" t="s">
+        <v>292</v>
+      </c>
+      <c r="D135" s="7">
+        <v>1</v>
+      </c>
+      <c r="E135" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="D135" s="7">
-        <v>1</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>309</v>
-      </c>
       <c r="F135" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B136" t="s">
-        <v>326</v>
+        <v>455</v>
       </c>
       <c r="C136" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="D136" s="7">
         <v>1</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="F136" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B137" t="s">
-        <v>326</v>
+        <v>455</v>
       </c>
       <c r="C137" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="D137" s="7">
         <v>1</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="F137" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B138" t="s">
-        <v>326</v>
+        <v>455</v>
       </c>
       <c r="C138" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="D138" s="7">
         <v>1</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="F138" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D139" s="4"/>
+      <c r="A139" t="s">
+        <v>192</v>
+      </c>
+      <c r="B139" t="s">
+        <v>455</v>
+      </c>
+      <c r="C139" t="s">
+        <v>299</v>
+      </c>
+      <c r="D139" s="7">
+        <v>1</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F139" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D140" s="4"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>193</v>
-      </c>
-      <c r="B141" t="s">
-        <v>317</v>
-      </c>
-      <c r="C141" t="s">
-        <v>195</v>
-      </c>
-      <c r="D141" s="2">
-        <v>2</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F141" t="s">
-        <v>194</v>
-      </c>
+      <c r="D141" s="4"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>192</v>
+      </c>
+      <c r="B142" t="s">
+        <v>302</v>
+      </c>
+      <c r="C142" t="s">
+        <v>194</v>
+      </c>
+      <c r="D142" s="2">
+        <v>2</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F142" t="s">
         <v>193</v>
-      </c>
-      <c r="B142" t="s">
-        <v>317</v>
-      </c>
-      <c r="C142" t="s">
-        <v>197</v>
-      </c>
-      <c r="D142" s="4">
-        <v>2</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F142" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B143" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="C143" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D143" s="4">
         <v>2</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F143" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
         <v>193</v>
       </c>
-      <c r="B145" t="s">
-        <v>201</v>
-      </c>
-      <c r="C145" t="s">
-        <v>318</v>
-      </c>
-      <c r="D145" s="7">
-        <v>1</v>
-      </c>
-      <c r="E145" t="s">
-        <v>319</v>
-      </c>
-      <c r="F145" t="s">
-        <v>201</v>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>192</v>
+      </c>
+      <c r="B144" t="s">
+        <v>302</v>
+      </c>
+      <c r="C144" t="s">
+        <v>198</v>
+      </c>
+      <c r="D144" s="4">
+        <v>2</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F144" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B146" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C146" t="s">
-        <v>202</v>
-      </c>
-      <c r="D146" s="4">
+        <v>303</v>
+      </c>
+      <c r="D146" s="7">
         <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>203</v>
+        <v>304</v>
       </c>
       <c r="F146" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B147" t="s">
+        <v>200</v>
+      </c>
+      <c r="C147" t="s">
         <v>201</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" s="4">
+        <v>1</v>
+      </c>
+      <c r="E147" t="s">
+        <v>202</v>
+      </c>
+      <c r="F147" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>192</v>
+      </c>
+      <c r="B148" t="s">
+        <v>200</v>
+      </c>
+      <c r="C148" t="s">
+        <v>203</v>
+      </c>
+      <c r="D148" s="4">
+        <v>1</v>
+      </c>
+      <c r="E148" t="s">
         <v>204</v>
       </c>
-      <c r="D147" s="4">
-        <v>1</v>
-      </c>
-      <c r="E147" t="s">
-        <v>205</v>
-      </c>
-      <c r="F147" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D148" s="4"/>
+      <c r="F148" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>100</v>
-      </c>
-      <c r="B149" t="s">
-        <v>101</v>
-      </c>
-      <c r="C149" t="s">
-        <v>0</v>
-      </c>
-      <c r="D149" s="5">
-        <v>1</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F149" t="s">
-        <v>207</v>
-      </c>
+      <c r="D149" s="4"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
@@ -4351,13 +4874,13 @@
         <v>0</v>
       </c>
       <c r="D150" s="5">
-        <v>2</v>
-      </c>
-      <c r="E150" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="F150" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4371,13 +4894,13 @@
         <v>0</v>
       </c>
       <c r="D151" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E151" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F151" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4391,33 +4914,33 @@
         <v>0</v>
       </c>
       <c r="D152" s="5">
+        <v>3</v>
+      </c>
+      <c r="E152" t="s">
+        <v>3</v>
+      </c>
+      <c r="F152" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>100</v>
+      </c>
+      <c r="B153" t="s">
+        <v>101</v>
+      </c>
+      <c r="C153" t="s">
+        <v>0</v>
+      </c>
+      <c r="D153" s="5">
         <v>4</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E153" t="s">
         <v>4</v>
       </c>
-      <c r="F152" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>100</v>
-      </c>
-      <c r="B154" t="s">
-        <v>102</v>
-      </c>
-      <c r="C154" t="s">
-        <v>5</v>
-      </c>
-      <c r="D154" s="5">
-        <v>1</v>
-      </c>
-      <c r="E154" t="s">
-        <v>6</v>
-      </c>
-      <c r="F154" t="s">
-        <v>102</v>
+      <c r="F153" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4431,10 +4954,10 @@
         <v>5</v>
       </c>
       <c r="D155" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E155" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F155" t="s">
         <v>102</v>
@@ -4451,33 +4974,33 @@
         <v>5</v>
       </c>
       <c r="D156" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F156" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>100</v>
       </c>
-      <c r="B158" t="s">
-        <v>103</v>
-      </c>
-      <c r="C158" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="5">
-        <v>1</v>
-      </c>
-      <c r="E158" t="s">
-        <v>10</v>
-      </c>
-      <c r="F158" t="s">
-        <v>208</v>
+      <c r="B157" t="s">
+        <v>102</v>
+      </c>
+      <c r="C157" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157" s="5">
+        <v>3</v>
+      </c>
+      <c r="E157" t="s">
+        <v>7</v>
+      </c>
+      <c r="F157" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4488,16 +5011,16 @@
         <v>103</v>
       </c>
       <c r="C159" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D159" s="5">
         <v>1</v>
       </c>
       <c r="E159" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -4508,36 +5031,36 @@
         <v>103</v>
       </c>
       <c r="C160" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" s="5">
+        <v>1</v>
+      </c>
+      <c r="E160" t="s">
+        <v>12</v>
+      </c>
+      <c r="F160" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>100</v>
+      </c>
+      <c r="B161" t="s">
+        <v>103</v>
+      </c>
+      <c r="C161" t="s">
         <v>13</v>
       </c>
-      <c r="D160" s="5">
-        <v>1</v>
-      </c>
-      <c r="E160" t="s">
+      <c r="D161" s="5">
+        <v>1</v>
+      </c>
+      <c r="E161" t="s">
         <v>14</v>
       </c>
-      <c r="F160" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>100</v>
-      </c>
-      <c r="B162" t="s">
-        <v>104</v>
-      </c>
-      <c r="C162" t="s">
-        <v>15</v>
-      </c>
-      <c r="D162" s="5">
-        <v>1</v>
-      </c>
-      <c r="E162" t="s">
-        <v>19</v>
-      </c>
-      <c r="F162" t="s">
-        <v>209</v>
+      <c r="F161" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4548,16 +5071,16 @@
         <v>104</v>
       </c>
       <c r="C163" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D163" s="5">
         <v>1</v>
       </c>
       <c r="E163" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F163" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -4568,16 +5091,16 @@
         <v>104</v>
       </c>
       <c r="C164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D164" s="5">
         <v>1</v>
       </c>
       <c r="E164" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F164" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4588,36 +5111,36 @@
         <v>104</v>
       </c>
       <c r="C165" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" s="5">
+        <v>1</v>
+      </c>
+      <c r="E165" t="s">
+        <v>21</v>
+      </c>
+      <c r="F165" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>100</v>
+      </c>
+      <c r="B166" t="s">
+        <v>104</v>
+      </c>
+      <c r="C166" t="s">
         <v>18</v>
       </c>
-      <c r="D165" s="5">
-        <v>1</v>
-      </c>
-      <c r="E165" t="s">
+      <c r="D166" s="5">
+        <v>1</v>
+      </c>
+      <c r="E166" t="s">
         <v>22</v>
       </c>
-      <c r="F165" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>133</v>
-      </c>
-      <c r="B167" t="s">
-        <v>132</v>
-      </c>
-      <c r="C167" t="s">
-        <v>117</v>
-      </c>
-      <c r="D167" s="5">
-        <v>1</v>
-      </c>
-      <c r="E167" t="s">
-        <v>124</v>
-      </c>
-      <c r="F167" t="s">
-        <v>132</v>
+      <c r="F166" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4628,13 +5151,13 @@
         <v>132</v>
       </c>
       <c r="C168" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D168" s="5">
         <v>1</v>
       </c>
       <c r="E168" t="s">
-        <v>442</v>
+        <v>124</v>
       </c>
       <c r="F168" t="s">
         <v>132</v>
@@ -4648,15 +5171,35 @@
         <v>132</v>
       </c>
       <c r="C169" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="D169" s="5">
         <v>1</v>
       </c>
       <c r="E169" t="s">
-        <v>125</v>
+        <v>421</v>
       </c>
       <c r="F169" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B170" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C170" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="D170" s="20">
+        <v>1</v>
+      </c>
+      <c r="E170" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="F170" s="19" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4665,183 +5208,183 @@
         <v>133</v>
       </c>
       <c r="B171" t="s">
-        <v>339</v>
+        <v>132</v>
       </c>
       <c r="C171" t="s">
-        <v>338</v>
-      </c>
-      <c r="D171" s="2">
-        <v>1</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>331</v>
+        <v>118</v>
+      </c>
+      <c r="D171" s="5">
+        <v>1</v>
+      </c>
+      <c r="E171" t="s">
+        <v>125</v>
       </c>
       <c r="F171" t="s">
-        <v>337</v>
+        <v>132</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="A172" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="B172" t="s">
-        <v>339</v>
-      </c>
-      <c r="C172" t="s">
-        <v>338</v>
-      </c>
-      <c r="D172" s="2">
+      <c r="B172" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C172" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="D172" s="20">
+        <v>1</v>
+      </c>
+      <c r="E172" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="F172" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B174" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="C174" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="D174" s="22">
+        <v>1</v>
+      </c>
+      <c r="E174" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="F174" s="21" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B175" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="C175" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="D175" s="22">
         <v>2</v>
       </c>
-      <c r="E172" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="F172" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="E175" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="F175" s="21" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="B173" t="s">
-        <v>339</v>
-      </c>
-      <c r="C173" t="s">
-        <v>338</v>
-      </c>
-      <c r="D173" s="2">
+      <c r="B176" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="C176" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="D176" s="22">
         <v>3</v>
       </c>
-      <c r="E173" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F173" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="E176" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="F176" s="21" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="B174" t="s">
-        <v>339</v>
-      </c>
-      <c r="C174" t="s">
-        <v>338</v>
-      </c>
-      <c r="D174" s="2">
+      <c r="B177" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="C177" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="D177" s="22">
         <v>4</v>
       </c>
-      <c r="E174" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F174" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="E177" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="F177" s="21" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="B175" t="s">
-        <v>339</v>
-      </c>
-      <c r="C175" t="s">
-        <v>338</v>
-      </c>
-      <c r="D175" s="2">
+      <c r="B178" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="C178" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="D178" s="22">
         <v>5</v>
       </c>
-      <c r="E175" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="F175" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="E178" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="F178" s="21" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="B176" t="s">
-        <v>339</v>
-      </c>
-      <c r="C176" t="s">
-        <v>338</v>
-      </c>
-      <c r="D176" s="2">
+      <c r="B179" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="C179" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="D179" s="22">
         <v>6</v>
       </c>
-      <c r="E176" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F176" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C177" s="8"/>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="E179" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="F179" s="21" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C180" s="8"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>133</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B181" t="s">
         <v>131</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C181" t="s">
         <v>119</v>
       </c>
-      <c r="D178" s="5">
-        <v>1</v>
-      </c>
-      <c r="E178" t="s">
+      <c r="D181" s="5">
+        <v>1</v>
+      </c>
+      <c r="E181" t="s">
         <v>126</v>
       </c>
-      <c r="F178" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>133</v>
-      </c>
-      <c r="B179" t="s">
-        <v>131</v>
-      </c>
-      <c r="C179" t="s">
-        <v>141</v>
-      </c>
-      <c r="D179" s="5">
-        <v>1</v>
-      </c>
-      <c r="E179" t="s">
-        <v>443</v>
-      </c>
-      <c r="F179" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>133</v>
-      </c>
-      <c r="B180" t="s">
-        <v>131</v>
-      </c>
-      <c r="C180" t="s">
-        <v>120</v>
-      </c>
-      <c r="D180" s="5">
-        <v>1</v>
-      </c>
-      <c r="E180" t="s">
-        <v>127</v>
-      </c>
-      <c r="F180" t="s">
+      <c r="F181" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4850,19 +5393,19 @@
         <v>133</v>
       </c>
       <c r="B182" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C182" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="D182" s="5">
         <v>1</v>
       </c>
       <c r="E182" t="s">
-        <v>128</v>
+        <v>422</v>
       </c>
       <c r="F182" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -4870,58 +5413,58 @@
         <v>133</v>
       </c>
       <c r="B183" t="s">
+        <v>131</v>
+      </c>
+      <c r="C183" t="s">
+        <v>120</v>
+      </c>
+      <c r="D183" s="5">
+        <v>1</v>
+      </c>
+      <c r="E183" t="s">
+        <v>127</v>
+      </c>
+      <c r="F183" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B184" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C184" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="D184" s="20">
+        <v>1</v>
+      </c>
+      <c r="E184" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="F184" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>133</v>
+      </c>
+      <c r="B186" t="s">
         <v>130</v>
       </c>
-      <c r="C183" t="s">
-        <v>143</v>
-      </c>
-      <c r="D183" s="5">
-        <v>1</v>
-      </c>
-      <c r="E183" t="s">
-        <v>444</v>
-      </c>
-      <c r="F183" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>133</v>
-      </c>
-      <c r="B184" t="s">
-        <v>130</v>
-      </c>
-      <c r="C184" t="s">
-        <v>122</v>
-      </c>
-      <c r="D184" s="5">
-        <v>1</v>
-      </c>
-      <c r="E184" t="s">
-        <v>129</v>
-      </c>
-      <c r="F184" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>133</v>
-      </c>
-      <c r="B185" t="s">
-        <v>130</v>
-      </c>
-      <c r="C185" t="s">
-        <v>123</v>
-      </c>
-      <c r="D185" s="5">
-        <v>1</v>
-      </c>
-      <c r="E185" t="s">
-        <v>445</v>
-      </c>
-      <c r="F185" t="s">
+      <c r="C186" t="s">
+        <v>121</v>
+      </c>
+      <c r="D186" s="5">
+        <v>1</v>
+      </c>
+      <c r="E186" t="s">
+        <v>128</v>
+      </c>
+      <c r="F186" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4930,19 +5473,19 @@
         <v>133</v>
       </c>
       <c r="B187" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C187" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D187" s="5">
         <v>1</v>
       </c>
       <c r="E187" t="s">
-        <v>135</v>
+        <v>423</v>
       </c>
       <c r="F187" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -4950,19 +5493,19 @@
         <v>133</v>
       </c>
       <c r="B188" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C188" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D188" s="5">
         <v>1</v>
       </c>
       <c r="E188" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F188" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -4970,197 +5513,896 @@
         <v>133</v>
       </c>
       <c r="B189" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C189" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D189" s="5">
         <v>1</v>
       </c>
       <c r="E189" t="s">
-        <v>137</v>
+        <v>424</v>
       </c>
       <c r="F189" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B191" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C191" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D191" s="5">
         <v>1</v>
       </c>
       <c r="E191" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="F191" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>133</v>
+      </c>
+      <c r="B192" t="s">
+        <v>134</v>
+      </c>
+      <c r="C192" t="s">
+        <v>138</v>
+      </c>
+      <c r="D192" s="5">
+        <v>1</v>
+      </c>
+      <c r="E192" t="s">
+        <v>135</v>
+      </c>
+      <c r="F192" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>133</v>
+      </c>
+      <c r="B193" t="s">
+        <v>134</v>
+      </c>
+      <c r="C193" t="s">
+        <v>139</v>
+      </c>
+      <c r="D193" s="5">
+        <v>1</v>
+      </c>
+      <c r="E193" t="s">
+        <v>136</v>
+      </c>
+      <c r="F193" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B195" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="C195" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="D195" s="20">
+        <v>1</v>
+      </c>
+      <c r="E195" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="F195" s="20" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="10"/>
+      <c r="B196" s="10"/>
+      <c r="C196" s="10"/>
+      <c r="D196" s="11"/>
+      <c r="E196" s="11"/>
+      <c r="F196" s="11"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="B197" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="C197" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="D197" s="20">
+        <v>1</v>
+      </c>
+      <c r="E197" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="F197" s="20" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="B198" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="C198" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="D198" s="20">
+        <v>1</v>
+      </c>
+      <c r="E198" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="F198" s="20" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="B199" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="C199" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="D199" s="20">
+        <v>1</v>
+      </c>
+      <c r="E199" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="F199" s="20" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="B200" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="C200" s="23" t="s">
+        <v>482</v>
+      </c>
+      <c r="D200" s="20">
+        <v>1</v>
+      </c>
+      <c r="E200" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="F200" s="20" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="B201" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="C201" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="D201" s="20">
+        <v>1</v>
+      </c>
+      <c r="E201" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="F201" s="20" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="B202" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="C202" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="D202" s="20">
+        <v>1</v>
+      </c>
+      <c r="E202" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="F202" s="20" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="B203" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="C203" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="D203" s="20">
+        <v>1</v>
+      </c>
+      <c r="E203" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="F203" s="20" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="B204" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="C204" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="D204" s="20">
+        <v>1</v>
+      </c>
+      <c r="E204" s="24" t="s">
+        <v>476</v>
+      </c>
+      <c r="F204" s="20" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="B205" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="C205" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="D205" s="20">
+        <v>1</v>
+      </c>
+      <c r="E205" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="F205" s="20" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="B206" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="C206" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="D206" s="20">
+        <v>1</v>
+      </c>
+      <c r="E206" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="F206" s="20" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>143</v>
+      </c>
+      <c r="B208" t="s">
         <v>144</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C208" t="s">
         <v>145</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D208" s="5">
+        <v>1</v>
+      </c>
+      <c r="E208" t="s">
+        <v>418</v>
+      </c>
+      <c r="F208" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>143</v>
+      </c>
+      <c r="B209" t="s">
+        <v>144</v>
+      </c>
+      <c r="C209" t="s">
+        <v>146</v>
+      </c>
+      <c r="D209" s="5">
+        <v>1</v>
+      </c>
+      <c r="E209" t="s">
+        <v>419</v>
+      </c>
+      <c r="F209" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>143</v>
+      </c>
+      <c r="B211" t="s">
+        <v>420</v>
+      </c>
+      <c r="C211" t="s">
         <v>147</v>
       </c>
-      <c r="D192" s="5">
-        <v>1</v>
-      </c>
-      <c r="E192" t="s">
+      <c r="D211" s="5">
+        <v>1</v>
+      </c>
+      <c r="E211" t="s">
+        <v>148</v>
+      </c>
+      <c r="F211" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>143</v>
+      </c>
+      <c r="B212" t="s">
+        <v>420</v>
+      </c>
+      <c r="C212" t="s">
+        <v>150</v>
+      </c>
+      <c r="D212" s="5">
+        <v>1</v>
+      </c>
+      <c r="E212" t="s">
+        <v>149</v>
+      </c>
+      <c r="F212" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="C215" t="s">
+        <v>530</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+      <c r="E215" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="F215" s="9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="C216" t="s">
+        <v>530</v>
+      </c>
+      <c r="D216">
+        <v>2</v>
+      </c>
+      <c r="E216" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="F216" s="9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="C217" t="s">
+        <v>530</v>
+      </c>
+      <c r="D217">
+        <v>3</v>
+      </c>
+      <c r="E217" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="F217" s="9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="C218" t="s">
+        <v>530</v>
+      </c>
+      <c r="D218">
+        <v>4</v>
+      </c>
+      <c r="E218" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="F218" s="9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="C219" t="s">
+        <v>530</v>
+      </c>
+      <c r="D219">
+        <v>5</v>
+      </c>
+      <c r="E219" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="F219" s="9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="C220" t="s">
+        <v>530</v>
+      </c>
+      <c r="D220">
+        <v>6</v>
+      </c>
+      <c r="E220" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="F220" s="9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D221" s="11"/>
+      <c r="E221" s="12"/>
+    </row>
+    <row r="222" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="C222" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="D222" s="10">
+        <v>1</v>
+      </c>
+      <c r="E222" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="F222" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E223" s="12"/>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>432</v>
+      </c>
+      <c r="B224" t="s">
+        <v>434</v>
+      </c>
+      <c r="C224" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="D224" s="10">
+        <v>1</v>
+      </c>
+      <c r="E224" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="F224" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>432</v>
+      </c>
+      <c r="B225" t="s">
+        <v>434</v>
+      </c>
+      <c r="C225" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="D225" s="10">
+        <v>1</v>
+      </c>
+      <c r="E225" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="F225" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>432</v>
+      </c>
+      <c r="B226" t="s">
+        <v>434</v>
+      </c>
+      <c r="C226" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="D226" s="10">
+        <v>1</v>
+      </c>
+      <c r="E226" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="F226" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>432</v>
+      </c>
+      <c r="B227" t="s">
+        <v>434</v>
+      </c>
+      <c r="C227" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="D227" s="10">
+        <v>1</v>
+      </c>
+      <c r="E227" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="F227" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>432</v>
+      </c>
+      <c r="B228" t="s">
+        <v>434</v>
+      </c>
+      <c r="C228" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="D228" s="10">
+        <v>1</v>
+      </c>
+      <c r="E228" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="F228" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>432</v>
+      </c>
+      <c r="B229" t="s">
+        <v>434</v>
+      </c>
+      <c r="C229" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="D229" s="10">
+        <v>1</v>
+      </c>
+      <c r="E229" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="F192" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>144</v>
-      </c>
-      <c r="B194" t="s">
+      <c r="F229" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>432</v>
+      </c>
+      <c r="B230" t="s">
+        <v>434</v>
+      </c>
+      <c r="C230" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D230" s="10">
+        <v>1</v>
+      </c>
+      <c r="E230" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="C194" t="s">
-        <v>148</v>
-      </c>
-      <c r="D194" s="5">
-        <v>1</v>
-      </c>
-      <c r="E194" t="s">
-        <v>149</v>
-      </c>
-      <c r="F194" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>144</v>
-      </c>
-      <c r="B195" t="s">
-        <v>441</v>
-      </c>
-      <c r="C195" t="s">
-        <v>151</v>
-      </c>
-      <c r="D195" s="5">
-        <v>1</v>
-      </c>
-      <c r="E195" t="s">
-        <v>150</v>
-      </c>
-      <c r="F195" t="s">
-        <v>441</v>
-      </c>
+      <c r="F230" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>432</v>
+      </c>
+      <c r="B231" t="s">
+        <v>434</v>
+      </c>
+      <c r="C231" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="D231" s="10">
+        <v>1</v>
+      </c>
+      <c r="E231" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D232" s="10"/>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B238" s="2"/>
+      <c r="C238" s="2"/>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F195" xr:uid="{685C397F-0D47-4A08-A4DB-9D594E3BED54}"/>
+  <autoFilter ref="A1:F212" xr:uid="{685C397F-0D47-4A08-A4DB-9D594E3BED54}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C9 C80:C85 E115 C89:C128 E117:E128">
-    <cfRule type="expression" dxfId="19" priority="22">
+  <conditionalFormatting sqref="C9 C80:C85 E118:E129 E224:E231 C89:C112 C117:C129">
+    <cfRule type="expression" dxfId="44" priority="41">
       <formula>_xlfn.ISFORMULA(C9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="18" priority="21">
+    <cfRule type="expression" dxfId="43" priority="40">
       <formula>_xlfn.ISFORMULA(C10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="17" priority="20">
+    <cfRule type="expression" dxfId="42" priority="39">
       <formula>_xlfn.ISFORMULA(C11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="16" priority="19">
+    <cfRule type="expression" dxfId="41" priority="38">
       <formula>_xlfn.ISFORMULA(C12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="15" priority="18">
+    <cfRule type="expression" dxfId="40" priority="37">
       <formula>_xlfn.ISFORMULA(C13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="14" priority="17">
+    <cfRule type="expression" dxfId="39" priority="36">
       <formula>_xlfn.ISFORMULA(C14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="13" priority="16">
+    <cfRule type="expression" dxfId="38" priority="35">
       <formula>_xlfn.ISFORMULA(C15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="37" priority="34">
       <formula>_xlfn.ISFORMULA(C77)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C78">
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="36" priority="33">
       <formula>_xlfn.ISFORMULA(C78)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79">
-    <cfRule type="expression" dxfId="10" priority="13">
+    <cfRule type="expression" dxfId="35" priority="32">
       <formula>_xlfn.ISFORMULA(C79)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>_xlfn.ISFORMULA(E141)</formula>
+  <conditionalFormatting sqref="E142">
+    <cfRule type="expression" dxfId="34" priority="29">
+      <formula>_xlfn.ISFORMULA(E142)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D141">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>_xlfn.ISFORMULA(D141)</formula>
+  <conditionalFormatting sqref="D142">
+    <cfRule type="expression" dxfId="33" priority="28">
+      <formula>_xlfn.ISFORMULA(D142)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E144">
+    <cfRule type="expression" dxfId="32" priority="26">
+      <formula>_xlfn.ISFORMULA(E144)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="31" priority="27">
       <formula>_xlfn.ISFORMULA(E143)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>_xlfn.ISFORMULA(E142)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C86">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="30" priority="25">
       <formula>_xlfn.ISFORMULA(C86)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="29" priority="24">
       <formula>_xlfn.ISFORMULA(C87)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C177">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>_xlfn.ISFORMULA(C177)</formula>
+  <conditionalFormatting sqref="C180">
+    <cfRule type="expression" dxfId="28" priority="20">
+      <formula>_xlfn.ISFORMULA(C180)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E171:E177">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>_xlfn.ISFORMULA(E171)</formula>
+  <conditionalFormatting sqref="E174:E180">
+    <cfRule type="expression" dxfId="27" priority="22">
+      <formula>_xlfn.ISFORMULA(E174)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D171:D177">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>_xlfn.ISFORMULA(D171)</formula>
+  <conditionalFormatting sqref="D174:D180">
+    <cfRule type="expression" dxfId="26" priority="21">
+      <formula>_xlfn.ISFORMULA(D174)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D222:D223 F224">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D232">
+    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F225">
+    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F226">
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F227">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F228">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F229">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F230">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B237:C242">
+    <cfRule type="expression" dxfId="17" priority="9">
+      <formula>_xlfn.ISFORMULA(B237)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E215:E220">
+    <cfRule type="expression" dxfId="16" priority="8">
+      <formula>_xlfn.ISFORMULA(E215)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D215:D220">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115 C113:C115">
+    <cfRule type="expression" dxfId="14" priority="5">
+      <formula>_xlfn.ISFORMULA(C113)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116 C116">
+    <cfRule type="expression" dxfId="13" priority="4">
+      <formula>_xlfn.ISFORMULA(C116)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E197:E206">
+    <cfRule type="expression" dxfId="12" priority="3">
+      <formula>_xlfn.ISFORMULA(E197)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C197:C206">
+    <cfRule type="expression" dxfId="11" priority="2">
+      <formula>_xlfn.ISFORMULA(C197)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D224:D231">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5170,13 +6412,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3A59AB-DC81-47F1-8E96-9E4FFA35C486}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" customWidth="1"/>
@@ -5194,16 +6436,16 @@
         <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="E1" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="F1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5211,19 +6453,19 @@
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>220</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>221</v>
-      </c>
       <c r="F2" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5231,7 +6473,7 @@
         <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -5243,7 +6485,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5251,7 +6493,7 @@
         <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -5260,26 +6502,355 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F4" t="s">
-        <v>345</v>
-      </c>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="D5" s="19">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>507</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="19">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="D10" s="19">
+        <v>1</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="19">
+        <v>1</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="D12" s="19">
+        <v>1</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="D13" s="19">
+        <v>1</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="D14" s="19">
+        <v>1</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="D15" s="19">
+        <v>1</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="D16" s="19">
+        <v>1</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="D17" s="19">
+        <v>1</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="D18" s="19">
+        <v>1</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="10" priority="9">
+      <formula>_xlfn.ISFORMULA(C13)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="9" priority="8">
+      <formula>_xlfn.ISFORMULA(C14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C17">
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>_xlfn.ISFORMULA(C15)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="7" priority="6">
+      <formula>_xlfn.ISFORMULA(C18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="expression" dxfId="6" priority="5">
+      <formula>_xlfn.ISFORMULA(E17)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>_xlfn.ISFORMULA(E18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>_xlfn.ISFORMULA(F17)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>_xlfn.ISFORMULA(F22)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>_xlfn.ISFORMULA(F18)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E93B7FA-B128-4C52-B3FD-D803EA9E6E6C}">
-  <dimension ref="A1:B176"/>
+  <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="H183" sqref="H183"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -5340,7 +6911,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="B7">
         <f>COUNTIF(variables!C:C,'unused variables'!A7)</f>
@@ -5358,7 +6929,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="B9">
         <f>COUNTIF(variables!C:C,'unused variables'!A9)</f>
@@ -5403,7 +6974,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="B14">
         <f>COUNTIF(variables!C:C,'unused variables'!A14)</f>
@@ -5421,7 +6992,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="B16">
         <f>COUNTIF(variables!C:C,'unused variables'!A16)</f>
@@ -5484,7 +7055,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="B23">
         <f>COUNTIF(variables!C:C,'unused variables'!A23)</f>
@@ -5493,7 +7064,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="B24">
         <f>COUNTIF(variables!C:C,'unused variables'!A24)</f>
@@ -5556,7 +7127,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="B31">
         <f>COUNTIF(variables!C:C,'unused variables'!A31)</f>
@@ -5565,7 +7136,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="B32">
         <f>COUNTIF(variables!C:C,'unused variables'!A32)</f>
@@ -5574,7 +7145,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="B33">
         <f>COUNTIF(variables!C:C,'unused variables'!A33)</f>
@@ -5583,7 +7154,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="B34">
         <f>COUNTIF(variables!C:C,'unused variables'!A34)</f>
@@ -5592,7 +7163,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="B35">
         <f>COUNTIF(variables!C:C,'unused variables'!A35)</f>
@@ -5601,7 +7172,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="B36">
         <f>COUNTIF(variables!C:C,'unused variables'!A36)</f>
@@ -5619,7 +7190,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="B38">
         <f>COUNTIF(variables!C:C,'unused variables'!A38)</f>
@@ -5628,7 +7199,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B39">
         <f>COUNTIF(variables!C:C,'unused variables'!A39)</f>
@@ -5691,7 +7262,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="B46">
         <f>COUNTIF(variables!C:C,'unused variables'!A46)</f>
@@ -5700,7 +7271,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="B47">
         <f>COUNTIF(variables!C:C,'unused variables'!A47)</f>
@@ -5709,14 +7280,14 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="B48">
         <f>COUNTIF(variables!C:C,'unused variables'!A48)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -5725,250 +7296,286 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="B50">
         <f>COUNTIF(variables!C:C,'unused variables'!A50)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="B51">
         <f>COUNTIF(variables!C:C,'unused variables'!A51)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="B52">
         <f>COUNTIF(variables!C:C,'unused variables'!A52)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="B53">
         <f>COUNTIF(variables!C:C,'unused variables'!A53)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="B54">
         <f>COUNTIF(variables!C:C,'unused variables'!A54)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="B55">
         <f>COUNTIF(variables!C:C,'unused variables'!A55)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="B56">
         <f>COUNTIF(variables!C:C,'unused variables'!A56)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="B57">
         <f>COUNTIF(variables!C:C,'unused variables'!A57)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="B58">
         <f>COUNTIF(variables!C:C,'unused variables'!A58)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="B59">
         <f>COUNTIF(variables!C:C,'unused variables'!A59)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="B60">
         <f>COUNTIF(variables!C:C,'unused variables'!A60)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="B61">
         <f>COUNTIF(variables!C:C,'unused variables'!A61)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="B62">
         <f>COUNTIF(variables!C:C,'unused variables'!A62)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="B63">
         <f>COUNTIF(variables!C:C,'unused variables'!A63)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="B64">
         <f>COUNTIF(variables!C:C,'unused variables'!A64)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="B65">
         <f>COUNTIF(variables!C:C,'unused variables'!A65)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="B66">
         <f>COUNTIF(variables!C:C,'unused variables'!A66)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B67">
         <f>COUNTIF(variables!C:C,'unused variables'!A67)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="B68">
         <f>COUNTIF(variables!C:C,'unused variables'!A68)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="B69">
         <f>COUNTIF(variables!C:C,'unused variables'!A69)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B70">
         <f>COUNTIF(variables!C:C,'unused variables'!A70)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B71">
         <f>COUNTIF(variables!C:C,'unused variables'!A71)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="B72">
         <f>COUNTIF(variables!C:C,'unused variables'!A72)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="B73">
         <f>COUNTIF(variables!C:C,'unused variables'!A73)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="B74">
         <f>COUNTIF(variables!C:C,'unused variables'!A74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="B75">
         <f>COUNTIF(variables!C:C,'unused variables'!A75)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="B76">
         <f>COUNTIF(variables!C:C,'unused variables'!A76)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>117</v>
       </c>
@@ -5977,16 +7584,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="B78">
         <f>COUNTIF(variables!C:C,'unused variables'!A78)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>118</v>
       </c>
@@ -5995,25 +7605,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="B80">
         <f>COUNTIF(variables!C:C,'unused variables'!A80)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B81">
         <f>COUNTIF(variables!C:C,'unused variables'!A81)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>119</v>
       </c>
@@ -6022,7 +7635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>120</v>
       </c>
@@ -6031,61 +7644,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="B84">
         <f>COUNTIF(variables!C:C,'unused variables'!A84)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B85">
         <f>COUNTIF(variables!C:C,'unused variables'!A85)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="B86">
         <f>COUNTIF(variables!C:C,'unused variables'!A86)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="B87">
         <f>COUNTIF(variables!C:C,'unused variables'!A87)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="B88">
         <f>COUNTIF(variables!C:C,'unused variables'!A88)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="B89">
         <f>COUNTIF(variables!C:C,'unused variables'!A89)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>121</v>
       </c>
@@ -6094,16 +7710,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B91">
         <f>COUNTIF(variables!C:C,'unused variables'!A91)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>122</v>
       </c>
@@ -6112,7 +7728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>123</v>
       </c>
@@ -6121,171 +7737,170 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B94">
         <f>COUNTIF(variables!C:C,'unused variables'!A94)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B95">
         <f>COUNTIF(variables!C:C,'unused variables'!A95)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B96">
         <f>COUNTIF(variables!C:C,'unused variables'!A96)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="B97">
         <f>COUNTIF(variables!C:C,'unused variables'!A97)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="B98">
         <f>COUNTIF(variables!C:C,'unused variables'!A98)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>395</v>
-      </c>
-      <c r="B99">
-        <f>COUNTIF(variables!C:C,'unused variables'!A99)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="B100">
         <f>COUNTIF(variables!C:C,'unused variables'!A100)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="B101">
         <f>COUNTIF(variables!C:C,'unused variables'!A101)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B102">
         <f>COUNTIF(variables!C:C,'unused variables'!A102)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B103">
         <f>COUNTIF(variables!C:C,'unused variables'!A103)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B104">
         <f>COUNTIF(variables!C:C,'unused variables'!A104)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B105">
         <f>COUNTIF(variables!C:C,'unused variables'!A105)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="B106">
         <f>COUNTIF(variables!C:C,'unused variables'!A106)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="B107">
         <f>COUNTIF(variables!C:C,'unused variables'!A107)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="B108">
         <f>COUNTIF(variables!C:C,'unused variables'!A108)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="B109">
         <f>COUNTIF(variables!C:C,'unused variables'!A109)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="B110">
         <f>COUNTIF(variables!C:C,'unused variables'!A110)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="B111">
         <f>COUNTIF(variables!C:C,'unused variables'!A111)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="B112">
         <f>COUNTIF(variables!C:C,'unused variables'!A112)</f>
@@ -6294,7 +7909,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B113">
         <f>COUNTIF(variables!C:C,'unused variables'!A113)</f>
@@ -6303,7 +7918,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B114">
         <f>COUNTIF(variables!C:C,'unused variables'!A114)</f>
@@ -6312,7 +7927,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B115">
         <f>COUNTIF(variables!C:C,'unused variables'!A115)</f>
@@ -6330,7 +7945,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B117">
         <f>COUNTIF(variables!C:C,'unused variables'!A117)</f>
@@ -6339,7 +7954,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B118">
         <f>COUNTIF(variables!C:C,'unused variables'!A118)</f>
@@ -6348,7 +7963,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B119">
         <f>COUNTIF(variables!C:C,'unused variables'!A119)</f>
@@ -6357,7 +7972,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B120">
         <f>COUNTIF(variables!C:C,'unused variables'!A120)</f>
@@ -6366,7 +7981,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B121">
         <f>COUNTIF(variables!C:C,'unused variables'!A121)</f>
@@ -6384,7 +7999,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B123">
         <f>COUNTIF(variables!C:C,'unused variables'!A123)</f>
@@ -6402,7 +8017,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B125">
         <f>COUNTIF(variables!C:C,'unused variables'!A125)</f>
@@ -6411,7 +8026,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B126">
         <f>COUNTIF(variables!C:C,'unused variables'!A126)</f>
@@ -6420,7 +8035,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="B127">
         <f>COUNTIF(variables!C:C,'unused variables'!A127)</f>
@@ -6429,295 +8044,263 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="B128">
         <f>COUNTIF(variables!C:C,'unused variables'!A128)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B129">
         <f>COUNTIF(variables!C:C,'unused variables'!A129)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="B130">
         <f>COUNTIF(variables!C:C,'unused variables'!A130)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="B131">
         <f>COUNTIF(variables!C:C,'unused variables'!A131)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B132">
         <f>COUNTIF(variables!C:C,'unused variables'!A132)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="B133">
         <f>COUNTIF(variables!C:C,'unused variables'!A133)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B134">
         <f>COUNTIF(variables!C:C,'unused variables'!A134)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B135">
         <f>COUNTIF(variables!C:C,'unused variables'!A135)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B136">
         <f>COUNTIF(variables!C:C,'unused variables'!A136)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="B137">
         <f>COUNTIF(variables!C:C,'unused variables'!A137)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="B138">
         <f>COUNTIF(variables!C:C,'unused variables'!A138)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>412</v>
-      </c>
-      <c r="B139">
-        <f>COUNTIF(variables!C:C,'unused variables'!A139)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>413</v>
-      </c>
-      <c r="B140">
-        <f>COUNTIF(variables!C:C,'unused variables'!A140)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>414</v>
-      </c>
-      <c r="B141">
-        <f>COUNTIF(variables!C:C,'unused variables'!A141)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>415</v>
-      </c>
-      <c r="B142">
-        <f>COUNTIF(variables!C:C,'unused variables'!A142)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>416</v>
-      </c>
-      <c r="B143">
-        <f>COUNTIF(variables!C:C,'unused variables'!A143)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>417</v>
-      </c>
-      <c r="B144">
-        <f>COUNTIF(variables!C:C,'unused variables'!A144)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>418</v>
-      </c>
-      <c r="B145">
-        <f>COUNTIF(variables!C:C,'unused variables'!A145)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>419</v>
-      </c>
-      <c r="B146">
-        <f>COUNTIF(variables!C:C,'unused variables'!A146)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="B147">
         <f>COUNTIF(variables!C:C,'unused variables'!A147)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="B148">
         <f>COUNTIF(variables!C:C,'unused variables'!A148)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="B149">
         <f>COUNTIF(variables!C:C,'unused variables'!A149)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="B150">
         <f>COUNTIF(variables!C:C,'unused variables'!A150)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="B151">
         <f>COUNTIF(variables!C:C,'unused variables'!A151)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="B152">
         <f>COUNTIF(variables!C:C,'unused variables'!A152)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="B153">
         <f>COUNTIF(variables!C:C,'unused variables'!A153)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="B154">
         <f>COUNTIF(variables!C:C,'unused variables'!A154)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="B155">
         <f>COUNTIF(variables!C:C,'unused variables'!A155)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="B156">
         <f>COUNTIF(variables!C:C,'unused variables'!A156)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="B157">
         <f>COUNTIF(variables!C:C,'unused variables'!A157)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="B158">
         <f>COUNTIF(variables!C:C,'unused variables'!A158)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B159">
         <f>COUNTIF(variables!C:C,'unused variables'!A159)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="B160">
         <f>COUNTIF(variables!C:C,'unused variables'!A160)</f>
@@ -6726,7 +8309,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="B161">
         <f>COUNTIF(variables!C:C,'unused variables'!A161)</f>
@@ -6735,7 +8318,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="B162">
         <f>COUNTIF(variables!C:C,'unused variables'!A162)</f>
@@ -6744,7 +8327,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B163">
         <f>COUNTIF(variables!C:C,'unused variables'!A163)</f>
@@ -6753,7 +8336,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B164">
         <f>COUNTIF(variables!C:C,'unused variables'!A164)</f>
@@ -6762,7 +8345,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B165">
         <f>COUNTIF(variables!C:C,'unused variables'!A165)</f>
@@ -6771,7 +8354,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B166">
         <f>COUNTIF(variables!C:C,'unused variables'!A166)</f>
@@ -6780,7 +8363,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B167">
         <f>COUNTIF(variables!C:C,'unused variables'!A167)</f>
@@ -6789,7 +8372,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B168">
         <f>COUNTIF(variables!C:C,'unused variables'!A168)</f>
@@ -6798,7 +8381,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="B169">
         <f>COUNTIF(variables!C:C,'unused variables'!A169)</f>
@@ -6807,7 +8390,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B170">
         <f>COUNTIF(variables!C:C,'unused variables'!A170)</f>
@@ -6816,7 +8399,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B171">
         <f>COUNTIF(variables!C:C,'unused variables'!A171)</f>
@@ -6825,7 +8408,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B172">
         <f>COUNTIF(variables!C:C,'unused variables'!A172)</f>
@@ -6834,7 +8417,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="B173">
         <f>COUNTIF(variables!C:C,'unused variables'!A173)</f>
@@ -6843,7 +8426,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="B174">
         <f>COUNTIF(variables!C:C,'unused variables'!A174)</f>
@@ -6852,7 +8435,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B175">
         <f>COUNTIF(variables!C:C,'unused variables'!A175)</f>
@@ -6861,7 +8444,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="B176">
         <f>COUNTIF(variables!C:C,'unused variables'!A176)</f>
@@ -6869,8 +8452,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="B1:B98 B100:B1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/outputVariables.xlsx
+++ b/data/outputVariables.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vuw-my.sharepoint.com/personal/fleminte_staff_vuw_ac_nz/Documents/3 a Res_HRC data/PrevReport/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{66002B5A-1D09-43B0-BE8F-007DBCE076C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{440D41E8-B1B1-499D-9048-47D0AA4528A6}"/>
+  <xr:revisionPtr revIDLastSave="201" documentId="13_ncr:1_{66002B5A-1D09-43B0-BE8F-007DBCE076C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9013EE1D-FEDE-415F-83CC-AE0776EBD0A9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="1" r:id="rId1"/>
     <sheet name="timeSeries" sheetId="7" r:id="rId2"/>
     <sheet name="unused variables" sheetId="8" r:id="rId3"/>
+    <sheet name="unused time series" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">variables!$A$1:$F$212</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="570">
   <si>
     <t>Emot2</t>
   </si>
@@ -1009,15 +1010,6 @@
     <t>varname</t>
   </si>
   <si>
-    <t>Good emotional wellbeing comparisons 2001 - 2019</t>
-  </si>
-  <si>
-    <t>Significant depressive symptoms comparisons 2001 - 2019</t>
-  </si>
-  <si>
-    <t>Suicide attempt comparisons 2001 - 2019</t>
-  </si>
-  <si>
     <t>indian_proud</t>
   </si>
   <si>
@@ -1507,18 +1499,9 @@
     <t>Gamb10_10</t>
   </si>
   <si>
-    <t>Weekly or more often cigarette use comparisons 2001 - 2019</t>
-  </si>
-  <si>
-    <t>Weekly or more often marijuana use comparisons 2001 - 2019</t>
-  </si>
-  <si>
     <t>Weekly or more often e-cigarette use comparisons 2001 - 2019</t>
   </si>
   <si>
-    <t>Binge drinking in the last 4 weeks comparisons 2001 - 2019</t>
-  </si>
-  <si>
     <t>Other drug use</t>
   </si>
   <si>
@@ -1543,15 +1526,9 @@
     <t>Marijuana use at least monthly</t>
   </si>
   <si>
-    <t>Cigarette use weekly at least weekly</t>
-  </si>
-  <si>
     <t>E-cigarette use at least monthly</t>
   </si>
   <si>
-    <t>Marijuana use at least weekly</t>
-  </si>
-  <si>
     <t>monthlyMj</t>
   </si>
   <si>
@@ -1588,9 +1565,6 @@
     <t>Tried other drugs comparisons 2001 2019</t>
   </si>
   <si>
-    <t>Accessed school clinic in last 12 months comparisons 2001 - 2019</t>
-  </si>
-  <si>
     <t>Accessed hospital a &amp; e</t>
   </si>
   <si>
@@ -1606,15 +1580,6 @@
     <t>Assured confidentiality by HP</t>
   </si>
   <si>
-    <t>Talked with a health provider in private in last 12 months comparisons 2001 - 2019</t>
-  </si>
-  <si>
-    <t>Health provider assured confidentiality in last 12 months comparisons 2001 - 2019</t>
-  </si>
-  <si>
-    <t>Unable to access health care when needed - at least once in last 12 months comparisons 2001 - 2019</t>
-  </si>
-  <si>
     <t>Unable to access health care</t>
   </si>
   <si>
@@ -1631,6 +1596,159 @@
   </si>
   <si>
     <t>Sex26</t>
+  </si>
+  <si>
+    <t>Marijuana use - at least weekly</t>
+  </si>
+  <si>
+    <t>Cigarette use - at least weekly</t>
+  </si>
+  <si>
+    <t>Drinks alcohol weekly or more often</t>
+  </si>
+  <si>
+    <t>Alcohol use - at least weekly</t>
+  </si>
+  <si>
+    <t>Marijuana use - ever</t>
+  </si>
+  <si>
+    <t>Cigarette use - ever</t>
+  </si>
+  <si>
+    <t>Ever smoked marijuana</t>
+  </si>
+  <si>
+    <t>Sex - ever</t>
+  </si>
+  <si>
+    <t>Sex - currently</t>
+  </si>
+  <si>
+    <t>Condom use</t>
+  </si>
+  <si>
+    <t>Contraceptive use</t>
+  </si>
+  <si>
+    <t>Currently sexually active (had sex in the last 3 months)</t>
+  </si>
+  <si>
+    <t>Student (or partner) always uses contraception to prevent pregnancy</t>
+  </si>
+  <si>
+    <t>Feel safe in their neighbourhood all the time</t>
+  </si>
+  <si>
+    <t>Mother and/or father care a lot</t>
+  </si>
+  <si>
+    <t>Parents worry about not having enough money for food often or all the time</t>
+  </si>
+  <si>
+    <t>Safe Neighbourhood</t>
+  </si>
+  <si>
+    <t>Parents care</t>
+  </si>
+  <si>
+    <t>Worry about food</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Ate a meal with their family 5 or more times in the last 7 days</t>
+  </si>
+  <si>
+    <t>Family meals</t>
+  </si>
+  <si>
+    <t>People at school care a lot (like teachers, coaches, or other adults)</t>
+  </si>
+  <si>
+    <t>Teachers are fair most of the time</t>
+  </si>
+  <si>
+    <t>School care</t>
+  </si>
+  <si>
+    <t>Teachers fair</t>
+  </si>
+  <si>
+    <t>Bullying</t>
+  </si>
+  <si>
+    <t>Sexual Health Comparisons 2001 - 2019</t>
+  </si>
+  <si>
+    <t>Home and Family Comparisons 2001 – 2019</t>
+  </si>
+  <si>
+    <t>School Comparison 2001 – 2019</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Injury Risk Behaviours Comparisons 2001 - 2019</t>
+  </si>
+  <si>
+    <t>Always wears a seatbelt when driving or being driven in a car</t>
+  </si>
+  <si>
+    <t>Driven by someone in the last month who had been drinking alcohol</t>
+  </si>
+  <si>
+    <t>Driven dangerously by someone in the last month (e.g. speeding, car chases, burnouts)</t>
+  </si>
+  <si>
+    <t>Seatbelt</t>
+  </si>
+  <si>
+    <t>Passenger - alcohol</t>
+  </si>
+  <si>
+    <t>Passenger - dangerous driving</t>
+  </si>
+  <si>
+    <t>Violence Comparisons 2001 – 2019</t>
+  </si>
+  <si>
+    <t>Hit or physically harmed by another person on purpose one or more times in the last 12 months</t>
+  </si>
+  <si>
+    <t>Ever been touched in a sexual way or made to do unwanted sexual things</t>
+  </si>
+  <si>
+    <t>Violence</t>
+  </si>
+  <si>
+    <t>Hit or physically harmed</t>
+  </si>
+  <si>
+    <t>Touched sexually</t>
+  </si>
+  <si>
+    <t>Motor Vehicles</t>
+  </si>
+  <si>
+    <t>Accessed GP</t>
+  </si>
+  <si>
+    <t>Accessed family doctor, medical centre or GP clinic in the last 12 months</t>
+  </si>
+  <si>
+    <t>Accessed after-hours A&amp;E or 24-hour A&amp;M in the last 12 months</t>
+  </si>
+  <si>
+    <t>General Health Comparisons 2007 – 2019</t>
+  </si>
+  <si>
+    <t>Accessed after hours</t>
+  </si>
+  <si>
+    <t>Emotional Wellbeing Comparisons 2001 - 2019</t>
+  </si>
+  <si>
+    <t>Substance Use Comparisons 2001 - 2019</t>
   </si>
 </sst>
 </file>
@@ -1771,12 +1889,30 @@
   </cellStyles>
   <dxfs count="45">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1826,30 +1962,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2396,8 +2514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="D228" sqref="D228"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4027,7 +4145,7 @@
         <v>192</v>
       </c>
       <c r="B101" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C101" t="s">
         <v>256</v>
@@ -4047,7 +4165,7 @@
         <v>192</v>
       </c>
       <c r="B102" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C102" t="s">
         <v>256</v>
@@ -4067,7 +4185,7 @@
         <v>192</v>
       </c>
       <c r="B103" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C103" t="s">
         <v>256</v>
@@ -4093,7 +4211,7 @@
         <v>310</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D105" s="18">
         <v>1</v>
@@ -4102,7 +4220,7 @@
         <v>247</v>
       </c>
       <c r="F105" s="17" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -4113,7 +4231,7 @@
         <v>310</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D106" s="18">
         <v>1</v>
@@ -4122,7 +4240,7 @@
         <v>248</v>
       </c>
       <c r="F106" s="17" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -4133,7 +4251,7 @@
         <v>310</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D107" s="18">
         <v>1</v>
@@ -4142,7 +4260,7 @@
         <v>249</v>
       </c>
       <c r="F107" s="17" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -4153,7 +4271,7 @@
         <v>310</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D108" s="18">
         <v>1</v>
@@ -4162,7 +4280,7 @@
         <v>250</v>
       </c>
       <c r="F108" s="17" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -4173,16 +4291,16 @@
         <v>310</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D109" s="18">
         <v>1</v>
       </c>
       <c r="E109" s="17" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F109" s="17" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -4193,7 +4311,7 @@
         <v>310</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D110" s="18">
         <v>1</v>
@@ -4202,7 +4320,7 @@
         <v>260</v>
       </c>
       <c r="F110" s="17" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -4213,7 +4331,7 @@
         <v>310</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D111" s="18">
         <v>1</v>
@@ -4222,7 +4340,7 @@
         <v>251</v>
       </c>
       <c r="F111" s="17" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -4236,13 +4354,13 @@
         <v>309</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D113" s="18">
         <v>1</v>
       </c>
       <c r="E113" s="17" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F113" s="17" t="s">
         <v>261</v>
@@ -4256,13 +4374,13 @@
         <v>309</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D114" s="18">
         <v>1</v>
       </c>
       <c r="E114" s="17" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F114" s="17" t="s">
         <v>261</v>
@@ -4276,13 +4394,13 @@
         <v>309</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D115" s="18">
         <v>1</v>
       </c>
       <c r="E115" s="17" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F115" s="17" t="s">
         <v>261</v>
@@ -4296,13 +4414,13 @@
         <v>309</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="D116" s="18">
         <v>1</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F116" s="17" t="s">
         <v>261</v>
@@ -4316,7 +4434,7 @@
         <v>192</v>
       </c>
       <c r="B118" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>262</v>
@@ -4336,7 +4454,7 @@
         <v>192</v>
       </c>
       <c r="B119" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C119" t="s">
         <v>263</v>
@@ -4356,7 +4474,7 @@
         <v>192</v>
       </c>
       <c r="B120" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C120" t="s">
         <v>265</v>
@@ -4376,7 +4494,7 @@
         <v>192</v>
       </c>
       <c r="B121" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C121" t="s">
         <v>266</v>
@@ -4396,7 +4514,7 @@
         <v>192</v>
       </c>
       <c r="B122" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C122" t="s">
         <v>268</v>
@@ -4416,7 +4534,7 @@
         <v>192</v>
       </c>
       <c r="B123" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C123" t="s">
         <v>270</v>
@@ -4436,7 +4554,7 @@
         <v>192</v>
       </c>
       <c r="B124" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C124" t="s">
         <v>272</v>
@@ -4456,7 +4574,7 @@
         <v>192</v>
       </c>
       <c r="B125" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C125" t="s">
         <v>274</v>
@@ -4476,7 +4594,7 @@
         <v>192</v>
       </c>
       <c r="B126" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C126" t="s">
         <v>276</v>
@@ -4496,7 +4614,7 @@
         <v>192</v>
       </c>
       <c r="B127" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C127" t="s">
         <v>278</v>
@@ -4516,7 +4634,7 @@
         <v>192</v>
       </c>
       <c r="B128" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C128" t="s">
         <v>280</v>
@@ -4536,7 +4654,7 @@
         <v>192</v>
       </c>
       <c r="B129" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C129" t="s">
         <v>282</v>
@@ -4559,7 +4677,7 @@
         <v>192</v>
       </c>
       <c r="B131" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C131" t="s">
         <v>285</v>
@@ -4579,7 +4697,7 @@
         <v>192</v>
       </c>
       <c r="B132" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C132" t="s">
         <v>287</v>
@@ -4599,7 +4717,7 @@
         <v>192</v>
       </c>
       <c r="B133" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C133" t="s">
         <v>289</v>
@@ -4619,7 +4737,7 @@
         <v>192</v>
       </c>
       <c r="B134" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C134" t="s">
         <v>291</v>
@@ -4639,7 +4757,7 @@
         <v>192</v>
       </c>
       <c r="B135" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C135" t="s">
         <v>292</v>
@@ -4659,7 +4777,7 @@
         <v>192</v>
       </c>
       <c r="B136" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C136" t="s">
         <v>293</v>
@@ -4679,7 +4797,7 @@
         <v>192</v>
       </c>
       <c r="B137" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C137" t="s">
         <v>295</v>
@@ -4699,7 +4817,7 @@
         <v>192</v>
       </c>
       <c r="B138" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C138" t="s">
         <v>297</v>
@@ -4719,7 +4837,7 @@
         <v>192</v>
       </c>
       <c r="B139" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C139" t="s">
         <v>299</v>
@@ -5177,7 +5295,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F169" t="s">
         <v>132</v>
@@ -5191,13 +5309,13 @@
         <v>132</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D170" s="20">
         <v>1</v>
       </c>
       <c r="E170" s="20" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F170" s="19" t="s">
         <v>132</v>
@@ -5231,13 +5349,13 @@
         <v>132</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D172" s="20">
         <v>1</v>
       </c>
       <c r="E172" s="19" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F172" s="19" t="s">
         <v>132</v>
@@ -5248,7 +5366,7 @@
         <v>133</v>
       </c>
       <c r="B174" s="21" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C174" s="21" t="s">
         <v>319</v>
@@ -5268,7 +5386,7 @@
         <v>133</v>
       </c>
       <c r="B175" s="21" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C175" s="21" t="s">
         <v>319</v>
@@ -5288,7 +5406,7 @@
         <v>133</v>
       </c>
       <c r="B176" s="21" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C176" s="21" t="s">
         <v>319</v>
@@ -5308,7 +5426,7 @@
         <v>133</v>
       </c>
       <c r="B177" s="21" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C177" s="21" t="s">
         <v>319</v>
@@ -5328,7 +5446,7 @@
         <v>133</v>
       </c>
       <c r="B178" s="21" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C178" s="21" t="s">
         <v>319</v>
@@ -5348,7 +5466,7 @@
         <v>133</v>
       </c>
       <c r="B179" s="21" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C179" s="21" t="s">
         <v>319</v>
@@ -5402,7 +5520,7 @@
         <v>1</v>
       </c>
       <c r="E182" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F182" t="s">
         <v>131</v>
@@ -5436,13 +5554,13 @@
         <v>131</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D184" s="20">
         <v>1</v>
       </c>
       <c r="E184" s="19" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F184" s="19" t="s">
         <v>131</v>
@@ -5482,7 +5600,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F187" t="s">
         <v>130</v>
@@ -5522,7 +5640,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F189" t="s">
         <v>130</v>
@@ -5542,7 +5660,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F191" t="s">
         <v>134</v>
@@ -5593,19 +5711,19 @@
         <v>133</v>
       </c>
       <c r="B195" s="19" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C195" s="19" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D195" s="20">
         <v>1</v>
       </c>
       <c r="E195" s="20" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F195" s="20" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -5618,202 +5736,202 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="B197" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="C197" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="D197" s="20">
+        <v>1</v>
+      </c>
+      <c r="E197" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="B197" s="19" t="s">
-        <v>467</v>
-      </c>
-      <c r="C197" s="23" t="s">
-        <v>468</v>
-      </c>
-      <c r="D197" s="20">
-        <v>1</v>
-      </c>
-      <c r="E197" s="24" t="s">
-        <v>469</v>
-      </c>
       <c r="F197" s="20" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="19" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B198" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="C198" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="D198" s="20">
+        <v>1</v>
+      </c>
+      <c r="E198" s="24" t="s">
         <v>467</v>
       </c>
-      <c r="C198" s="23" t="s">
-        <v>480</v>
-      </c>
-      <c r="D198" s="20">
-        <v>1</v>
-      </c>
-      <c r="E198" s="24" t="s">
-        <v>470</v>
-      </c>
       <c r="F198" s="20" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="19" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C199" s="23" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D199" s="20">
         <v>1</v>
       </c>
       <c r="E199" s="24" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F199" s="20" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="19" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B200" s="19" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C200" s="23" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D200" s="20">
         <v>1</v>
       </c>
       <c r="E200" s="24" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F200" s="20" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="19" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B201" s="19" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C201" s="23" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D201" s="20">
         <v>1</v>
       </c>
       <c r="E201" s="24" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F201" s="20" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="19" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B202" s="19" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C202" s="23" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D202" s="20">
         <v>1</v>
       </c>
       <c r="E202" s="24" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F202" s="20" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="19" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B203" s="19" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C203" s="23" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D203" s="20">
         <v>1</v>
       </c>
       <c r="E203" s="24" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F203" s="20" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="19" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C204" s="23" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D204" s="20">
         <v>1</v>
       </c>
       <c r="E204" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="F204" s="20" t="s">
         <v>476</v>
-      </c>
-      <c r="F204" s="20" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="19" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B205" s="19" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C205" s="23" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D205" s="20">
         <v>1</v>
       </c>
       <c r="E205" s="24" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F205" s="20" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="19" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B206" s="19" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C206" s="23" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D206" s="20">
         <v>1</v>
       </c>
       <c r="E206" s="24" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F206" s="20" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -5830,7 +5948,7 @@
         <v>1</v>
       </c>
       <c r="E208" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F208" t="s">
         <v>144</v>
@@ -5850,7 +5968,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F209" t="s">
         <v>144</v>
@@ -5861,7 +5979,7 @@
         <v>143</v>
       </c>
       <c r="B211" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C211" t="s">
         <v>147</v>
@@ -5873,7 +5991,7 @@
         <v>148</v>
       </c>
       <c r="F211" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -5881,7 +5999,7 @@
         <v>143</v>
       </c>
       <c r="B212" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C212" t="s">
         <v>150</v>
@@ -5893,7 +6011,7 @@
         <v>149</v>
       </c>
       <c r="F212" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="215" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -5901,19 +6019,19 @@
         <v>143</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C215" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="D215">
         <v>1</v>
       </c>
       <c r="E215" s="14" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F215" s="9" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="216" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -5921,19 +6039,19 @@
         <v>143</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C216" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="D216">
         <v>2</v>
       </c>
       <c r="E216" s="14" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F216" s="9" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="217" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -5941,19 +6059,19 @@
         <v>143</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C217" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="D217">
         <v>3</v>
       </c>
       <c r="E217" s="14" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F217" s="9" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="218" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -5961,19 +6079,19 @@
         <v>143</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C218" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="D218">
         <v>4</v>
       </c>
       <c r="E218" s="14" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F218" s="9" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="219" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -5981,19 +6099,19 @@
         <v>143</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C219" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="D219">
         <v>5</v>
       </c>
       <c r="E219" s="14" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F219" s="9" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="220" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -6001,19 +6119,19 @@
         <v>143</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C220" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="D220">
         <v>6</v>
       </c>
       <c r="E220" s="14" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F220" s="9" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="221" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6022,22 +6140,22 @@
     </row>
     <row r="222" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="10" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D222" s="10">
         <v>1</v>
       </c>
       <c r="E222" s="13" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F222" s="10" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="223" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6045,159 +6163,159 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>429</v>
+      </c>
+      <c r="B224" t="s">
+        <v>431</v>
+      </c>
+      <c r="C224" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="D224" s="10">
+        <v>1</v>
+      </c>
+      <c r="E224" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="B224" t="s">
-        <v>434</v>
-      </c>
-      <c r="C224" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="D224" s="10">
-        <v>1</v>
-      </c>
-      <c r="E224" s="6" t="s">
-        <v>435</v>
-      </c>
       <c r="F224" s="10" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B225" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C225" s="15" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D225" s="10">
         <v>1</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F225" s="10" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B226" t="s">
+        <v>431</v>
+      </c>
+      <c r="C226" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="D226" s="10">
+        <v>1</v>
+      </c>
+      <c r="E226" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="C226" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="D226" s="10">
-        <v>1</v>
-      </c>
-      <c r="E226" s="6" t="s">
-        <v>437</v>
-      </c>
       <c r="F226" s="10" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B227" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C227" s="15" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D227" s="10">
         <v>1</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F227" s="10" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B228" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C228" s="15" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D228" s="10">
         <v>1</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F228" s="10" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B229" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D229" s="10">
         <v>1</v>
       </c>
       <c r="E229" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="F229" s="10" t="s">
         <v>440</v>
-      </c>
-      <c r="F229" s="10" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B230" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C230" s="15" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D230" s="10">
         <v>1</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F230" s="10" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B231" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C231" s="15" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D231" s="10">
         <v>1</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -6401,7 +6519,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D224:D231">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6412,20 +6530,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3A59AB-DC81-47F1-8E96-9E4FFA35C486}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.7109375" customWidth="1"/>
-    <col min="6" max="6" width="45" customWidth="1"/>
+    <col min="5" max="5" width="87.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -6465,7 +6583,7 @@
         <v>220</v>
       </c>
       <c r="F2" t="s">
-        <v>323</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6485,7 +6603,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>324</v>
+        <v>568</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6505,47 +6623,30 @@
         <v>221</v>
       </c>
       <c r="F4" t="s">
-        <v>325</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>498</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="D5" s="19">
-        <v>1</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>506</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>495</v>
-      </c>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>501</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>118</v>
+      <c r="B6" t="s">
+        <v>524</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
       </c>
       <c r="D6" s="19">
         <v>1</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>507</v>
+        <v>124</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>489</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6553,39 +6654,39 @@
         <v>133</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D7" s="19">
         <v>1</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>491</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>502</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>368</v>
+      <c r="B8" t="s">
+        <v>523</v>
+      </c>
+      <c r="C8" t="s">
+        <v>137</v>
       </c>
       <c r="D8" s="19">
         <v>1</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>496</v>
+        <v>569</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -6593,7 +6694,7 @@
         <v>133</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>139</v>
@@ -6602,10 +6703,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>490</v>
+        <v>569</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6613,19 +6714,19 @@
         <v>133</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>500</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>504</v>
+        <v>522</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
       </c>
       <c r="D10" s="19">
         <v>1</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>505</v>
+        <v>569</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -6633,7 +6734,7 @@
         <v>133</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>123</v>
@@ -6642,50 +6743,38 @@
         <v>1</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>492</v>
+        <v>569</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>493</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="D12" s="19">
-        <v>1</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>494</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>515</v>
-      </c>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>192</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>513</v>
+        <v>563</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D13" s="19">
         <v>1</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>514</v>
+        <v>564</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>516</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6693,19 +6782,19 @@
         <v>192</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D14" s="19">
         <v>1</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>519</v>
+        <v>566</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6713,19 +6802,19 @@
         <v>192</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>520</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>353</v>
+        <v>567</v>
+      </c>
+      <c r="C15" t="s">
+        <v>346</v>
       </c>
       <c r="D15" s="19">
         <v>1</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>449</v>
+        <v>565</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>522</v>
+        <v>566</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -6733,19 +6822,19 @@
         <v>192</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D16" s="19">
         <v>1</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>523</v>
+        <v>566</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -6753,19 +6842,19 @@
         <v>192</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D17" s="19">
         <v>1</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>524</v>
+        <v>566</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -6773,69 +6862,366 @@
         <v>192</v>
       </c>
       <c r="B18" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="D18" s="19">
+        <v>1</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>526</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>452</v>
-      </c>
-      <c r="D18" s="19">
-        <v>1</v>
-      </c>
-      <c r="E18" s="19" t="s">
+      <c r="C20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="19">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>415</v>
+      </c>
+      <c r="F20" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="C21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="19">
+        <v>1</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="F21" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>528</v>
       </c>
-      <c r="F18" s="19" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F22" s="10"/>
+      <c r="C22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="19">
+        <v>1</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="C23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="19">
+        <v>1</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="C25" t="s">
+        <v>396</v>
+      </c>
+      <c r="D25" s="19">
+        <v>1</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="F25" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>536</v>
+      </c>
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="19">
+        <v>1</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="F26" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="C27" t="s">
+        <v>385</v>
+      </c>
+      <c r="D27" s="19">
+        <v>1</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>534</v>
+      </c>
+      <c r="F27" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="C28" t="s">
+        <v>381</v>
+      </c>
+      <c r="D28" s="19">
+        <v>1</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="F28" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="C30" t="s">
+        <v>408</v>
+      </c>
+      <c r="D30" s="19">
+        <v>1</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="F30" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="C31" t="s">
+        <v>409</v>
+      </c>
+      <c r="D31" s="19">
+        <v>1</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="F31" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="C32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" s="19">
+        <v>1</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="C34" t="s">
+        <v>358</v>
+      </c>
+      <c r="D34" s="19">
+        <v>1</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="F34" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="C35" t="s">
+        <v>359</v>
+      </c>
+      <c r="D35" s="19">
+        <v>1</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="F35" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="C36" t="s">
+        <v>360</v>
+      </c>
+      <c r="D36" s="19">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F36" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>559</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>560</v>
+      </c>
+      <c r="C38" t="s">
+        <v>398</v>
+      </c>
+      <c r="D38" s="19">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>557</v>
+      </c>
+      <c r="F38" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>559</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="C39" t="s">
+        <v>374</v>
+      </c>
+      <c r="D39" s="19">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>558</v>
+      </c>
+      <c r="F39" t="s">
+        <v>556</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="10" priority="9">
-      <formula>_xlfn.ISFORMULA(C13)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>_xlfn.ISFORMULA(C14)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C17">
+  <conditionalFormatting sqref="C16:C18">
     <cfRule type="expression" dxfId="8" priority="7">
-      <formula>_xlfn.ISFORMULA(C15)</formula>
+      <formula>_xlfn.ISFORMULA(C16)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="7" priority="6">
-      <formula>_xlfn.ISFORMULA(C18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="6" priority="5">
-      <formula>_xlfn.ISFORMULA(E17)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="5" priority="4">
+  <conditionalFormatting sqref="E18 E21:E23 E25:E28 E30:E32 E34:E35">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>_xlfn.ISFORMULA(E18)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="4" priority="3">
-      <formula>_xlfn.ISFORMULA(F17)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>_xlfn.ISFORMULA(F22)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>_xlfn.ISFORMULA(F18)</formula>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>_xlfn.ISFORMULA(F23)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6846,7 +7232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E93B7FA-B128-4C52-B3FD-D803EA9E6E6C}">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
@@ -6911,7 +7297,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B7">
         <f>COUNTIF(variables!C:C,'unused variables'!A7)</f>
@@ -6929,7 +7315,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B9">
         <f>COUNTIF(variables!C:C,'unused variables'!A9)</f>
@@ -6974,7 +7360,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B14">
         <f>COUNTIF(variables!C:C,'unused variables'!A14)</f>
@@ -6992,7 +7378,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B16">
         <f>COUNTIF(variables!C:C,'unused variables'!A16)</f>
@@ -7055,7 +7441,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B23">
         <f>COUNTIF(variables!C:C,'unused variables'!A23)</f>
@@ -7064,7 +7450,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B24">
         <f>COUNTIF(variables!C:C,'unused variables'!A24)</f>
@@ -7127,7 +7513,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B31">
         <f>COUNTIF(variables!C:C,'unused variables'!A31)</f>
@@ -7136,7 +7522,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B32">
         <f>COUNTIF(variables!C:C,'unused variables'!A32)</f>
@@ -7145,7 +7531,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B33">
         <f>COUNTIF(variables!C:C,'unused variables'!A33)</f>
@@ -7154,7 +7540,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B34">
         <f>COUNTIF(variables!C:C,'unused variables'!A34)</f>
@@ -7163,7 +7549,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B35">
         <f>COUNTIF(variables!C:C,'unused variables'!A35)</f>
@@ -7172,7 +7558,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B36">
         <f>COUNTIF(variables!C:C,'unused variables'!A36)</f>
@@ -7190,7 +7576,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B38">
         <f>COUNTIF(variables!C:C,'unused variables'!A38)</f>
@@ -7262,7 +7648,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B46">
         <f>COUNTIF(variables!C:C,'unused variables'!A46)</f>
@@ -7271,7 +7657,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B47">
         <f>COUNTIF(variables!C:C,'unused variables'!A47)</f>
@@ -7280,7 +7666,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B48">
         <f>COUNTIF(variables!C:C,'unused variables'!A48)</f>
@@ -7298,7 +7684,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B50">
         <f>COUNTIF(variables!C:C,'unused variables'!A50)</f>
@@ -7307,7 +7693,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B51">
         <f>COUNTIF(variables!C:C,'unused variables'!A51)</f>
@@ -7316,7 +7702,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B52">
         <f>COUNTIF(variables!C:C,'unused variables'!A52)</f>
@@ -7325,62 +7711,62 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B53">
         <f>COUNTIF(variables!C:C,'unused variables'!A53)</f>
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B54">
         <f>COUNTIF(variables!C:C,'unused variables'!A54)</f>
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B55">
         <f>COUNTIF(variables!C:C,'unused variables'!A55)</f>
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B56">
         <f>COUNTIF(variables!C:C,'unused variables'!A56)</f>
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B57">
         <f>COUNTIF(variables!C:C,'unused variables'!A57)</f>
         <v>0</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
@@ -7388,79 +7774,79 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B58">
         <f>COUNTIF(variables!C:C,'unused variables'!A58)</f>
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B59">
         <f>COUNTIF(variables!C:C,'unused variables'!A59)</f>
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B60">
         <f>COUNTIF(variables!C:C,'unused variables'!A60)</f>
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B61">
         <f>COUNTIF(variables!C:C,'unused variables'!A61)</f>
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B62">
         <f>COUNTIF(variables!C:C,'unused variables'!A62)</f>
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B63">
         <f>COUNTIF(variables!C:C,'unused variables'!A63)</f>
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B64">
         <f>COUNTIF(variables!C:C,'unused variables'!A64)</f>
@@ -7469,7 +7855,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B65">
         <f>COUNTIF(variables!C:C,'unused variables'!A65)</f>
@@ -7478,7 +7864,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B66">
         <f>COUNTIF(variables!C:C,'unused variables'!A66)</f>
@@ -7496,7 +7882,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B68">
         <f>COUNTIF(variables!C:C,'unused variables'!A68)</f>
@@ -7505,7 +7891,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B69">
         <f>COUNTIF(variables!C:C,'unused variables'!A69)</f>
@@ -7532,7 +7918,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B72">
         <f>COUNTIF(variables!C:C,'unused variables'!A72)</f>
@@ -7541,7 +7927,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B73">
         <f>COUNTIF(variables!C:C,'unused variables'!A73)</f>
@@ -7550,7 +7936,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B74">
         <f>COUNTIF(variables!C:C,'unused variables'!A74)</f>
@@ -7559,7 +7945,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B75">
         <f>COUNTIF(variables!C:C,'unused variables'!A75)</f>
@@ -7568,7 +7954,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B76">
         <f>COUNTIF(variables!C:C,'unused variables'!A76)</f>
@@ -7586,14 +7972,14 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B78">
         <f>COUNTIF(variables!C:C,'unused variables'!A78)</f>
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -7607,14 +7993,14 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B80">
         <f>COUNTIF(variables!C:C,'unused variables'!A80)</f>
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -7646,14 +8032,14 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B84">
         <f>COUNTIF(variables!C:C,'unused variables'!A84)</f>
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -7667,7 +8053,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B86">
         <f>COUNTIF(variables!C:C,'unused variables'!A86)</f>
@@ -7676,7 +8062,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B87">
         <f>COUNTIF(variables!C:C,'unused variables'!A87)</f>
@@ -7685,7 +8071,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B88">
         <f>COUNTIF(variables!C:C,'unused variables'!A88)</f>
@@ -7694,7 +8080,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B89">
         <f>COUNTIF(variables!C:C,'unused variables'!A89)</f>
@@ -7766,19 +8152,19 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B97">
         <f>COUNTIF(variables!C:C,'unused variables'!A97)</f>
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B98">
         <f>COUNTIF(variables!C:C,'unused variables'!A98)</f>
@@ -7787,12 +8173,12 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B100">
         <f>COUNTIF(variables!C:C,'unused variables'!A100)</f>
@@ -7801,7 +8187,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B101">
         <f>COUNTIF(variables!C:C,'unused variables'!A101)</f>
@@ -7846,7 +8232,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B106">
         <f>COUNTIF(variables!C:C,'unused variables'!A106)</f>
@@ -7855,7 +8241,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B107">
         <f>COUNTIF(variables!C:C,'unused variables'!A107)</f>
@@ -7864,7 +8250,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B108">
         <f>COUNTIF(variables!C:C,'unused variables'!A108)</f>
@@ -7873,7 +8259,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B109">
         <f>COUNTIF(variables!C:C,'unused variables'!A109)</f>
@@ -7882,7 +8268,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B110">
         <f>COUNTIF(variables!C:C,'unused variables'!A110)</f>
@@ -7891,7 +8277,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B111">
         <f>COUNTIF(variables!C:C,'unused variables'!A111)</f>
@@ -7900,7 +8286,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B112">
         <f>COUNTIF(variables!C:C,'unused variables'!A112)</f>
@@ -8035,7 +8421,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B127">
         <f>COUNTIF(variables!C:C,'unused variables'!A127)</f>
@@ -8044,7 +8430,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B128">
         <f>COUNTIF(variables!C:C,'unused variables'!A128)</f>
@@ -8062,7 +8448,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B130">
         <f>COUNTIF(variables!C:C,'unused variables'!A130)</f>
@@ -8071,7 +8457,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B131">
         <f>COUNTIF(variables!C:C,'unused variables'!A131)</f>
@@ -8089,7 +8475,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B133">
         <f>COUNTIF(variables!C:C,'unused variables'!A133)</f>
@@ -8125,7 +8511,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B137">
         <f>COUNTIF(variables!C:C,'unused variables'!A137)</f>
@@ -8134,7 +8520,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B138">
         <f>COUNTIF(variables!C:C,'unused variables'!A138)</f>
@@ -8143,47 +8529,47 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C146" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B147">
         <f>COUNTIF(variables!C:C,'unused variables'!A147)</f>
@@ -8192,7 +8578,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B148">
         <f>COUNTIF(variables!C:C,'unused variables'!A148)</f>
@@ -8201,7 +8587,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B149">
         <f>COUNTIF(variables!C:C,'unused variables'!A149)</f>
@@ -8210,7 +8596,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B150">
         <f>COUNTIF(variables!C:C,'unused variables'!A150)</f>
@@ -8219,7 +8605,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B151">
         <f>COUNTIF(variables!C:C,'unused variables'!A151)</f>
@@ -8228,7 +8614,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B152">
         <f>COUNTIF(variables!C:C,'unused variables'!A152)</f>
@@ -8237,7 +8623,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B153">
         <f>COUNTIF(variables!C:C,'unused variables'!A153)</f>
@@ -8246,7 +8632,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B154">
         <f>COUNTIF(variables!C:C,'unused variables'!A154)</f>
@@ -8255,7 +8641,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B155">
         <f>COUNTIF(variables!C:C,'unused variables'!A155)</f>
@@ -8264,7 +8650,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B156">
         <f>COUNTIF(variables!C:C,'unused variables'!A156)</f>
@@ -8273,7 +8659,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B157">
         <f>COUNTIF(variables!C:C,'unused variables'!A157)</f>
@@ -8282,7 +8668,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B158">
         <f>COUNTIF(variables!C:C,'unused variables'!A158)</f>
@@ -8300,7 +8686,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B160">
         <f>COUNTIF(variables!C:C,'unused variables'!A160)</f>
@@ -8309,7 +8695,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B161">
         <f>COUNTIF(variables!C:C,'unused variables'!A161)</f>
@@ -8318,7 +8704,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B162">
         <f>COUNTIF(variables!C:C,'unused variables'!A162)</f>
@@ -8381,7 +8767,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B169">
         <f>COUNTIF(variables!C:C,'unused variables'!A169)</f>
@@ -8417,7 +8803,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B173">
         <f>COUNTIF(variables!C:C,'unused variables'!A173)</f>
@@ -8426,7 +8812,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B174">
         <f>COUNTIF(variables!C:C,'unused variables'!A174)</f>
@@ -8444,7 +8830,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B176">
         <f>COUNTIF(variables!C:C,'unused variables'!A176)</f>
@@ -8453,8 +8839,456 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B98 B100:B1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36240CF-41E2-4387-9115-83DEEB4072AE}">
+  <dimension ref="A1:F45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1">
+        <f>COUNTIF(timeSeries!C:C,A1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2">
+        <f>COUNTIF(timeSeries!C:C,A2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3">
+        <f>COUNTIF(timeSeries!C:C,A3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4">
+        <f>COUNTIF(timeSeries!C:C,A4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5">
+        <f>COUNTIF(timeSeries!C:C,A5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6">
+        <f>COUNTIF(timeSeries!C:C,A6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7">
+        <f>COUNTIF(timeSeries!C:C,A7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8">
+        <f>COUNTIF(timeSeries!C:C,A8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9">
+        <f>COUNTIF(timeSeries!C:C,A9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10">
+        <f>COUNTIF(timeSeries!C:C,A10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>358</v>
+      </c>
+      <c r="B11">
+        <f>COUNTIF(timeSeries!C:C,A11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>359</v>
+      </c>
+      <c r="B12">
+        <f>COUNTIF(timeSeries!C:C,A12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>360</v>
+      </c>
+      <c r="B13">
+        <f>COUNTIF(timeSeries!C:C,A13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>398</v>
+      </c>
+      <c r="B14">
+        <f>COUNTIF(timeSeries!C:C,A14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>374</v>
+      </c>
+      <c r="B15">
+        <f>COUNTIF(timeSeries!C:C,A15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>396</v>
+      </c>
+      <c r="B16">
+        <f>COUNTIF(timeSeries!C:C,A16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17">
+        <f>COUNTIF(timeSeries!C:C,A17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>385</v>
+      </c>
+      <c r="B18">
+        <f>COUNTIF(timeSeries!C:C,A18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>408</v>
+      </c>
+      <c r="B19">
+        <f>COUNTIF(timeSeries!C:C,A19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>409</v>
+      </c>
+      <c r="B20">
+        <f>COUNTIF(timeSeries!C:C,A20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21">
+        <f>COUNTIF(timeSeries!C:C,A21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>381</v>
+      </c>
+      <c r="B22">
+        <f>COUNTIF(timeSeries!C:C,A22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>303</v>
+      </c>
+      <c r="B23">
+        <f>COUNTIF(timeSeries!C:C,A23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>342</v>
+      </c>
+      <c r="B24">
+        <f>COUNTIF(timeSeries!C:C,A24)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>343</v>
+      </c>
+      <c r="B25">
+        <f>COUNTIF(timeSeries!C:C,A25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>346</v>
+      </c>
+      <c r="B26">
+        <f>COUNTIF(timeSeries!C:C,A26)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>347</v>
+      </c>
+      <c r="B27">
+        <f>COUNTIF(timeSeries!C:C,A27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>351</v>
+      </c>
+      <c r="B28">
+        <f>COUNTIF(timeSeries!C:C,A28)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>350</v>
+      </c>
+      <c r="B29">
+        <f>COUNTIF(timeSeries!C:C,A29)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>352</v>
+      </c>
+      <c r="B30">
+        <f>COUNTIF(timeSeries!C:C,A30)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="D39" s="19">
+        <v>1</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="D40" s="19">
+        <v>1</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="D41" s="19">
+        <v>1</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="19">
+        <v>1</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D43" s="19">
+        <v>1</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="D44" s="19">
+        <v>1</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="D45" s="19">
+        <v>1</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>507</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>_xlfn.ISFORMULA(C39)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>_xlfn.ISFORMULA(E39)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>_xlfn.ISFORMULA(F39)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>_xlfn.ISFORMULA(C40)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8471,12 +9305,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000A87E1EF3FB9FC4880E267B98BBEEEE2" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="14a1b04f31e98e89b62218351a71c0ee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1ea9f476-e5d7-46f3-a780-376ee5ddd2ee" xmlns:ns4="a5d3c314-d92b-413f-ada3-7410c346d515" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7cdfab4d19c10739c104847f1cdb6897" ns3:_="" ns4:_="">
     <xsd:import namespace="1ea9f476-e5d7-46f3-a780-376ee5ddd2ee"/>
@@ -8699,6 +9527,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABCE2DE6-17B5-4BB3-9252-EC9FC8DD82FE}">
   <ds:schemaRefs>
@@ -8708,23 +9542,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDBF97FC-5657-4433-9412-4B0BB8609358}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1ea9f476-e5d7-46f3-a780-376ee5ddd2ee"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a5d3c314-d92b-413f-ada3-7410c346d515"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E72A8210-9A33-47EA-AB10-F8FAA9E7FF82}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8741,4 +9558,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDBF97FC-5657-4433-9412-4B0BB8609358}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a5d3c314-d92b-413f-ada3-7410c346d515"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1ea9f476-e5d7-46f3-a780-376ee5ddd2ee"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/outputVariables.xlsx
+++ b/data/outputVariables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vuw-my.sharepoint.com/personal/fleminte_staff_vuw_ac_nz/Documents/3 a Res_HRC data/PrevReport/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="201" documentId="13_ncr:1_{66002B5A-1D09-43B0-BE8F-007DBCE076C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9013EE1D-FEDE-415F-83CC-AE0776EBD0A9}"/>
+  <xr:revisionPtr revIDLastSave="223" documentId="13_ncr:1_{66002B5A-1D09-43B0-BE8F-007DBCE076C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{58C968C9-3532-407B-8875-625CF79D652B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6533,7 +6533,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9296,15 +9296,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000A87E1EF3FB9FC4880E267B98BBEEEE2" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="14a1b04f31e98e89b62218351a71c0ee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1ea9f476-e5d7-46f3-a780-376ee5ddd2ee" xmlns:ns4="a5d3c314-d92b-413f-ada3-7410c346d515" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7cdfab4d19c10739c104847f1cdb6897" ns3:_="" ns4:_="">
     <xsd:import namespace="1ea9f476-e5d7-46f3-a780-376ee5ddd2ee"/>
@@ -9527,6 +9518,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -9534,14 +9534,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABCE2DE6-17B5-4BB3-9252-EC9FC8DD82FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E72A8210-9A33-47EA-AB10-F8FAA9E7FF82}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9560,19 +9552,27 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABCE2DE6-17B5-4BB3-9252-EC9FC8DD82FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDBF97FC-5657-4433-9412-4B0BB8609358}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1ea9f476-e5d7-46f3-a780-376ee5ddd2ee"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="a5d3c314-d92b-413f-ada3-7410c346d515"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a5d3c314-d92b-413f-ada3-7410c346d515"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1ea9f476-e5d7-46f3-a780-376ee5ddd2ee"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/outputVariables.xlsx
+++ b/data/outputVariables.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vuw-my.sharepoint.com/personal/fleminte_staff_vuw_ac_nz/Documents/3 a Res_HRC data/PrevReport/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="348" documentId="13_ncr:1_{66002B5A-1D09-43B0-BE8F-007DBCE076C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9F827392-A1F2-408E-B50A-A3413F4DB995}"/>
+  <xr:revisionPtr revIDLastSave="363" documentId="13_ncr:1_{66002B5A-1D09-43B0-BE8F-007DBCE076C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B1C9DD68-B69E-406C-848D-66F24A35238F}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="2100" windowWidth="24390" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="1" r:id="rId1"/>
     <sheet name="timeSeries" sheetId="7" r:id="rId2"/>
-    <sheet name="All variables" sheetId="8" r:id="rId3"/>
-    <sheet name="CustomGroup" sheetId="10" r:id="rId4"/>
-    <sheet name="unused time series" sheetId="9" r:id="rId5"/>
+    <sheet name="groupingVariables" sheetId="11" r:id="rId3"/>
+    <sheet name="All variables" sheetId="8" r:id="rId4"/>
+    <sheet name="CustomGroup" sheetId="10" r:id="rId5"/>
+    <sheet name="unused time series" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">variables!$A$1:$F$229</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4396" uniqueCount="1920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4397" uniqueCount="1920">
   <si>
     <t>Emot2</t>
   </si>
@@ -5676,9 +5677,6 @@
     <t>Engaged in vigorous physical activity 4 or more times in the last week</t>
   </si>
   <si>
-    <t>Community</t>
-  </si>
-  <si>
     <t>Helping in Community</t>
   </si>
   <si>
@@ -5800,6 +5798,9 @@
   </si>
   <si>
     <t>Vigorous physical activity  or more times in the past week: Comparisons 2001 - 2019</t>
+  </si>
+  <si>
+    <t>trans</t>
   </si>
 </sst>
 </file>
@@ -6648,8 +6649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="C277" sqref="C277"/>
+    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
+      <selection activeCell="D272" sqref="D272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8860,7 +8861,9 @@
       <c r="E132" s="14" t="s">
         <v>446</v>
       </c>
-      <c r="F132" s="14"/>
+      <c r="F132" s="14" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D133" s="4"/>
@@ -10779,11 +10782,11 @@
       <c r="D249" s="23"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+      <c r="A250" s="22" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B250" t="s">
         <v>1878</v>
-      </c>
-      <c r="B250" t="s">
-        <v>1879</v>
       </c>
       <c r="C250" t="s">
         <v>1865</v>
@@ -10792,18 +10795,18 @@
         <v>1</v>
       </c>
       <c r="E250" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="F250" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B253" t="s">
         <v>1881</v>
-      </c>
-      <c r="B253" t="s">
-        <v>1882</v>
       </c>
       <c r="C253" t="s">
         <v>371</v>
@@ -10812,18 +10815,18 @@
         <v>1</v>
       </c>
       <c r="E253" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="F253" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>1881</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>1882</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>372</v>
@@ -10832,18 +10835,18 @@
         <v>1</v>
       </c>
       <c r="E254" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="F254" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B255" s="2" t="s">
         <v>1881</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>1882</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>373</v>
@@ -10852,18 +10855,18 @@
         <v>1</v>
       </c>
       <c r="E255" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="F255" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B256" s="2" t="s">
         <v>1881</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>1882</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>1665</v>
@@ -10872,18 +10875,18 @@
         <v>1</v>
       </c>
       <c r="E256" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="F256" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B257" s="2" t="s">
         <v>1881</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>1882</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>374</v>
@@ -10892,18 +10895,18 @@
         <v>1</v>
       </c>
       <c r="E257" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="F257" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B258" s="2" t="s">
         <v>1881</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>1882</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>1667</v>
@@ -10912,10 +10915,10 @@
         <v>1</v>
       </c>
       <c r="E258" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="F258" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -10924,10 +10927,10 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B260" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="C260" s="22" t="s">
         <v>1869</v>
@@ -10936,18 +10939,18 @@
         <v>1</v>
       </c>
       <c r="E260" t="s">
+        <v>1889</v>
+      </c>
+      <c r="F260" t="s">
         <v>1890</v>
-      </c>
-      <c r="F260" t="s">
-        <v>1891</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B261" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="C261" s="22" t="s">
         <v>1869</v>
@@ -10956,18 +10959,18 @@
         <v>2</v>
       </c>
       <c r="E261" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="F261" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B262" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="C262" s="22" t="s">
         <v>1869</v>
@@ -10976,18 +10979,18 @@
         <v>3</v>
       </c>
       <c r="E262" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="F262" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B264" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="C264" t="s">
         <v>1151</v>
@@ -10996,18 +10999,18 @@
         <v>1</v>
       </c>
       <c r="E264" t="s">
+        <v>1894</v>
+      </c>
+      <c r="F264" t="s">
         <v>1895</v>
-      </c>
-      <c r="F264" t="s">
-        <v>1896</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B265" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="C265" t="s">
         <v>1151</v>
@@ -11016,18 +11019,18 @@
         <v>2</v>
       </c>
       <c r="E265" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="F265" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B266" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="C266" t="s">
         <v>1151</v>
@@ -11036,18 +11039,18 @@
         <v>3</v>
       </c>
       <c r="E266" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="F266" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B267" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="C267" t="s">
         <v>1151</v>
@@ -11056,78 +11059,78 @@
         <v>4</v>
       </c>
       <c r="E267" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="F267" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B269" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D269" s="5">
+        <v>0</v>
+      </c>
+      <c r="E269" t="s">
+        <v>1896</v>
+      </c>
+      <c r="F269" t="s">
         <v>1900</v>
-      </c>
-      <c r="C269" t="s">
-        <v>1805</v>
-      </c>
-      <c r="D269" s="5">
-        <v>1</v>
-      </c>
-      <c r="E269" t="s">
-        <v>1897</v>
-      </c>
-      <c r="F269" t="s">
-        <v>1901</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B270" t="s">
-        <v>1900</v>
-      </c>
-      <c r="C270" t="s">
-        <v>1805</v>
+        <v>1899</v>
+      </c>
+      <c r="C270" s="22" t="s">
+        <v>1919</v>
       </c>
       <c r="D270" s="5">
         <v>2</v>
       </c>
       <c r="E270" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="F270" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B271" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C271" s="22" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D271" s="5">
+        <v>1</v>
+      </c>
+      <c r="E271" t="s">
+        <v>1894</v>
+      </c>
+      <c r="F271" t="s">
         <v>1900</v>
-      </c>
-      <c r="C271" t="s">
-        <v>1805</v>
-      </c>
-      <c r="D271" s="5">
-        <v>3</v>
-      </c>
-      <c r="E271" t="s">
-        <v>1895</v>
-      </c>
-      <c r="F271" t="s">
-        <v>1901</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B273" t="s">
         <v>1903</v>
-      </c>
-      <c r="B273" t="s">
-        <v>1904</v>
       </c>
       <c r="C273" t="s">
         <v>354</v>
@@ -11136,18 +11139,18 @@
         <v>1</v>
       </c>
       <c r="E273" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="F273" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B274" t="s">
         <v>1903</v>
-      </c>
-      <c r="B274" t="s">
-        <v>1904</v>
       </c>
       <c r="C274" t="s">
         <v>357</v>
@@ -11156,18 +11159,18 @@
         <v>1</v>
       </c>
       <c r="E274" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="F274" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B275" t="s">
         <v>1903</v>
-      </c>
-      <c r="B275" t="s">
-        <v>1904</v>
       </c>
       <c r="C275" t="s">
         <v>358</v>
@@ -11176,10 +11179,10 @@
         <v>1</v>
       </c>
       <c r="E275" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F275" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -11187,7 +11190,7 @@
         <v>551</v>
       </c>
       <c r="B277" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="C277" t="s">
         <v>370</v>
@@ -11199,7 +11202,7 @@
         <v>550</v>
       </c>
       <c r="F277" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -11207,7 +11210,7 @@
         <v>551</v>
       </c>
       <c r="B278" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="C278" t="s">
         <v>394</v>
@@ -11216,10 +11219,10 @@
         <v>1</v>
       </c>
       <c r="E278" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="F278" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -11227,7 +11230,7 @@
         <v>551</v>
       </c>
       <c r="B279" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="C279" t="s">
         <v>395</v>
@@ -11236,10 +11239,10 @@
         <v>1</v>
       </c>
       <c r="E279" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="F279" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -11247,7 +11250,7 @@
         <v>551</v>
       </c>
       <c r="B280" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="C280" t="s">
         <v>392</v>
@@ -11256,10 +11259,10 @@
         <v>1</v>
       </c>
       <c r="E280" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="F280" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
   </sheetData>
@@ -12155,10 +12158,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B41" s="30" t="s">
         <v>1916</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>1917</v>
       </c>
       <c r="C41" s="30" t="s">
         <v>1861</v>
@@ -12167,10 +12170,10 @@
         <v>1</v>
       </c>
       <c r="E41" s="30" t="s">
+        <v>1917</v>
+      </c>
+      <c r="F41" s="30" t="s">
         <v>1918</v>
-      </c>
-      <c r="F41" s="30" t="s">
-        <v>1919</v>
       </c>
     </row>
   </sheetData>
@@ -12206,6 +12209,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33C04A0-A872-4EAA-A318-61F6929E5075}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E93B7FA-B128-4C52-B3FD-D803EA9E6E6C}">
   <dimension ref="A1:F1521"/>
   <sheetViews>
@@ -25946,7 +25963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23D6E65-8B0C-40A2-A858-E67CF09DFD40}">
   <dimension ref="A1:A1509"/>
   <sheetViews>
@@ -33512,7 +33529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36240CF-41E2-4387-9115-83DEEB4072AE}">
   <dimension ref="A1:F45"/>
   <sheetViews>
@@ -33961,12 +33978,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34193,15 +34207,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABCE2DE6-17B5-4BB3-9252-EC9FC8DD82FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDBF97FC-5657-4433-9412-4B0BB8609358}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1ea9f476-e5d7-46f3-a780-376ee5ddd2ee"/>
+    <ds:schemaRef ds:uri="a5d3c314-d92b-413f-ada3-7410c346d515"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -34226,18 +34252,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDBF97FC-5657-4433-9412-4B0BB8609358}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABCE2DE6-17B5-4BB3-9252-EC9FC8DD82FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a5d3c314-d92b-413f-ada3-7410c346d515"/>
-    <ds:schemaRef ds:uri="1ea9f476-e5d7-46f3-a780-376ee5ddd2ee"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/outputVariables.xlsx
+++ b/data/outputVariables.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vuw-my.sharepoint.com/personal/fleminte_staff_vuw_ac_nz/Documents/3 a Res_HRC data/PrevReport/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="348" documentId="13_ncr:1_{66002B5A-1D09-43B0-BE8F-007DBCE076C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9F827392-A1F2-408E-B50A-A3413F4DB995}"/>
+  <xr:revisionPtr revIDLastSave="357" documentId="13_ncr:1_{66002B5A-1D09-43B0-BE8F-007DBCE076C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3A73AAA0-DCB9-4CC8-BA0A-EB6B632674ED}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="2100" windowWidth="24390" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="2100" windowWidth="24390" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="1" r:id="rId1"/>
     <sheet name="timeSeries" sheetId="7" r:id="rId2"/>
-    <sheet name="All variables" sheetId="8" r:id="rId3"/>
-    <sheet name="CustomGroup" sheetId="10" r:id="rId4"/>
-    <sheet name="unused time series" sheetId="9" r:id="rId5"/>
+    <sheet name="groupingVariables" sheetId="11" r:id="rId3"/>
+    <sheet name="All variables" sheetId="8" r:id="rId4"/>
+    <sheet name="CustomGroup" sheetId="10" r:id="rId5"/>
+    <sheet name="unused time series" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">variables!$A$1:$F$229</definedName>
@@ -6648,7 +6649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
+    <sheetView topLeftCell="A254" workbookViewId="0">
       <selection activeCell="C277" sqref="C277"/>
     </sheetView>
   </sheetViews>
@@ -12206,6 +12207,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33C04A0-A872-4EAA-A318-61F6929E5075}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E93B7FA-B128-4C52-B3FD-D803EA9E6E6C}">
   <dimension ref="A1:F1521"/>
   <sheetViews>
@@ -25946,7 +25961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23D6E65-8B0C-40A2-A858-E67CF09DFD40}">
   <dimension ref="A1:A1509"/>
   <sheetViews>
@@ -33512,7 +33527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36240CF-41E2-4387-9115-83DEEB4072AE}">
   <dimension ref="A1:F45"/>
   <sheetViews>
@@ -33961,12 +33976,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34193,15 +34205,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABCE2DE6-17B5-4BB3-9252-EC9FC8DD82FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDBF97FC-5657-4433-9412-4B0BB8609358}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="1ea9f476-e5d7-46f3-a780-376ee5ddd2ee"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a5d3c314-d92b-413f-ada3-7410c346d515"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -34226,18 +34250,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDBF97FC-5657-4433-9412-4B0BB8609358}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABCE2DE6-17B5-4BB3-9252-EC9FC8DD82FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a5d3c314-d92b-413f-ada3-7410c346d515"/>
-    <ds:schemaRef ds:uri="1ea9f476-e5d7-46f3-a780-376ee5ddd2ee"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/outputVariables.xlsx
+++ b/data/outputVariables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vuw-my.sharepoint.com/personal/fleminte_staff_vuw_ac_nz/Documents/3 a Res_HRC data/PrevReport/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="363" documentId="13_ncr:1_{66002B5A-1D09-43B0-BE8F-007DBCE076C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B1C9DD68-B69E-406C-848D-66F24A35238F}"/>
+  <xr:revisionPtr revIDLastSave="365" documentId="13_ncr:1_{66002B5A-1D09-43B0-BE8F-007DBCE076C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{18045010-2624-4139-A571-ACF7DAF79D38}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="1" r:id="rId1"/>
@@ -6649,8 +6649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
-      <selection activeCell="D272" sqref="D272"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12226,8 +12226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E93B7FA-B128-4C52-B3FD-D803EA9E6E6C}">
   <dimension ref="A1:F1521"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A1435" workbookViewId="0">
+      <selection activeCell="A1453" sqref="A1453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33978,9 +33978,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34207,27 +34210,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDBF97FC-5657-4433-9412-4B0BB8609358}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABCE2DE6-17B5-4BB3-9252-EC9FC8DD82FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1ea9f476-e5d7-46f3-a780-376ee5ddd2ee"/>
-    <ds:schemaRef ds:uri="a5d3c314-d92b-413f-ada3-7410c346d515"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -34252,9 +34243,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABCE2DE6-17B5-4BB3-9252-EC9FC8DD82FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDBF97FC-5657-4433-9412-4B0BB8609358}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1ea9f476-e5d7-46f3-a780-376ee5ddd2ee"/>
+    <ds:schemaRef ds:uri="a5d3c314-d92b-413f-ada3-7410c346d515"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/outputVariables.xlsx
+++ b/data/outputVariables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vuw-my.sharepoint.com/personal/fleminte_staff_vuw_ac_nz/Documents/3 a Res_HRC data/PrevReport/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="379" documentId="13_ncr:1_{66002B5A-1D09-43B0-BE8F-007DBCE076C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{552B3466-1630-456F-9C85-F7F72C1763F1}"/>
+  <xr:revisionPtr revIDLastSave="397" documentId="13_ncr:1_{66002B5A-1D09-43B0-BE8F-007DBCE076C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DE6F134C-2A99-485B-AFF8-2A75AD93CE74}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="unused time series" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">variables!$A$1:$F$230</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">variables!$A$1:$F$233</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4402" uniqueCount="1924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4408" uniqueCount="1926">
   <si>
     <t>Emot2</t>
   </si>
@@ -5813,6 +5813,12 @@
   </si>
   <si>
     <t>Parents worry about petrol or transport often, or all of the time</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>Somewhat or very proud of being Samoan</t>
   </si>
 </sst>
 </file>
@@ -5956,7 +5962,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="60">
     <dxf>
       <fill>
         <patternFill>
@@ -6054,6 +6060,16 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6703,10 +6719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F281"/>
+  <dimension ref="A1:F284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="D210" sqref="D210"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6739,44 +6755,27 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>102</v>
-      </c>
+    <row r="3" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6787,13 +6786,13 @@
         <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
         <v>103</v>
@@ -6807,13 +6806,13 @@
         <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
         <v>103</v>
@@ -6827,36 +6826,36 @@
         <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>101</v>
       </c>
-      <c r="B9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>112</v>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6867,13 +6866,13 @@
         <v>112</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
         <v>112</v>
@@ -6887,13 +6886,13 @@
         <v>112</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
         <v>112</v>
@@ -6907,13 +6906,13 @@
         <v>112</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
         <v>112</v>
@@ -6927,13 +6926,13 @@
         <v>112</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13" s="5">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
         <v>112</v>
@@ -6947,13 +6946,13 @@
         <v>112</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
         <v>112</v>
@@ -6967,36 +6966,36 @@
         <v>112</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>101</v>
       </c>
-      <c r="B17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="5">
         <v>1</v>
       </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>104</v>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -7007,35 +7006,35 @@
         <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="C19" s="22" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>1925</v>
+      </c>
+      <c r="F19" s="22" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7047,15 +7046,35 @@
         <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7064,60 +7083,23 @@
         <v>101</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D22" s="5">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="5">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="5">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" t="s">
-        <v>105</v>
-      </c>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="23"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -7127,15 +7109,35 @@
         <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>62</v>
+      <c r="E25" t="s">
+        <v>59</v>
       </c>
       <c r="F25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" t="s">
         <v>105</v>
       </c>
     </row>
@@ -7144,19 +7146,19 @@
         <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -7164,39 +7166,19 @@
         <v>101</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D28" s="5">
         <v>1</v>
       </c>
-      <c r="E28" t="s">
-        <v>68</v>
+      <c r="E28" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="F28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="5">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -7207,15 +7189,35 @@
         <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" t="s">
         <v>106</v>
       </c>
     </row>
@@ -7224,19 +7226,19 @@
         <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D32" s="5">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -7244,39 +7246,19 @@
         <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D33" s="5">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F33" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="5">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>77</v>
-      </c>
-      <c r="F34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -7287,15 +7269,35 @@
         <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D35" s="5">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" t="s">
         <v>107</v>
       </c>
     </row>
@@ -7304,19 +7306,19 @@
         <v>101</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D37" s="5">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -7324,39 +7326,19 @@
         <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D38" s="5">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>101</v>
-      </c>
-      <c r="B39" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" t="s">
-        <v>323</v>
-      </c>
-      <c r="D39" s="5">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -7367,15 +7349,35 @@
         <v>108</v>
       </c>
       <c r="C40" t="s">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="D40" s="5">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" t="s">
         <v>108</v>
       </c>
     </row>
@@ -7384,19 +7386,19 @@
         <v>101</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C42" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
       </c>
-      <c r="E42" t="s">
-        <v>87</v>
+      <c r="E42" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="F42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -7404,39 +7406,19 @@
         <v>101</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C43" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D43" s="5">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F43" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>101</v>
-      </c>
-      <c r="B44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="5">
-        <v>1</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -7447,15 +7429,35 @@
         <v>109</v>
       </c>
       <c r="C45" t="s">
-        <v>86</v>
+        <v>319</v>
       </c>
       <c r="D45" s="5">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" t="s">
+        <v>321</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>109</v>
       </c>
     </row>
@@ -7464,19 +7466,19 @@
         <v>101</v>
       </c>
       <c r="B47" t="s">
-        <v>1846</v>
+        <v>109</v>
       </c>
       <c r="C47" t="s">
-        <v>320</v>
+        <v>85</v>
       </c>
       <c r="D47" s="5">
         <v>1</v>
       </c>
-      <c r="E47" t="s">
-        <v>1842</v>
+      <c r="E47" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>1846</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -7484,39 +7486,19 @@
         <v>101</v>
       </c>
       <c r="B48" t="s">
-        <v>1846</v>
+        <v>109</v>
       </c>
       <c r="C48" t="s">
-        <v>322</v>
+        <v>86</v>
       </c>
       <c r="D48" s="5">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>1843</v>
+        <v>90</v>
       </c>
       <c r="F48" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>101</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1846</v>
-      </c>
-      <c r="C49" t="s">
-        <v>324</v>
-      </c>
-      <c r="D49" s="5">
-        <v>1</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>1844</v>
-      </c>
-      <c r="F49" t="s">
-        <v>1846</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -7527,75 +7509,95 @@
         <v>1846</v>
       </c>
       <c r="C50" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D50" s="5">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="F50" t="s">
         <v>1846</v>
       </c>
     </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C51" t="s">
+        <v>322</v>
+      </c>
+      <c r="D51" s="5">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1843</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1846</v>
+      </c>
+    </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="B52" t="s">
-        <v>148</v>
+        <v>1846</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>324</v>
       </c>
       <c r="D52" s="5">
         <v>1</v>
       </c>
-      <c r="E52" t="s">
-        <v>152</v>
+      <c r="E52" s="3" t="s">
+        <v>1844</v>
       </c>
       <c r="F52" t="s">
-        <v>148</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>148</v>
+        <v>1846</v>
       </c>
       <c r="C53" t="s">
-        <v>150</v>
+        <v>326</v>
       </c>
       <c r="D53" s="5">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>151</v>
+        <v>1845</v>
       </c>
       <c r="F53" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>147</v>
+      </c>
+      <c r="B55" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>147</v>
-      </c>
-      <c r="B54" t="s">
-        <v>148</v>
-      </c>
-      <c r="C54" t="s">
-        <v>153</v>
-      </c>
-      <c r="D54" s="5">
+      <c r="C55" t="s">
+        <v>149</v>
+      </c>
+      <c r="D55" s="5">
         <v>1</v>
       </c>
-      <c r="E54" t="s">
-        <v>154</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="E55" t="s">
+        <v>152</v>
+      </c>
+      <c r="F55" t="s">
         <v>148</v>
       </c>
     </row>
@@ -7604,19 +7606,19 @@
         <v>147</v>
       </c>
       <c r="B56" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C56" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D56" s="5">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F56" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -7624,39 +7626,19 @@
         <v>147</v>
       </c>
       <c r="B57" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D57" s="5">
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F57" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>147</v>
-      </c>
-      <c r="B58" t="s">
-        <v>155</v>
-      </c>
-      <c r="C58" t="s">
-        <v>161</v>
-      </c>
-      <c r="D58" s="5">
-        <v>1</v>
-      </c>
-      <c r="E58" t="s">
-        <v>160</v>
-      </c>
-      <c r="F58" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -7667,13 +7649,13 @@
         <v>155</v>
       </c>
       <c r="C59" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D59" s="5">
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F59" t="s">
         <v>155</v>
@@ -7687,76 +7669,76 @@
         <v>155</v>
       </c>
       <c r="C60" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D60" s="5">
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F60" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="24" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>147</v>
       </c>
-      <c r="B62" s="24" t="s">
-        <v>1847</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="D62" s="25">
+      <c r="B61" t="s">
+        <v>155</v>
+      </c>
+      <c r="C61" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" s="5">
         <v>1</v>
       </c>
-      <c r="E62" s="25" t="s">
-        <v>1848</v>
-      </c>
-      <c r="F62" s="24" t="s">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="24" t="s">
+      <c r="E61" t="s">
+        <v>160</v>
+      </c>
+      <c r="F61" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>147</v>
       </c>
-      <c r="B63" s="24" t="s">
-        <v>1847</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>405</v>
-      </c>
-      <c r="D63" s="25">
+      <c r="B62" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62" s="5">
         <v>1</v>
       </c>
-      <c r="E63" s="25" t="s">
-        <v>1849</v>
-      </c>
-      <c r="F63" s="24" t="s">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="24" t="s">
+      <c r="E62" t="s">
+        <v>164</v>
+      </c>
+      <c r="F62" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>147</v>
       </c>
-      <c r="B64" s="24" t="s">
-        <v>1847</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="D64" s="25">
+      <c r="B63" t="s">
+        <v>155</v>
+      </c>
+      <c r="C63" t="s">
+        <v>163</v>
+      </c>
+      <c r="D63" s="5">
         <v>1</v>
       </c>
-      <c r="E64" s="25" t="s">
-        <v>1850</v>
-      </c>
-      <c r="F64" s="24" t="s">
-        <v>1847</v>
+      <c r="E63" t="s">
+        <v>165</v>
+      </c>
+      <c r="F63" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -7767,13 +7749,13 @@
         <v>1847</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>1851</v>
+        <v>404</v>
       </c>
       <c r="D65" s="25">
         <v>1</v>
       </c>
-      <c r="E65" s="24" t="s">
-        <v>1852</v>
+      <c r="E65" s="25" t="s">
+        <v>1848</v>
       </c>
       <c r="F65" s="24" t="s">
         <v>1847</v>
@@ -7787,13 +7769,13 @@
         <v>1847</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>1853</v>
+        <v>405</v>
       </c>
       <c r="D66" s="25">
         <v>1</v>
       </c>
-      <c r="E66" s="24" t="s">
-        <v>1854</v>
+      <c r="E66" s="25" t="s">
+        <v>1849</v>
       </c>
       <c r="F66" s="24" t="s">
         <v>1847</v>
@@ -7807,13 +7789,13 @@
         <v>1847</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>1244</v>
+        <v>406</v>
       </c>
       <c r="D67" s="25">
         <v>1</v>
       </c>
       <c r="E67" s="25" t="s">
-        <v>1855</v>
+        <v>1850</v>
       </c>
       <c r="F67" s="24" t="s">
         <v>1847</v>
@@ -7827,85 +7809,85 @@
         <v>1847</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>1856</v>
+        <v>1851</v>
       </c>
       <c r="D68" s="25">
         <v>1</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>1857</v>
+        <v>1852</v>
       </c>
       <c r="F68" s="24" t="s">
         <v>1847</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-    </row>
-    <row r="70" spans="1:6" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A69" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="B71" t="s">
-        <v>181</v>
-      </c>
-      <c r="C71" t="s">
-        <v>182</v>
-      </c>
-      <c r="D71" s="5">
+      <c r="B69" s="24" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D69" s="25">
         <v>1</v>
       </c>
-      <c r="E71" t="s">
-        <v>227</v>
-      </c>
-      <c r="F71" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="E69" s="24" t="s">
+        <v>1854</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="B72" t="s">
-        <v>181</v>
-      </c>
-      <c r="C72" t="s">
-        <v>183</v>
-      </c>
-      <c r="D72" s="5">
+      <c r="B70" s="24" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D70" s="25">
         <v>1</v>
       </c>
-      <c r="E72" t="s">
-        <v>186</v>
-      </c>
-      <c r="F72" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="E70" s="25" t="s">
+        <v>1855</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="B73" t="s">
-        <v>181</v>
-      </c>
-      <c r="C73" t="s">
-        <v>184</v>
-      </c>
-      <c r="D73" s="5">
+      <c r="B71" s="24" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D71" s="25">
         <v>1</v>
       </c>
-      <c r="E73" t="s">
-        <v>187</v>
-      </c>
-      <c r="F73" t="s">
-        <v>181</v>
-      </c>
+      <c r="E71" s="24" t="s">
+        <v>1857</v>
+      </c>
+      <c r="F71" s="24" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+    </row>
+    <row r="73" spans="1:6" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -7915,76 +7897,76 @@
         <v>181</v>
       </c>
       <c r="C74" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D74" s="5">
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F74" t="s">
         <v>181</v>
       </c>
     </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" t="s">
+        <v>181</v>
+      </c>
+      <c r="C75" t="s">
+        <v>183</v>
+      </c>
+      <c r="D75" s="5">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>186</v>
+      </c>
+      <c r="F75" t="s">
+        <v>181</v>
+      </c>
+    </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="B76" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="C76" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="D76" s="5">
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="F76" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="B77" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="C77" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="D77" s="5">
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="F77" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>110</v>
-      </c>
-      <c r="B78" t="s">
-        <v>111</v>
-      </c>
-      <c r="C78" t="s">
-        <v>167</v>
-      </c>
-      <c r="D78" s="5">
-        <v>1</v>
-      </c>
-      <c r="E78" t="s">
-        <v>212</v>
-      </c>
-      <c r="F78" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -7995,13 +7977,13 @@
         <v>111</v>
       </c>
       <c r="C79" t="s">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c r="D79" s="5">
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="F79" t="s">
         <v>111</v>
@@ -8015,15 +7997,35 @@
         <v>111</v>
       </c>
       <c r="C80" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D80" s="5">
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>110</v>
+      </c>
+      <c r="B81" t="s">
+        <v>111</v>
+      </c>
+      <c r="C81" t="s">
+        <v>167</v>
+      </c>
+      <c r="D81" s="5">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>212</v>
+      </c>
+      <c r="F81" t="s">
         <v>111</v>
       </c>
     </row>
@@ -8032,19 +8034,19 @@
         <v>110</v>
       </c>
       <c r="B82" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="C82" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D82" s="5">
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F82" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -8052,39 +8054,19 @@
         <v>110</v>
       </c>
       <c r="B83" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="C83" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="D83" s="5">
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="F83" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>110</v>
-      </c>
-      <c r="B84" t="s">
-        <v>174</v>
-      </c>
-      <c r="C84" t="s">
-        <v>171</v>
-      </c>
-      <c r="D84" s="5">
-        <v>1</v>
-      </c>
-      <c r="E84" t="s">
-        <v>207</v>
-      </c>
-      <c r="F84" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -8095,13 +8077,13 @@
         <v>174</v>
       </c>
       <c r="C85" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="D85" s="5">
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F85" t="s">
         <v>174</v>
@@ -8115,13 +8097,13 @@
         <v>174</v>
       </c>
       <c r="C86" t="s">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="D86" s="5">
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F86" t="s">
         <v>174</v>
@@ -8135,35 +8117,55 @@
         <v>174</v>
       </c>
       <c r="C87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D87" s="5">
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F87" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="22" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>110</v>
       </c>
-      <c r="B88" s="22" t="s">
-        <v>1871</v>
-      </c>
-      <c r="C88" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="D88" s="23">
+      <c r="B88" t="s">
+        <v>174</v>
+      </c>
+      <c r="C88" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88" s="5">
         <v>1</v>
       </c>
-      <c r="E88" s="22" t="s">
-        <v>1872</v>
-      </c>
-      <c r="F88" s="22" t="s">
+      <c r="E88" t="s">
+        <v>208</v>
+      </c>
+      <c r="F88" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>110</v>
+      </c>
+      <c r="B89" t="s">
+        <v>174</v>
+      </c>
+      <c r="C89" t="s">
+        <v>172</v>
+      </c>
+      <c r="D89" s="5">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>209</v>
+      </c>
+      <c r="F89" t="s">
         <v>174</v>
       </c>
     </row>
@@ -8172,59 +8174,39 @@
         <v>110</v>
       </c>
       <c r="B90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C90" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D90" s="5">
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="F90" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B91" t="s">
-        <v>175</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D91" s="5">
+      <c r="B91" s="22" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="D91" s="23">
         <v>1</v>
       </c>
-      <c r="E91" t="s">
-        <v>222</v>
-      </c>
-      <c r="F91" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="B92" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="C92" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="D92" s="24">
-        <v>1</v>
-      </c>
-      <c r="E92" s="24" t="s">
-        <v>1873</v>
-      </c>
-      <c r="F92" s="24" t="s">
-        <v>175</v>
+      <c r="E91" s="22" t="s">
+        <v>1872</v>
+      </c>
+      <c r="F91" s="22" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -8234,181 +8216,181 @@
       <c r="B93" t="s">
         <v>175</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>178</v>
+      <c r="C93" t="s">
+        <v>176</v>
       </c>
       <c r="D93" s="5">
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F93" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="22" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>110</v>
       </c>
-      <c r="B94" s="22" t="s">
+      <c r="B94" t="s">
         <v>175</v>
       </c>
       <c r="C94" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D94" s="5">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>222</v>
+      </c>
+      <c r="F94" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B95" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C95" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="D95" s="24">
+        <v>1</v>
+      </c>
+      <c r="E95" s="24" t="s">
+        <v>1873</v>
+      </c>
+      <c r="F95" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>110</v>
+      </c>
+      <c r="B96" t="s">
+        <v>175</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D96" s="5">
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>223</v>
+      </c>
+      <c r="F96" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B97" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>1918</v>
       </c>
-      <c r="D94" s="23">
+      <c r="D97" s="23">
         <v>1</v>
       </c>
-      <c r="E94" s="22" t="s">
+      <c r="E97" s="22" t="s">
         <v>1919</v>
       </c>
-      <c r="F94" s="22" t="s">
+      <c r="F97" s="22" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>110</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B98" t="s">
         <v>175</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D98" s="5">
         <v>1</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E98" t="s">
         <v>224</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F98" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="22" t="s">
+    <row r="99" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B96" s="22" t="s">
+      <c r="B99" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>1922</v>
       </c>
-      <c r="D96" s="23">
+      <c r="D99" s="23">
         <v>1</v>
       </c>
-      <c r="E96" s="22" t="s">
+      <c r="E99" s="22" t="s">
         <v>1920</v>
       </c>
-      <c r="F96" s="22" t="s">
+      <c r="F99" s="22" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>110</v>
-      </c>
-      <c r="B97" t="s">
-        <v>175</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D97" s="5">
-        <v>1</v>
-      </c>
-      <c r="E97" t="s">
-        <v>225</v>
-      </c>
-      <c r="F97" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B98" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>1921</v>
-      </c>
-      <c r="D98" s="23">
-        <v>1</v>
-      </c>
-      <c r="E98" s="22" t="s">
-        <v>1923</v>
-      </c>
-      <c r="F98" s="22" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C99" s="2"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="B100" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="D100" s="5">
         <v>1</v>
       </c>
-      <c r="E100" s="5" t="s">
-        <v>7</v>
+      <c r="E100" t="s">
+        <v>225</v>
       </c>
       <c r="F100" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>188</v>
-      </c>
-      <c r="B101" t="s">
-        <v>229</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B101" s="22" t="s">
+        <v>175</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D101" s="5">
-        <v>2</v>
-      </c>
-      <c r="E101" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" t="s">
-        <v>231</v>
+        <v>1921</v>
+      </c>
+      <c r="D101" s="23">
+        <v>1</v>
+      </c>
+      <c r="E101" s="22" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F101" s="22" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>188</v>
-      </c>
-      <c r="B102" t="s">
-        <v>229</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D102" s="5">
-        <v>3</v>
-      </c>
-      <c r="E102" t="s">
-        <v>6</v>
-      </c>
-      <c r="F102" t="s">
-        <v>231</v>
-      </c>
+      <c r="C102" s="2"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
@@ -8421,10 +8403,10 @@
         <v>230</v>
       </c>
       <c r="D103" s="5">
-        <v>4</v>
-      </c>
-      <c r="E103" t="s">
-        <v>232</v>
+        <v>1</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="F103" t="s">
         <v>231</v>
@@ -8441,32 +8423,52 @@
         <v>230</v>
       </c>
       <c r="D104" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E104" t="s">
-        <v>233</v>
+        <v>8</v>
       </c>
       <c r="F104" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="24" t="s">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>188</v>
       </c>
-      <c r="B105" s="24" t="s">
+      <c r="B105" t="s">
         <v>229</v>
       </c>
-      <c r="C105" s="28" t="s">
-        <v>337</v>
-      </c>
-      <c r="D105" s="24">
-        <v>1</v>
-      </c>
-      <c r="E105" s="24" t="s">
-        <v>1874</v>
-      </c>
-      <c r="F105" s="24" t="s">
+      <c r="C105" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D105" s="5">
+        <v>3</v>
+      </c>
+      <c r="E105" t="s">
+        <v>6</v>
+      </c>
+      <c r="F105" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>188</v>
+      </c>
+      <c r="B106" t="s">
+        <v>229</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D106" s="5">
+        <v>4</v>
+      </c>
+      <c r="E106" t="s">
+        <v>232</v>
+      </c>
+      <c r="F106" t="s">
         <v>231</v>
       </c>
     </row>
@@ -8475,82 +8477,79 @@
         <v>188</v>
       </c>
       <c r="B107" t="s">
+        <v>229</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D107" s="5">
+        <v>5</v>
+      </c>
+      <c r="E107" t="s">
+        <v>233</v>
+      </c>
+      <c r="F107" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="B108" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="C108" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="D108" s="24">
+        <v>1</v>
+      </c>
+      <c r="E108" s="24" t="s">
+        <v>1874</v>
+      </c>
+      <c r="F108" s="24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>188</v>
+      </c>
+      <c r="B110" t="s">
         <v>234</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D107" s="5">
+      <c r="D110" s="5">
         <v>1</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E110" t="s">
         <v>236</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F110" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>188</v>
-      </c>
-      <c r="B108" t="s">
-        <v>234</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D108" s="5">
-        <v>1</v>
-      </c>
-      <c r="E108" t="s">
-        <v>237</v>
-      </c>
-      <c r="F108" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>188</v>
-      </c>
-      <c r="B109" t="s">
-        <v>234</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D109" s="5">
-        <v>1</v>
-      </c>
-      <c r="E109" t="s">
-        <v>238</v>
-      </c>
-      <c r="F109" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C110" s="2"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>188</v>
       </c>
       <c r="B111" t="s">
-        <v>307</v>
-      </c>
-      <c r="C111" t="s">
-        <v>249</v>
-      </c>
-      <c r="D111" s="4">
+        <v>234</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D111" s="5">
         <v>1</v>
       </c>
       <c r="E111" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F111" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -8558,40 +8557,23 @@
         <v>188</v>
       </c>
       <c r="B112" t="s">
-        <v>307</v>
-      </c>
-      <c r="C112" t="s">
-        <v>249</v>
-      </c>
-      <c r="D112" s="4">
-        <v>2</v>
+        <v>234</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D112" s="5">
+        <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F112" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>188</v>
-      </c>
-      <c r="B113" t="s">
-        <v>307</v>
-      </c>
-      <c r="C113" t="s">
-        <v>249</v>
-      </c>
-      <c r="D113" s="4">
-        <v>3</v>
-      </c>
-      <c r="E113" t="s">
-        <v>245</v>
-      </c>
-      <c r="F113" t="s">
-        <v>242</v>
-      </c>
+      <c r="C113" s="2"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -8604,10 +8586,10 @@
         <v>249</v>
       </c>
       <c r="D114" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F114" t="s">
         <v>242</v>
@@ -8624,10 +8606,10 @@
         <v>249</v>
       </c>
       <c r="D115" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E115" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F115" t="s">
         <v>242</v>
@@ -8644,10 +8626,10 @@
         <v>249</v>
       </c>
       <c r="D116" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E116" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F116" t="s">
         <v>242</v>
@@ -8664,36 +8646,53 @@
         <v>249</v>
       </c>
       <c r="D117" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E117" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F117" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D118" s="4"/>
+      <c r="A118" t="s">
+        <v>188</v>
+      </c>
+      <c r="B118" t="s">
+        <v>307</v>
+      </c>
+      <c r="C118" t="s">
+        <v>249</v>
+      </c>
+      <c r="D118" s="4">
+        <v>5</v>
+      </c>
+      <c r="E118" t="s">
+        <v>250</v>
+      </c>
+      <c r="F118" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>188</v>
       </c>
       <c r="B119" t="s">
-        <v>448</v>
+        <v>307</v>
       </c>
       <c r="C119" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D119" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E119" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F119" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -8701,103 +8700,86 @@
         <v>188</v>
       </c>
       <c r="B120" t="s">
+        <v>307</v>
+      </c>
+      <c r="C120" t="s">
+        <v>249</v>
+      </c>
+      <c r="D120" s="4">
+        <v>7</v>
+      </c>
+      <c r="E120" t="s">
+        <v>248</v>
+      </c>
+      <c r="F120" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D121" s="4"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>188</v>
+      </c>
+      <c r="B122" t="s">
         <v>448</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C122" t="s">
         <v>252</v>
       </c>
-      <c r="D120" s="4">
+      <c r="D122" s="4">
+        <v>1</v>
+      </c>
+      <c r="E122" t="s">
+        <v>253</v>
+      </c>
+      <c r="F122" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>188</v>
+      </c>
+      <c r="B123" t="s">
+        <v>448</v>
+      </c>
+      <c r="C123" t="s">
+        <v>252</v>
+      </c>
+      <c r="D123" s="4">
         <v>2</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E123" t="s">
         <v>254</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F123" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>188</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B124" t="s">
         <v>448</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C124" t="s">
         <v>252</v>
       </c>
-      <c r="D121" s="4">
+      <c r="D124" s="4">
         <v>3</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E124" t="s">
         <v>255</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F124" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D122" s="4"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="B123" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="C123" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="D123" s="15">
-        <v>1</v>
-      </c>
-      <c r="E123" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="F123" s="14" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="B124" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="C124" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="D124" s="15">
-        <v>1</v>
-      </c>
-      <c r="E124" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="F124" s="14" t="s">
-        <v>440</v>
-      </c>
-    </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="C125" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="D125" s="15">
-        <v>1</v>
-      </c>
-      <c r="E125" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="F125" s="14" t="s">
-        <v>440</v>
-      </c>
+      <c r="D125" s="4"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
@@ -8807,13 +8789,13 @@
         <v>306</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D126" s="15">
         <v>1</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F126" s="14" t="s">
         <v>440</v>
@@ -8827,13 +8809,13 @@
         <v>306</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D127" s="15">
         <v>1</v>
       </c>
       <c r="E127" s="14" t="s">
-        <v>441</v>
+        <v>244</v>
       </c>
       <c r="F127" s="14" t="s">
         <v>440</v>
@@ -8847,13 +8829,13 @@
         <v>306</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D128" s="15">
         <v>1</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="F128" s="14" t="s">
         <v>440</v>
@@ -8867,143 +8849,143 @@
         <v>306</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D129" s="15">
         <v>1</v>
       </c>
       <c r="E129" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F129" s="14" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D130" s="13"/>
-    </row>
-    <row r="131" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C130" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="D130" s="15">
+        <v>1</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="F130" s="14" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
         <v>188</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D131" s="15">
         <v>1</v>
       </c>
       <c r="E131" s="14" t="s">
-        <v>442</v>
+        <v>256</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
         <v>188</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D132" s="15">
         <v>1</v>
       </c>
       <c r="E132" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="F132" s="14" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D133" s="13"/>
+    </row>
+    <row r="134" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C134" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="D134" s="15">
+        <v>1</v>
+      </c>
+      <c r="E134" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="F134" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C135" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="D135" s="15">
+        <v>1</v>
+      </c>
+      <c r="E135" s="14" t="s">
         <v>443</v>
       </c>
-      <c r="F132" s="14" t="s">
+      <c r="F135" s="14" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="133" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="14" t="s">
+    <row r="136" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="B133" s="14" t="s">
+      <c r="B136" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="C133" s="14" t="s">
+      <c r="C136" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="D133" s="15">
+      <c r="D136" s="15">
         <v>1</v>
       </c>
-      <c r="E133" s="14" t="s">
+      <c r="E136" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="F133" s="14" t="s">
+      <c r="F136" s="14" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D134" s="4"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>188</v>
-      </c>
-      <c r="B135" t="s">
-        <v>446</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D135" s="7">
-        <v>1</v>
-      </c>
-      <c r="E135" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="F135" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>188</v>
-      </c>
-      <c r="B136" t="s">
-        <v>446</v>
-      </c>
-      <c r="C136" t="s">
-        <v>259</v>
-      </c>
-      <c r="D136" s="7">
-        <v>1</v>
-      </c>
-      <c r="E136" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="F136" t="s">
-        <v>280</v>
-      </c>
-    </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>188</v>
-      </c>
-      <c r="B137" t="s">
-        <v>446</v>
-      </c>
-      <c r="C137" t="s">
-        <v>261</v>
-      </c>
-      <c r="D137" s="7">
-        <v>1</v>
-      </c>
-      <c r="E137" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="F137" t="s">
-        <v>280</v>
-      </c>
+      <c r="D137" s="4"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
@@ -9012,14 +8994,14 @@
       <c r="B138" t="s">
         <v>446</v>
       </c>
-      <c r="C138" t="s">
-        <v>262</v>
+      <c r="C138" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="D138" s="7">
         <v>1</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="F138" t="s">
         <v>280</v>
@@ -9033,13 +9015,13 @@
         <v>446</v>
       </c>
       <c r="C139" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D139" s="7">
         <v>1</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F139" t="s">
         <v>280</v>
@@ -9053,13 +9035,13 @@
         <v>446</v>
       </c>
       <c r="C140" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D140" s="7">
         <v>1</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="F140" t="s">
         <v>280</v>
@@ -9073,13 +9055,13 @@
         <v>446</v>
       </c>
       <c r="C141" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D141" s="7">
         <v>1</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F141" t="s">
         <v>280</v>
@@ -9093,13 +9075,13 @@
         <v>446</v>
       </c>
       <c r="C142" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D142" s="7">
         <v>1</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F142" t="s">
         <v>280</v>
@@ -9113,13 +9095,13 @@
         <v>446</v>
       </c>
       <c r="C143" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D143" s="7">
         <v>1</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F143" t="s">
         <v>280</v>
@@ -9133,13 +9115,13 @@
         <v>446</v>
       </c>
       <c r="C144" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D144" s="7">
         <v>1</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F144" t="s">
         <v>280</v>
@@ -9153,13 +9135,13 @@
         <v>446</v>
       </c>
       <c r="C145" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D145" s="7">
         <v>1</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F145" t="s">
         <v>280</v>
@@ -9173,39 +9155,56 @@
         <v>446</v>
       </c>
       <c r="C146" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D146" s="7">
         <v>1</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F146" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D147" s="4"/>
+      <c r="A147" t="s">
+        <v>188</v>
+      </c>
+      <c r="B147" t="s">
+        <v>446</v>
+      </c>
+      <c r="C147" t="s">
+        <v>274</v>
+      </c>
+      <c r="D147" s="7">
+        <v>1</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="F147" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>188</v>
       </c>
       <c r="B148" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C148" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D148" s="7">
         <v>1</v>
       </c>
-      <c r="E148" s="4" t="s">
-        <v>282</v>
+      <c r="E148" s="6" t="s">
+        <v>277</v>
       </c>
       <c r="F148" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -9213,40 +9212,23 @@
         <v>188</v>
       </c>
       <c r="B149" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C149" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D149" s="7">
         <v>1</v>
       </c>
-      <c r="E149" s="4" t="s">
-        <v>284</v>
+      <c r="E149" s="6" t="s">
+        <v>279</v>
       </c>
       <c r="F149" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>188</v>
-      </c>
-      <c r="B150" t="s">
-        <v>447</v>
-      </c>
-      <c r="C150" t="s">
-        <v>285</v>
-      </c>
-      <c r="D150" s="7">
-        <v>1</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F150" t="s">
-        <v>297</v>
-      </c>
+      <c r="D150" s="4"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
@@ -9256,13 +9238,13 @@
         <v>447</v>
       </c>
       <c r="C151" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D151" s="7">
         <v>1</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="F151" t="s">
         <v>297</v>
@@ -9276,13 +9258,13 @@
         <v>447</v>
       </c>
       <c r="C152" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D152" s="7">
         <v>1</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="F152" t="s">
         <v>297</v>
@@ -9296,13 +9278,13 @@
         <v>447</v>
       </c>
       <c r="C153" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D153" s="7">
         <v>1</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F153" t="s">
         <v>297</v>
@@ -9316,13 +9298,13 @@
         <v>447</v>
       </c>
       <c r="C154" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D154" s="7">
         <v>1</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="F154" t="s">
         <v>297</v>
@@ -9336,13 +9318,13 @@
         <v>447</v>
       </c>
       <c r="C155" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D155" s="7">
         <v>1</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="F155" t="s">
         <v>297</v>
@@ -9356,81 +9338,101 @@
         <v>447</v>
       </c>
       <c r="C156" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D156" s="7">
         <v>1</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F156" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D157" s="4"/>
+      <c r="A157" t="s">
+        <v>188</v>
+      </c>
+      <c r="B157" t="s">
+        <v>447</v>
+      </c>
+      <c r="C157" t="s">
+        <v>291</v>
+      </c>
+      <c r="D157" s="7">
+        <v>1</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F157" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D158" s="4"/>
+      <c r="A158" t="s">
+        <v>188</v>
+      </c>
+      <c r="B158" t="s">
+        <v>447</v>
+      </c>
+      <c r="C158" t="s">
+        <v>293</v>
+      </c>
+      <c r="D158" s="7">
+        <v>1</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F158" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>188</v>
       </c>
       <c r="B159" t="s">
+        <v>447</v>
+      </c>
+      <c r="C159" t="s">
+        <v>295</v>
+      </c>
+      <c r="D159" s="7">
+        <v>1</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F159" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D160" s="4"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D161" s="4"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>188</v>
+      </c>
+      <c r="B162" t="s">
         <v>298</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C162" t="s">
         <v>190</v>
       </c>
-      <c r="D159" s="2">
+      <c r="D162" s="2">
         <v>2</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="E162" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F159" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>188</v>
-      </c>
-      <c r="B160" t="s">
-        <v>298</v>
-      </c>
-      <c r="C160" t="s">
-        <v>192</v>
-      </c>
-      <c r="D160" s="4">
-        <v>2</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F160" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>188</v>
-      </c>
-      <c r="B161" t="s">
-        <v>298</v>
-      </c>
-      <c r="C161" t="s">
-        <v>194</v>
-      </c>
-      <c r="D161" s="4">
-        <v>2</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F161" t="s">
+      <c r="F162" t="s">
         <v>189</v>
       </c>
     </row>
@@ -9439,19 +9441,19 @@
         <v>188</v>
       </c>
       <c r="B163" t="s">
-        <v>196</v>
+        <v>298</v>
       </c>
       <c r="C163" t="s">
-        <v>299</v>
-      </c>
-      <c r="D163" s="7">
-        <v>1</v>
-      </c>
-      <c r="E163" t="s">
-        <v>300</v>
+        <v>192</v>
+      </c>
+      <c r="D163" s="4">
+        <v>2</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="F163" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -9459,123 +9461,103 @@
         <v>188</v>
       </c>
       <c r="B164" t="s">
+        <v>298</v>
+      </c>
+      <c r="C164" t="s">
+        <v>194</v>
+      </c>
+      <c r="D164" s="4">
+        <v>2</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F164" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>188</v>
+      </c>
+      <c r="B166" t="s">
         <v>196</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C166" t="s">
+        <v>299</v>
+      </c>
+      <c r="D166" s="7">
+        <v>1</v>
+      </c>
+      <c r="E166" t="s">
+        <v>300</v>
+      </c>
+      <c r="F166" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>188</v>
+      </c>
+      <c r="B167" t="s">
+        <v>196</v>
+      </c>
+      <c r="C167" t="s">
         <v>197</v>
       </c>
-      <c r="D164" s="4">
+      <c r="D167" s="4">
         <v>1</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E167" t="s">
         <v>198</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F167" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>188</v>
-      </c>
-      <c r="B165" t="s">
-        <v>196</v>
-      </c>
-      <c r="C165" t="s">
-        <v>199</v>
-      </c>
-      <c r="D165" s="4">
-        <v>1</v>
-      </c>
-      <c r="E165" t="s">
-        <v>200</v>
-      </c>
-      <c r="F165" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="B166" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="C166" s="24" t="s">
-        <v>1859</v>
-      </c>
-      <c r="D166" s="27">
-        <v>1</v>
-      </c>
-      <c r="E166" s="24" t="s">
-        <v>1875</v>
-      </c>
-      <c r="F166" s="24" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D167" s="4"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="B168" t="s">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="C168" t="s">
-        <v>0</v>
-      </c>
-      <c r="D168" s="5">
+        <v>199</v>
+      </c>
+      <c r="D168" s="4">
         <v>1</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="E168" t="s">
+        <v>200</v>
+      </c>
+      <c r="F168" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="B169" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C169" s="24" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D169" s="27">
         <v>1</v>
       </c>
-      <c r="F168" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>96</v>
-      </c>
-      <c r="B169" t="s">
-        <v>97</v>
-      </c>
-      <c r="C169" t="s">
-        <v>0</v>
-      </c>
-      <c r="D169" s="5">
-        <v>2</v>
-      </c>
-      <c r="E169" t="s">
-        <v>2</v>
-      </c>
-      <c r="F169" t="s">
-        <v>202</v>
+      <c r="E169" s="24" t="s">
+        <v>1875</v>
+      </c>
+      <c r="F169" s="24" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>96</v>
-      </c>
-      <c r="B170" t="s">
-        <v>97</v>
-      </c>
-      <c r="C170" t="s">
-        <v>0</v>
-      </c>
-      <c r="D170" s="5">
-        <v>3</v>
-      </c>
-      <c r="E170" t="s">
-        <v>3</v>
-      </c>
-      <c r="F170" t="s">
-        <v>202</v>
-      </c>
+      <c r="D170" s="4"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
@@ -9588,12 +9570,32 @@
         <v>0</v>
       </c>
       <c r="D171" s="5">
-        <v>4</v>
-      </c>
-      <c r="E171" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="F171" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>96</v>
+      </c>
+      <c r="B172" t="s">
+        <v>97</v>
+      </c>
+      <c r="C172" t="s">
+        <v>0</v>
+      </c>
+      <c r="D172" s="5">
+        <v>2</v>
+      </c>
+      <c r="E172" t="s">
+        <v>2</v>
+      </c>
+      <c r="F172" t="s">
         <v>202</v>
       </c>
     </row>
@@ -9602,19 +9604,19 @@
         <v>96</v>
       </c>
       <c r="B173" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C173" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D173" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E173" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F173" t="s">
-        <v>98</v>
+        <v>202</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -9622,38 +9624,38 @@
         <v>96</v>
       </c>
       <c r="B174" t="s">
+        <v>97</v>
+      </c>
+      <c r="C174" t="s">
+        <v>0</v>
+      </c>
+      <c r="D174" s="5">
+        <v>4</v>
+      </c>
+      <c r="E174" t="s">
+        <v>4</v>
+      </c>
+      <c r="F174" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>96</v>
+      </c>
+      <c r="B176" t="s">
         <v>98</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C176" t="s">
         <v>5</v>
       </c>
-      <c r="D174" s="5">
-        <v>2</v>
-      </c>
-      <c r="E174" t="s">
-        <v>8</v>
-      </c>
-      <c r="F174" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>96</v>
-      </c>
-      <c r="B175" t="s">
-        <v>98</v>
-      </c>
-      <c r="C175" t="s">
-        <v>5</v>
-      </c>
-      <c r="D175" s="5">
-        <v>3</v>
-      </c>
-      <c r="E175" t="s">
-        <v>7</v>
-      </c>
-      <c r="F175" t="s">
+      <c r="D176" s="5">
+        <v>1</v>
+      </c>
+      <c r="E176" t="s">
+        <v>6</v>
+      </c>
+      <c r="F176" t="s">
         <v>98</v>
       </c>
     </row>
@@ -9662,19 +9664,19 @@
         <v>96</v>
       </c>
       <c r="B177" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D177" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F177" t="s">
-        <v>203</v>
+        <v>98</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -9682,38 +9684,38 @@
         <v>96</v>
       </c>
       <c r="B178" t="s">
+        <v>98</v>
+      </c>
+      <c r="C178" t="s">
+        <v>5</v>
+      </c>
+      <c r="D178" s="5">
+        <v>3</v>
+      </c>
+      <c r="E178" t="s">
+        <v>7</v>
+      </c>
+      <c r="F178" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>96</v>
+      </c>
+      <c r="B180" t="s">
         <v>99</v>
       </c>
-      <c r="C178" t="s">
-        <v>11</v>
-      </c>
-      <c r="D178" s="5">
+      <c r="C180" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="5">
         <v>1</v>
       </c>
-      <c r="E178" t="s">
-        <v>12</v>
-      </c>
-      <c r="F178" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>96</v>
-      </c>
-      <c r="B179" t="s">
-        <v>99</v>
-      </c>
-      <c r="C179" t="s">
-        <v>13</v>
-      </c>
-      <c r="D179" s="5">
-        <v>1</v>
-      </c>
-      <c r="E179" t="s">
-        <v>14</v>
-      </c>
-      <c r="F179" t="s">
+      <c r="E180" t="s">
+        <v>10</v>
+      </c>
+      <c r="F180" t="s">
         <v>203</v>
       </c>
     </row>
@@ -9722,19 +9724,19 @@
         <v>96</v>
       </c>
       <c r="B181" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C181" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D181" s="5">
         <v>1</v>
       </c>
       <c r="E181" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -9742,39 +9744,19 @@
         <v>96</v>
       </c>
       <c r="B182" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C182" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D182" s="5">
         <v>1</v>
       </c>
       <c r="E182" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F182" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>96</v>
-      </c>
-      <c r="B183" t="s">
-        <v>100</v>
-      </c>
-      <c r="C183" t="s">
-        <v>17</v>
-      </c>
-      <c r="D183" s="5">
-        <v>1</v>
-      </c>
-      <c r="E183" t="s">
-        <v>21</v>
-      </c>
-      <c r="F183" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -9785,95 +9767,95 @@
         <v>100</v>
       </c>
       <c r="C184" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D184" s="5">
         <v>1</v>
       </c>
       <c r="E184" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F184" t="s">
         <v>204</v>
       </c>
     </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>96</v>
+      </c>
+      <c r="B185" t="s">
+        <v>100</v>
+      </c>
+      <c r="C185" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" s="5">
+        <v>1</v>
+      </c>
+      <c r="E185" t="s">
+        <v>20</v>
+      </c>
+      <c r="F185" t="s">
+        <v>204</v>
+      </c>
+    </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="B186" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="C186" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="D186" s="5">
         <v>1</v>
       </c>
       <c r="E186" t="s">
+        <v>21</v>
+      </c>
+      <c r="F186" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>96</v>
+      </c>
+      <c r="B187" t="s">
+        <v>100</v>
+      </c>
+      <c r="C187" t="s">
+        <v>18</v>
+      </c>
+      <c r="D187" s="5">
+        <v>1</v>
+      </c>
+      <c r="E187" t="s">
+        <v>22</v>
+      </c>
+      <c r="F187" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>129</v>
+      </c>
+      <c r="B189" t="s">
+        <v>128</v>
+      </c>
+      <c r="C189" t="s">
+        <v>113</v>
+      </c>
+      <c r="D189" s="5">
+        <v>1</v>
+      </c>
+      <c r="E189" t="s">
         <v>120</v>
       </c>
-      <c r="F186" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="B187" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C187" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="D187" s="25">
-        <v>1</v>
-      </c>
-      <c r="E187" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="F187" s="24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="B188" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C188" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="D188" s="25">
-        <v>1</v>
-      </c>
-      <c r="E188" s="25" t="s">
-        <v>483</v>
-      </c>
-      <c r="F188" s="24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="B189" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C189" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D189" s="25">
-        <v>1</v>
-      </c>
-      <c r="E189" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="F189" s="24" t="s">
+      <c r="F189" t="s">
         <v>128</v>
       </c>
     </row>
@@ -9885,76 +9867,76 @@
         <v>128</v>
       </c>
       <c r="C190" s="24" t="s">
-        <v>360</v>
+        <v>137</v>
       </c>
       <c r="D190" s="25">
         <v>1</v>
       </c>
       <c r="E190" s="24" t="s">
-        <v>449</v>
+        <v>414</v>
       </c>
       <c r="F190" s="24" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="18" t="s">
+    <row r="191" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B192" s="18" t="s">
-        <v>450</v>
-      </c>
-      <c r="C192" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="D192" s="19">
+      <c r="B191" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C191" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="D191" s="25">
         <v>1</v>
       </c>
-      <c r="E192" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="F192" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="18" t="s">
+      <c r="E191" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="F191" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B193" s="18" t="s">
-        <v>450</v>
-      </c>
-      <c r="C193" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="D193" s="19">
-        <v>2</v>
-      </c>
-      <c r="E193" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="F193" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="18" t="s">
+      <c r="B192" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C192" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D192" s="25">
+        <v>1</v>
+      </c>
+      <c r="E192" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="F192" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B194" s="18" t="s">
-        <v>450</v>
-      </c>
-      <c r="C194" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="D194" s="19">
-        <v>3</v>
-      </c>
-      <c r="E194" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="F194" s="18" t="s">
-        <v>314</v>
+      <c r="B193" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C193" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="D193" s="25">
+        <v>1</v>
+      </c>
+      <c r="E193" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="F193" s="24" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -9968,10 +9950,10 @@
         <v>315</v>
       </c>
       <c r="D195" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E195" s="19" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F195" s="18" t="s">
         <v>314</v>
@@ -9988,10 +9970,10 @@
         <v>315</v>
       </c>
       <c r="D196" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E196" s="19" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F196" s="18" t="s">
         <v>314</v>
@@ -10008,97 +9990,117 @@
         <v>315</v>
       </c>
       <c r="D197" s="19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E197" s="19" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F197" s="18" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C198" s="8"/>
-      <c r="D198" s="2"/>
-      <c r="E198" s="2"/>
+      <c r="A198" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B198" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="C198" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="D198" s="19">
+        <v>4</v>
+      </c>
+      <c r="E198" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="F198" s="18" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="A199" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="C199" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="D199" s="19">
+        <v>5</v>
+      </c>
+      <c r="E199" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="F199" s="18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B200" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="C200" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="D200" s="19">
+        <v>6</v>
+      </c>
+      <c r="E200" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="F200" s="18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C201" s="8"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>129</v>
+      </c>
+      <c r="B202" t="s">
         <v>127</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C202" t="s">
         <v>115</v>
       </c>
-      <c r="D199" s="5">
+      <c r="D202" s="5">
         <v>1</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E202" t="s">
         <v>122</v>
       </c>
-      <c r="F199" t="s">
+      <c r="F202" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>129</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B203" t="s">
         <v>127</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C203" t="s">
         <v>136</v>
       </c>
-      <c r="D200" s="5">
+      <c r="D203" s="5">
         <v>1</v>
       </c>
-      <c r="E200" t="s">
+      <c r="E203" t="s">
         <v>415</v>
       </c>
-      <c r="F200" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>129</v>
-      </c>
-      <c r="B201" t="s">
-        <v>127</v>
-      </c>
-      <c r="C201" t="s">
-        <v>116</v>
-      </c>
-      <c r="D201" s="5">
-        <v>1</v>
-      </c>
-      <c r="E201" t="s">
-        <v>123</v>
-      </c>
-      <c r="F201" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="B202" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="C202" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="D202" s="25">
-        <v>1</v>
-      </c>
-      <c r="E202" s="24" t="s">
-        <v>451</v>
-      </c>
-      <c r="F202" s="24" t="s">
+      <c r="F203" t="s">
         <v>127</v>
       </c>
     </row>
@@ -10107,59 +10109,39 @@
         <v>129</v>
       </c>
       <c r="B204" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C204" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D204" s="5">
         <v>1</v>
       </c>
       <c r="E204" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F204" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B205" t="s">
-        <v>126</v>
-      </c>
-      <c r="C205" t="s">
-        <v>138</v>
-      </c>
-      <c r="D205" s="5">
+      <c r="B205" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C205" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="D205" s="25">
         <v>1</v>
       </c>
-      <c r="E205" t="s">
-        <v>416</v>
-      </c>
-      <c r="F205" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>129</v>
-      </c>
-      <c r="B206" t="s">
-        <v>126</v>
-      </c>
-      <c r="C206" t="s">
-        <v>118</v>
-      </c>
-      <c r="D206" s="5">
-        <v>1</v>
-      </c>
-      <c r="E206" t="s">
-        <v>125</v>
-      </c>
-      <c r="F206" t="s">
-        <v>126</v>
+      <c r="E205" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="F205" s="24" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -10170,15 +10152,35 @@
         <v>126</v>
       </c>
       <c r="C207" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D207" s="5">
         <v>1</v>
       </c>
       <c r="E207" t="s">
-        <v>417</v>
+        <v>124</v>
       </c>
       <c r="F207" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>129</v>
+      </c>
+      <c r="B208" t="s">
+        <v>126</v>
+      </c>
+      <c r="C208" t="s">
+        <v>138</v>
+      </c>
+      <c r="D208" s="5">
+        <v>1</v>
+      </c>
+      <c r="E208" t="s">
+        <v>416</v>
+      </c>
+      <c r="F208" t="s">
         <v>126</v>
       </c>
     </row>
@@ -10187,19 +10189,19 @@
         <v>129</v>
       </c>
       <c r="B209" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C209" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D209" s="5">
         <v>1</v>
       </c>
       <c r="E209" t="s">
-        <v>454</v>
+        <v>125</v>
       </c>
       <c r="F209" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -10207,128 +10209,108 @@
         <v>129</v>
       </c>
       <c r="B210" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C210" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D210" s="5">
         <v>1</v>
       </c>
       <c r="E210" t="s">
+        <v>417</v>
+      </c>
+      <c r="F210" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>129</v>
+      </c>
+      <c r="B212" t="s">
+        <v>130</v>
+      </c>
+      <c r="C212" t="s">
+        <v>133</v>
+      </c>
+      <c r="D212" s="5">
+        <v>1</v>
+      </c>
+      <c r="E212" t="s">
+        <v>454</v>
+      </c>
+      <c r="F212" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>129</v>
+      </c>
+      <c r="B213" t="s">
+        <v>130</v>
+      </c>
+      <c r="C213" t="s">
+        <v>134</v>
+      </c>
+      <c r="D213" s="5">
+        <v>1</v>
+      </c>
+      <c r="E213" t="s">
         <v>131</v>
       </c>
-      <c r="F210" t="s">
+      <c r="F213" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>129</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B214" t="s">
         <v>130</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C214" t="s">
         <v>135</v>
       </c>
-      <c r="D211" s="5">
+      <c r="D214" s="5">
         <v>1</v>
       </c>
-      <c r="E211" t="s">
+      <c r="E214" t="s">
         <v>132</v>
       </c>
-      <c r="F211" t="s">
+      <c r="F214" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B213" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="C213" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="D213" s="17">
-        <v>1</v>
-      </c>
-      <c r="E213" s="17" t="s">
-        <v>453</v>
-      </c>
-      <c r="F213" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="9"/>
-      <c r="B214" s="9"/>
-      <c r="C214" s="9"/>
-      <c r="D214" s="10"/>
-      <c r="E214" s="10"/>
-      <c r="F214" s="10"/>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="16" t="s">
-        <v>455</v>
-      </c>
-      <c r="B215" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="C215" s="20" t="s">
-        <v>457</v>
-      </c>
-      <c r="D215" s="17">
-        <v>1</v>
-      </c>
-      <c r="E215" s="21" t="s">
-        <v>458</v>
-      </c>
-      <c r="F215" s="17" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="16" t="s">
-        <v>455</v>
+        <v>129</v>
       </c>
       <c r="B216" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="C216" s="20" t="s">
-        <v>469</v>
+        <v>452</v>
+      </c>
+      <c r="C216" s="16" t="s">
+        <v>366</v>
       </c>
       <c r="D216" s="17">
         <v>1</v>
       </c>
-      <c r="E216" s="21" t="s">
-        <v>459</v>
+      <c r="E216" s="17" t="s">
+        <v>453</v>
       </c>
       <c r="F216" s="17" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="16" t="s">
-        <v>455</v>
-      </c>
-      <c r="B217" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="C217" s="20" t="s">
-        <v>470</v>
-      </c>
-      <c r="D217" s="17">
-        <v>1</v>
-      </c>
-      <c r="E217" s="21" t="s">
-        <v>460</v>
-      </c>
-      <c r="F217" s="17" t="s">
-        <v>468</v>
-      </c>
+      <c r="A217" s="9"/>
+      <c r="B217" s="9"/>
+      <c r="C217" s="9"/>
+      <c r="D217" s="10"/>
+      <c r="E217" s="10"/>
+      <c r="F217" s="10"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="16" t="s">
@@ -10338,13 +10320,13 @@
         <v>456</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="D218" s="17">
         <v>1</v>
       </c>
       <c r="E218" s="21" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F218" s="17" t="s">
         <v>468</v>
@@ -10358,13 +10340,13 @@
         <v>456</v>
       </c>
       <c r="C219" s="20" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D219" s="17">
         <v>1</v>
       </c>
       <c r="E219" s="21" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F219" s="17" t="s">
         <v>468</v>
@@ -10378,13 +10360,13 @@
         <v>456</v>
       </c>
       <c r="C220" s="20" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D220" s="17">
         <v>1</v>
       </c>
       <c r="E220" s="21" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F220" s="17" t="s">
         <v>468</v>
@@ -10398,13 +10380,13 @@
         <v>456</v>
       </c>
       <c r="C221" s="20" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D221" s="17">
         <v>1</v>
       </c>
       <c r="E221" s="21" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F221" s="17" t="s">
         <v>468</v>
@@ -10418,13 +10400,13 @@
         <v>456</v>
       </c>
       <c r="C222" s="20" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D222" s="17">
         <v>1</v>
       </c>
       <c r="E222" s="21" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F222" s="17" t="s">
         <v>468</v>
@@ -10438,13 +10420,13 @@
         <v>456</v>
       </c>
       <c r="C223" s="20" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D223" s="17">
         <v>1</v>
       </c>
       <c r="E223" s="21" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F223" s="17" t="s">
         <v>468</v>
@@ -10458,56 +10440,76 @@
         <v>456</v>
       </c>
       <c r="C224" s="20" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D224" s="17">
         <v>1</v>
       </c>
       <c r="E224" s="21" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F224" s="17" t="s">
         <v>468</v>
       </c>
     </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="B225" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="C225" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="D225" s="17">
+        <v>1</v>
+      </c>
+      <c r="E225" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="F225" s="17" t="s">
+        <v>468</v>
+      </c>
+    </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>139</v>
-      </c>
-      <c r="B226" t="s">
-        <v>140</v>
-      </c>
-      <c r="C226" t="s">
-        <v>141</v>
-      </c>
-      <c r="D226" s="5">
+      <c r="A226" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="B226" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="C226" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="D226" s="17">
         <v>1</v>
       </c>
-      <c r="E226" t="s">
-        <v>411</v>
-      </c>
-      <c r="F226" t="s">
-        <v>140</v>
+      <c r="E226" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="F226" s="17" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>139</v>
-      </c>
-      <c r="B227" t="s">
-        <v>140</v>
-      </c>
-      <c r="C227" t="s">
-        <v>142</v>
-      </c>
-      <c r="D227" s="5">
+      <c r="A227" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="B227" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="C227" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="D227" s="17">
         <v>1</v>
       </c>
-      <c r="E227" t="s">
-        <v>412</v>
-      </c>
-      <c r="F227" t="s">
-        <v>140</v>
+      <c r="E227" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="F227" s="17" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -10515,19 +10517,19 @@
         <v>139</v>
       </c>
       <c r="B229" t="s">
-        <v>413</v>
+        <v>140</v>
       </c>
       <c r="C229" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D229" s="5">
         <v>1</v>
       </c>
       <c r="E229" t="s">
-        <v>144</v>
+        <v>411</v>
       </c>
       <c r="F229" t="s">
-        <v>413</v>
+        <v>140</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -10535,79 +10537,59 @@
         <v>139</v>
       </c>
       <c r="B230" t="s">
-        <v>413</v>
+        <v>140</v>
       </c>
       <c r="C230" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D230" s="5">
         <v>1</v>
       </c>
       <c r="E230" t="s">
+        <v>412</v>
+      </c>
+      <c r="F230" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>139</v>
+      </c>
+      <c r="B232" t="s">
+        <v>413</v>
+      </c>
+      <c r="C232" t="s">
+        <v>143</v>
+      </c>
+      <c r="D232" s="5">
+        <v>1</v>
+      </c>
+      <c r="E232" t="s">
+        <v>144</v>
+      </c>
+      <c r="F232" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>139</v>
+      </c>
+      <c r="B233" t="s">
+        <v>413</v>
+      </c>
+      <c r="C233" t="s">
+        <v>146</v>
+      </c>
+      <c r="D233" s="5">
+        <v>1</v>
+      </c>
+      <c r="E233" t="s">
         <v>145</v>
       </c>
-      <c r="F230" t="s">
+      <c r="F233" t="s">
         <v>413</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="B233" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="C233" s="24" t="s">
-        <v>509</v>
-      </c>
-      <c r="D233" s="24">
-        <v>1</v>
-      </c>
-      <c r="E233" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="F233" s="24" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="B234" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="C234" s="24" t="s">
-        <v>509</v>
-      </c>
-      <c r="D234" s="24">
-        <v>2</v>
-      </c>
-      <c r="E234" s="28" t="s">
-        <v>420</v>
-      </c>
-      <c r="F234" s="24" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="B235" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="C235" s="24" t="s">
-        <v>509</v>
-      </c>
-      <c r="D235" s="24">
-        <v>3</v>
-      </c>
-      <c r="E235" s="28" t="s">
-        <v>421</v>
-      </c>
-      <c r="F235" s="24" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="236" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -10621,10 +10603,10 @@
         <v>509</v>
       </c>
       <c r="D236" s="24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E236" s="28" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F236" s="24" t="s">
         <v>438</v>
@@ -10641,10 +10623,10 @@
         <v>509</v>
       </c>
       <c r="D237" s="24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E237" s="28" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F237" s="24" t="s">
         <v>438</v>
@@ -10661,102 +10643,102 @@
         <v>509</v>
       </c>
       <c r="D238" s="24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E238" s="28" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="F238" s="24" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="239" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D239" s="25"/>
-      <c r="E239" s="26"/>
-    </row>
-    <row r="240" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="9" t="s">
+      <c r="A239" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B239" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="C239" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="D239" s="24">
+        <v>4</v>
+      </c>
+      <c r="E239" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="F239" s="24" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B240" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="C240" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="D240" s="24">
+        <v>5</v>
+      </c>
+      <c r="E240" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="F240" s="24" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B241" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="C241" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="D241" s="24">
+        <v>6</v>
+      </c>
+      <c r="E241" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="F241" s="24" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D242" s="25"/>
+      <c r="E242" s="26"/>
+    </row>
+    <row r="243" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="B240" s="9" t="s">
+      <c r="B243" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="C240" s="9" t="s">
+      <c r="C243" s="9" t="s">
         <v>378</v>
-      </c>
-      <c r="D240" s="9">
-        <v>1</v>
-      </c>
-      <c r="E240" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="F240" s="9" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D241" s="25"/>
-      <c r="E241" s="26"/>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>425</v>
-      </c>
-      <c r="B242" t="s">
-        <v>427</v>
-      </c>
-      <c r="C242" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="D242" s="9">
-        <v>1</v>
-      </c>
-      <c r="E242" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="F242" s="9" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>425</v>
-      </c>
-      <c r="B243" t="s">
-        <v>427</v>
-      </c>
-      <c r="C243" s="12" t="s">
-        <v>385</v>
       </c>
       <c r="D243" s="9">
         <v>1</v>
       </c>
-      <c r="E243" s="6" t="s">
-        <v>429</v>
+      <c r="E243" s="11" t="s">
+        <v>439</v>
       </c>
       <c r="F243" s="9" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>425</v>
-      </c>
-      <c r="B244" t="s">
-        <v>427</v>
-      </c>
-      <c r="C244" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="D244" s="9">
-        <v>1</v>
-      </c>
-      <c r="E244" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="F244" s="9" t="s">
-        <v>436</v>
-      </c>
+    <row r="244" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D244" s="25"/>
+      <c r="E244" s="26"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
@@ -10766,13 +10748,13 @@
         <v>427</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D245" s="9">
         <v>1</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F245" s="9" t="s">
         <v>436</v>
@@ -10786,13 +10768,13 @@
         <v>427</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D246" s="9">
         <v>1</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F246" s="9" t="s">
         <v>436</v>
@@ -10806,13 +10788,13 @@
         <v>427</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D247" s="9">
         <v>1</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F247" s="9" t="s">
         <v>436</v>
@@ -10826,13 +10808,13 @@
         <v>427</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D248" s="9">
         <v>1</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F248" s="9" t="s">
         <v>436</v>
@@ -10846,113 +10828,113 @@
         <v>427</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D249" s="9">
         <v>1</v>
       </c>
       <c r="E249" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="F249" s="9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>425</v>
+      </c>
+      <c r="B250" t="s">
+        <v>427</v>
+      </c>
+      <c r="C250" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="D250" s="9">
+        <v>1</v>
+      </c>
+      <c r="E250" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="F250" s="9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>425</v>
+      </c>
+      <c r="B251" t="s">
+        <v>427</v>
+      </c>
+      <c r="C251" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="D251" s="9">
+        <v>1</v>
+      </c>
+      <c r="E251" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="F251" s="9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>425</v>
+      </c>
+      <c r="B252" t="s">
+        <v>427</v>
+      </c>
+      <c r="C252" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="D252" s="9">
+        <v>1</v>
+      </c>
+      <c r="E252" s="6" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D250" s="23"/>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="22" t="s">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D253" s="23"/>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="22" t="s">
         <v>1878</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B254" t="s">
         <v>1876</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C254" t="s">
         <v>1863</v>
-      </c>
-      <c r="D251" s="5">
-        <v>1</v>
-      </c>
-      <c r="E251" t="s">
-        <v>1877</v>
-      </c>
-      <c r="F251" t="s">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>1878</v>
-      </c>
-      <c r="B254" t="s">
-        <v>1879</v>
-      </c>
-      <c r="C254" t="s">
-        <v>371</v>
       </c>
       <c r="D254" s="5">
         <v>1</v>
       </c>
       <c r="E254" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
       <c r="F254" t="s">
-        <v>1879</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>1878</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>1879</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D255" s="5">
-        <v>1</v>
-      </c>
-      <c r="E255" t="s">
-        <v>1881</v>
-      </c>
-      <c r="F255" t="s">
-        <v>1879</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>1878</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>1879</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D256" s="5">
-        <v>1</v>
-      </c>
-      <c r="E256" t="s">
-        <v>1882</v>
-      </c>
-      <c r="F256" t="s">
-        <v>1879</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1878</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="B257" t="s">
         <v>1879</v>
       </c>
-      <c r="C257" s="2" t="s">
-        <v>1664</v>
+      <c r="C257" t="s">
+        <v>371</v>
       </c>
       <c r="D257" s="5">
         <v>1</v>
       </c>
       <c r="E257" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
       <c r="F257" t="s">
         <v>1879</v>
@@ -10966,13 +10948,13 @@
         <v>1879</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D258" s="5">
         <v>1</v>
       </c>
       <c r="E258" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
       <c r="F258" t="s">
         <v>1879</v>
@@ -10986,79 +10968,99 @@
         <v>1879</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>1666</v>
+        <v>373</v>
       </c>
       <c r="D259" s="5">
         <v>1</v>
       </c>
       <c r="E259" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
       <c r="F259" t="s">
         <v>1879</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B260" s="2"/>
-      <c r="C260" s="2"/>
+    <row r="260" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D260" s="5">
+        <v>1</v>
+      </c>
+      <c r="E260" t="s">
+        <v>1883</v>
+      </c>
+      <c r="F260" t="s">
+        <v>1879</v>
+      </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>1886</v>
-      </c>
-      <c r="B261" t="s">
-        <v>1912</v>
-      </c>
-      <c r="C261" s="22" t="s">
-        <v>1867</v>
+        <v>1878</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>374</v>
       </c>
       <c r="D261" s="5">
         <v>1</v>
       </c>
       <c r="E261" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="F261" t="s">
-        <v>1888</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D262" s="5">
+        <v>1</v>
+      </c>
+      <c r="E262" t="s">
+        <v>1885</v>
+      </c>
+      <c r="F262" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B263" s="2"/>
+      <c r="C263" s="2"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
         <v>1886</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B264" t="s">
         <v>1912</v>
       </c>
-      <c r="C262" s="22" t="s">
+      <c r="C264" s="22" t="s">
         <v>1867</v>
       </c>
-      <c r="D262" s="5">
-        <v>2</v>
-      </c>
-      <c r="E262" t="s">
-        <v>1889</v>
-      </c>
-      <c r="F262" t="s">
-        <v>1888</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>1886</v>
-      </c>
-      <c r="B263" t="s">
-        <v>1912</v>
-      </c>
-      <c r="C263" s="22" t="s">
-        <v>1867</v>
-      </c>
-      <c r="D263" s="5">
-        <v>3</v>
-      </c>
-      <c r="E263" t="s">
-        <v>1890</v>
-      </c>
-      <c r="F263" t="s">
+      <c r="D264" s="5">
+        <v>1</v>
+      </c>
+      <c r="E264" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F264" t="s">
         <v>1888</v>
       </c>
     </row>
@@ -11067,19 +11069,19 @@
         <v>1886</v>
       </c>
       <c r="B265" t="s">
-        <v>1891</v>
-      </c>
-      <c r="C265" t="s">
-        <v>1150</v>
+        <v>1912</v>
+      </c>
+      <c r="C265" s="22" t="s">
+        <v>1867</v>
       </c>
       <c r="D265" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E265" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
       <c r="F265" t="s">
-        <v>1893</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -11087,39 +11089,19 @@
         <v>1886</v>
       </c>
       <c r="B266" t="s">
-        <v>1891</v>
-      </c>
-      <c r="C266" t="s">
-        <v>1150</v>
+        <v>1912</v>
+      </c>
+      <c r="C266" s="22" t="s">
+        <v>1867</v>
       </c>
       <c r="D266" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E266" t="s">
-        <v>1894</v>
+        <v>1890</v>
       </c>
       <c r="F266" t="s">
-        <v>1893</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>1886</v>
-      </c>
-      <c r="B267" t="s">
-        <v>1891</v>
-      </c>
-      <c r="C267" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D267" s="5">
-        <v>3</v>
-      </c>
-      <c r="E267" t="s">
-        <v>1895</v>
-      </c>
-      <c r="F267" t="s">
-        <v>1893</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -11133,12 +11115,32 @@
         <v>1150</v>
       </c>
       <c r="D268" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E268" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
       <c r="F268" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D269" s="5">
+        <v>2</v>
+      </c>
+      <c r="E269" t="s">
+        <v>1894</v>
+      </c>
+      <c r="F269" t="s">
         <v>1893</v>
       </c>
     </row>
@@ -11147,19 +11149,19 @@
         <v>1886</v>
       </c>
       <c r="B270" t="s">
-        <v>1897</v>
+        <v>1891</v>
       </c>
       <c r="C270" t="s">
-        <v>1917</v>
+        <v>1150</v>
       </c>
       <c r="D270" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E270" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="F270" t="s">
-        <v>1898</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -11167,159 +11169,139 @@
         <v>1886</v>
       </c>
       <c r="B271" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D271" s="5">
+        <v>4</v>
+      </c>
+      <c r="E271" t="s">
+        <v>1896</v>
+      </c>
+      <c r="F271" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B273" t="s">
         <v>1897</v>
       </c>
-      <c r="C271" s="22" t="s">
+      <c r="C273" t="s">
         <v>1917</v>
       </c>
-      <c r="D271" s="5">
-        <v>2</v>
-      </c>
-      <c r="E271" t="s">
-        <v>1899</v>
-      </c>
-      <c r="F271" t="s">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>1886</v>
-      </c>
-      <c r="B272" t="s">
-        <v>1897</v>
-      </c>
-      <c r="C272" s="22" t="s">
-        <v>1917</v>
-      </c>
-      <c r="D272" s="5">
-        <v>1</v>
-      </c>
-      <c r="E272" t="s">
-        <v>1892</v>
-      </c>
-      <c r="F272" t="s">
+      <c r="D273" s="5">
+        <v>0</v>
+      </c>
+      <c r="E273" t="s">
+        <v>1894</v>
+      </c>
+      <c r="F273" t="s">
         <v>1898</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>1900</v>
+        <v>1886</v>
       </c>
       <c r="B274" t="s">
-        <v>1901</v>
-      </c>
-      <c r="C274" t="s">
-        <v>354</v>
+        <v>1897</v>
+      </c>
+      <c r="C274" s="22" t="s">
+        <v>1917</v>
       </c>
       <c r="D274" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E274" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
       <c r="F274" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>1900</v>
+        <v>1886</v>
       </c>
       <c r="B275" t="s">
-        <v>1901</v>
-      </c>
-      <c r="C275" t="s">
-        <v>357</v>
+        <v>1897</v>
+      </c>
+      <c r="C275" s="22" t="s">
+        <v>1917</v>
       </c>
       <c r="D275" s="5">
         <v>1</v>
       </c>
       <c r="E275" t="s">
-        <v>1903</v>
+        <v>1892</v>
       </c>
       <c r="F275" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B277" t="s">
         <v>1901</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B276" t="s">
-        <v>1901</v>
-      </c>
-      <c r="C276" t="s">
-        <v>358</v>
-      </c>
-      <c r="D276" s="5">
+      <c r="C277" t="s">
+        <v>354</v>
+      </c>
+      <c r="D277" s="5">
         <v>1</v>
       </c>
-      <c r="E276" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F276" t="s">
+      <c r="E277" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F277" t="s">
         <v>1901</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>550</v>
+        <v>1900</v>
       </c>
       <c r="B278" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="C278" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="D278" s="5">
         <v>1</v>
       </c>
       <c r="E278" t="s">
-        <v>549</v>
+        <v>1903</v>
       </c>
       <c r="F278" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>550</v>
+        <v>1900</v>
       </c>
       <c r="B279" t="s">
-        <v>1906</v>
+        <v>1901</v>
       </c>
       <c r="C279" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="D279" s="5">
         <v>1</v>
       </c>
       <c r="E279" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="F279" t="s">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>550</v>
-      </c>
-      <c r="B280" t="s">
-        <v>1908</v>
-      </c>
-      <c r="C280" t="s">
-        <v>395</v>
-      </c>
-      <c r="D280" s="5">
-        <v>1</v>
-      </c>
-      <c r="E280" t="s">
-        <v>1909</v>
-      </c>
-      <c r="F280" t="s">
-        <v>1908</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -11327,259 +11309,327 @@
         <v>550</v>
       </c>
       <c r="B281" t="s">
-        <v>1910</v>
+        <v>1905</v>
       </c>
       <c r="C281" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="D281" s="5">
         <v>1</v>
       </c>
       <c r="E281" t="s">
+        <v>549</v>
+      </c>
+      <c r="F281" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>550</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C282" t="s">
+        <v>394</v>
+      </c>
+      <c r="D282" s="5">
+        <v>1</v>
+      </c>
+      <c r="E282" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F282" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>550</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C283" t="s">
+        <v>395</v>
+      </c>
+      <c r="D283" s="5">
+        <v>1</v>
+      </c>
+      <c r="E283" t="s">
+        <v>1909</v>
+      </c>
+      <c r="F283" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>550</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C284" t="s">
+        <v>392</v>
+      </c>
+      <c r="D284" s="5">
+        <v>1</v>
+      </c>
+      <c r="E284" t="s">
         <v>1911</v>
       </c>
-      <c r="F281" t="s">
+      <c r="F284" t="s">
         <v>1910</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F230" xr:uid="{685C397F-0D47-4A08-A4DB-9D594E3BED54}"/>
+  <autoFilter ref="A1:F233" xr:uid="{685C397F-0D47-4A08-A4DB-9D594E3BED54}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C9 C97 E135:E146 E242:E249 C107:C130 C134:C146 C99:C102">
-    <cfRule type="expression" dxfId="58" priority="80">
-      <formula>_xlfn.ISFORMULA(C9)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="57" priority="79">
+  <conditionalFormatting sqref="C10 C100 E138:E149 E245:E252 C110:C133 C137:C149 C102:C105">
+    <cfRule type="expression" dxfId="59" priority="86">
       <formula>_xlfn.ISFORMULA(C10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="56" priority="78">
+    <cfRule type="expression" dxfId="58" priority="85">
       <formula>_xlfn.ISFORMULA(C11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="55" priority="77">
+    <cfRule type="expression" dxfId="57" priority="84">
       <formula>_xlfn.ISFORMULA(C12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="54" priority="76">
+    <cfRule type="expression" dxfId="56" priority="83">
       <formula>_xlfn.ISFORMULA(C13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="53" priority="75">
+    <cfRule type="expression" dxfId="55" priority="82">
       <formula>_xlfn.ISFORMULA(C14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="52" priority="74">
+    <cfRule type="expression" dxfId="54" priority="81">
       <formula>_xlfn.ISFORMULA(C15)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C91">
-    <cfRule type="expression" dxfId="51" priority="73">
-      <formula>_xlfn.ISFORMULA(C91)</formula>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="53" priority="80">
+      <formula>_xlfn.ISFORMULA(C16)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C93">
-    <cfRule type="expression" dxfId="50" priority="72">
-      <formula>_xlfn.ISFORMULA(C93)</formula>
+  <conditionalFormatting sqref="C94">
+    <cfRule type="expression" dxfId="52" priority="79">
+      <formula>_xlfn.ISFORMULA(C94)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C95">
-    <cfRule type="expression" dxfId="49" priority="71">
-      <formula>_xlfn.ISFORMULA(C95)</formula>
+  <conditionalFormatting sqref="C96">
+    <cfRule type="expression" dxfId="51" priority="78">
+      <formula>_xlfn.ISFORMULA(C96)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E159">
-    <cfRule type="expression" dxfId="48" priority="68">
-      <formula>_xlfn.ISFORMULA(E159)</formula>
+  <conditionalFormatting sqref="C98">
+    <cfRule type="expression" dxfId="50" priority="77">
+      <formula>_xlfn.ISFORMULA(C98)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D159">
-    <cfRule type="expression" dxfId="47" priority="67">
-      <formula>_xlfn.ISFORMULA(D159)</formula>
+  <conditionalFormatting sqref="E162">
+    <cfRule type="expression" dxfId="49" priority="74">
+      <formula>_xlfn.ISFORMULA(E162)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E161">
-    <cfRule type="expression" dxfId="46" priority="65">
-      <formula>_xlfn.ISFORMULA(E161)</formula>
+  <conditionalFormatting sqref="D162">
+    <cfRule type="expression" dxfId="48" priority="73">
+      <formula>_xlfn.ISFORMULA(D162)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E160">
-    <cfRule type="expression" dxfId="45" priority="66">
-      <formula>_xlfn.ISFORMULA(E160)</formula>
+  <conditionalFormatting sqref="E164">
+    <cfRule type="expression" dxfId="47" priority="71">
+      <formula>_xlfn.ISFORMULA(E164)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C103">
-    <cfRule type="expression" dxfId="44" priority="64">
-      <formula>_xlfn.ISFORMULA(C103)</formula>
+  <conditionalFormatting sqref="E163">
+    <cfRule type="expression" dxfId="46" priority="72">
+      <formula>_xlfn.ISFORMULA(E163)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C104">
-    <cfRule type="expression" dxfId="43" priority="63">
-      <formula>_xlfn.ISFORMULA(C104)</formula>
+  <conditionalFormatting sqref="C106">
+    <cfRule type="expression" dxfId="45" priority="70">
+      <formula>_xlfn.ISFORMULA(C106)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C198">
-    <cfRule type="expression" dxfId="42" priority="59">
-      <formula>_xlfn.ISFORMULA(C198)</formula>
+  <conditionalFormatting sqref="C107">
+    <cfRule type="expression" dxfId="44" priority="69">
+      <formula>_xlfn.ISFORMULA(C107)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E192:E198">
-    <cfRule type="expression" dxfId="41" priority="61">
-      <formula>_xlfn.ISFORMULA(E192)</formula>
+  <conditionalFormatting sqref="C201">
+    <cfRule type="expression" dxfId="43" priority="65">
+      <formula>_xlfn.ISFORMULA(C201)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D192:D198">
-    <cfRule type="expression" dxfId="40" priority="60">
-      <formula>_xlfn.ISFORMULA(D192)</formula>
+  <conditionalFormatting sqref="E195:E201">
+    <cfRule type="expression" dxfId="42" priority="67">
+      <formula>_xlfn.ISFORMULA(E195)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D240 F242">
-    <cfRule type="cellIs" dxfId="39" priority="58" operator="equal">
-      <formula>0</formula>
+  <conditionalFormatting sqref="D195:D201">
+    <cfRule type="expression" dxfId="41" priority="66">
+      <formula>_xlfn.ISFORMULA(D195)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F243">
-    <cfRule type="cellIs" dxfId="38" priority="54" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F244">
-    <cfRule type="cellIs" dxfId="37" priority="53" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F245">
-    <cfRule type="cellIs" dxfId="36" priority="52" operator="equal">
+  <conditionalFormatting sqref="D243 F245">
+    <cfRule type="cellIs" dxfId="40" priority="64" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246">
-    <cfRule type="cellIs" dxfId="35" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="60" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F247">
-    <cfRule type="cellIs" dxfId="34" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="59" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F248">
-    <cfRule type="cellIs" dxfId="33" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B255:C260">
-    <cfRule type="expression" dxfId="32" priority="48">
-      <formula>_xlfn.ISFORMULA(B255)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E233:E238">
-    <cfRule type="expression" dxfId="31" priority="47">
-      <formula>_xlfn.ISFORMULA(E233)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D233:D238">
-    <cfRule type="cellIs" dxfId="30" priority="45" operator="equal">
+  <conditionalFormatting sqref="F249">
+    <cfRule type="cellIs" dxfId="36" priority="57" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E133 C131:C133">
-    <cfRule type="expression" dxfId="29" priority="44">
-      <formula>_xlfn.ISFORMULA(C131)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E215:E224">
-    <cfRule type="expression" dxfId="28" priority="42">
-      <formula>_xlfn.ISFORMULA(E215)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C215:C224">
-    <cfRule type="expression" dxfId="27" priority="41">
-      <formula>_xlfn.ISFORMULA(C215)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D242:D249">
-    <cfRule type="cellIs" dxfId="26" priority="40" operator="equal">
+  <conditionalFormatting sqref="F250">
+    <cfRule type="cellIs" dxfId="35" priority="56" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C46 C52:C91 C93 C167:C260 C264:C1018 C95 C97 C99:C104 C106:C165">
-    <cfRule type="containsBlanks" priority="21" stopIfTrue="1">
+  <conditionalFormatting sqref="F251">
+    <cfRule type="cellIs" dxfId="34" priority="55" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B258:C263">
+    <cfRule type="expression" dxfId="33" priority="54">
+      <formula>_xlfn.ISFORMULA(B258)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E236:E241">
+    <cfRule type="expression" dxfId="32" priority="53">
+      <formula>_xlfn.ISFORMULA(E236)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D236:D241">
+    <cfRule type="cellIs" dxfId="31" priority="51" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136 C134:C136">
+    <cfRule type="expression" dxfId="30" priority="50">
+      <formula>_xlfn.ISFORMULA(C134)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E218:E227">
+    <cfRule type="expression" dxfId="29" priority="48">
+      <formula>_xlfn.ISFORMULA(E218)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C218:C227">
+    <cfRule type="expression" dxfId="28" priority="47">
+      <formula>_xlfn.ISFORMULA(C218)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D245:D252">
+    <cfRule type="cellIs" dxfId="27" priority="46" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55:C94 C96 C170:C263 C267:C1021 C98 C100 C102:C107 C109:C168 C2:C18 C20:C49">
+    <cfRule type="containsBlanks" priority="27" stopIfTrue="1">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47:C51">
-    <cfRule type="containsBlanks" priority="19" stopIfTrue="1">
-      <formula>LEN(TRIM(C47))=0</formula>
+  <conditionalFormatting sqref="C50:C54">
+    <cfRule type="containsBlanks" priority="25" stopIfTrue="1">
+      <formula>LEN(TRIM(C50))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C167:C260 C106:C165 C1:C91 C93 C264:C1048576 C95 C97 C99:C104">
-    <cfRule type="duplicateValues" dxfId="25" priority="18"/>
+  <conditionalFormatting sqref="C170:C263 C109:C168 C96 C267:C1048576 C98 C100 C102:C107 C1:C18 C20:C94">
+    <cfRule type="duplicateValues" dxfId="26" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C92">
-    <cfRule type="expression" dxfId="24" priority="17">
-      <formula>_xlfn.ISFORMULA(C92)</formula>
+  <conditionalFormatting sqref="C95">
+    <cfRule type="expression" dxfId="25" priority="23">
+      <formula>_xlfn.ISFORMULA(C95)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C105">
-    <cfRule type="expression" dxfId="23" priority="16">
-      <formula>_xlfn.ISFORMULA(C105)</formula>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="expression" dxfId="24" priority="22">
+      <formula>_xlfn.ISFORMULA(C108)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C262">
-    <cfRule type="duplicateValues" dxfId="22" priority="15"/>
+  <conditionalFormatting sqref="C265">
+    <cfRule type="duplicateValues" dxfId="23" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C263">
-    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
+  <conditionalFormatting sqref="C266">
+    <cfRule type="duplicateValues" dxfId="22" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C261">
-    <cfRule type="duplicateValues" dxfId="20" priority="13"/>
+  <conditionalFormatting sqref="C264">
+    <cfRule type="duplicateValues" dxfId="21" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C94">
-    <cfRule type="expression" dxfId="19" priority="12">
-      <formula>_xlfn.ISFORMULA(C94)</formula>
+  <conditionalFormatting sqref="C97">
+    <cfRule type="expression" dxfId="20" priority="18">
+      <formula>_xlfn.ISFORMULA(C97)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C94">
-    <cfRule type="containsBlanks" priority="10" stopIfTrue="1">
-      <formula>LEN(TRIM(C94))=0</formula>
+  <conditionalFormatting sqref="C97">
+    <cfRule type="containsBlanks" priority="16" stopIfTrue="1">
+      <formula>LEN(TRIM(C97))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C94">
-    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
+  <conditionalFormatting sqref="C97">
+    <cfRule type="duplicateValues" dxfId="19" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C96">
-    <cfRule type="expression" dxfId="17" priority="8">
-      <formula>_xlfn.ISFORMULA(C96)</formula>
+  <conditionalFormatting sqref="C99">
+    <cfRule type="expression" dxfId="18" priority="14">
+      <formula>_xlfn.ISFORMULA(C99)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C96">
-    <cfRule type="containsBlanks" priority="6" stopIfTrue="1">
-      <formula>LEN(TRIM(C96))=0</formula>
+  <conditionalFormatting sqref="C99">
+    <cfRule type="containsBlanks" priority="12" stopIfTrue="1">
+      <formula>LEN(TRIM(C99))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C96">
-    <cfRule type="duplicateValues" dxfId="16" priority="5"/>
+  <conditionalFormatting sqref="C99">
+    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C98">
-    <cfRule type="expression" dxfId="15" priority="4">
-      <formula>_xlfn.ISFORMULA(C98)</formula>
+  <conditionalFormatting sqref="C101">
+    <cfRule type="expression" dxfId="16" priority="10">
+      <formula>_xlfn.ISFORMULA(C101)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" priority="2" stopIfTrue="1">
-      <formula>LEN(TRIM(C98))=0</formula>
+  <conditionalFormatting sqref="C101">
+    <cfRule type="containsBlanks" priority="8" stopIfTrue="1">
+      <formula>LEN(TRIM(C101))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C98">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+  <conditionalFormatting sqref="C101">
+    <cfRule type="duplicateValues" dxfId="15" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="containsBlanks" priority="2" stopIfTrue="1">
+      <formula>LEN(TRIM(C19))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11587,7 +11637,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="22" id="{806A61C4-64AE-489D-A6B3-37A9315A333F}">
+          <x14:cfRule type="expression" priority="28" id="{806A61C4-64AE-489D-A6B3-37A9315A333F}">
             <xm:f>IF(COUNTIF('All variables'!A:A,C2)=0,TRUE, FALSE)</xm:f>
             <x14:dxf>
               <fill>
@@ -11597,7 +11647,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C167:C260 C264:C1018 C106:C165 C2:C91 C93:C104</xm:sqref>
+          <xm:sqref>C170:C263 C267:C1021 C109:C168 C96:C107 C2:C94</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -16643,7 +16693,7 @@
       </c>
       <c r="B477" s="22" t="str">
         <f>IF(COUNTIF(variables!C:C,A477)=1,"Used", "Unused")</f>
-        <v>Unused</v>
+        <v>Used</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
@@ -34089,21 +34139,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000A87E1EF3FB9FC4880E267B98BBEEEE2" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="14a1b04f31e98e89b62218351a71c0ee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1ea9f476-e5d7-46f3-a780-376ee5ddd2ee" xmlns:ns4="a5d3c314-d92b-413f-ada3-7410c346d515" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7cdfab4d19c10739c104847f1cdb6897" ns3:_="" ns4:_="">
     <xsd:import namespace="1ea9f476-e5d7-46f3-a780-376ee5ddd2ee"/>
@@ -34326,32 +34361,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABCE2DE6-17B5-4BB3-9252-EC9FC8DD82FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDBF97FC-5657-4433-9412-4B0BB8609358}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="a5d3c314-d92b-413f-ada3-7410c346d515"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1ea9f476-e5d7-46f3-a780-376ee5ddd2ee"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E72A8210-9A33-47EA-AB10-F8FAA9E7FF82}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34368,4 +34393,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDBF97FC-5657-4433-9412-4B0BB8609358}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1ea9f476-e5d7-46f3-a780-376ee5ddd2ee"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="a5d3c314-d92b-413f-ada3-7410c346d515"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABCE2DE6-17B5-4BB3-9252-EC9FC8DD82FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/outputVariables.xlsx
+++ b/data/outputVariables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vuw-my.sharepoint.com/personal/fleminte_staff_vuw_ac_nz/Documents/3 a Res_HRC data/PrevReport/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="397" documentId="13_ncr:1_{66002B5A-1D09-43B0-BE8F-007DBCE076C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DE6F134C-2A99-485B-AFF8-2A75AD93CE74}"/>
+  <xr:revisionPtr revIDLastSave="404" documentId="13_ncr:1_{66002B5A-1D09-43B0-BE8F-007DBCE076C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A79285F6-D81D-4E01-B174-E58857FAFA65}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="0" windowWidth="28755" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4408" uniqueCount="1926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4413" uniqueCount="1928">
   <si>
     <t>Emot2</t>
   </si>
@@ -5819,6 +5819,12 @@
   </si>
   <si>
     <t>Somewhat or very proud of being Samoan</t>
+  </si>
+  <si>
+    <t>Part of school</t>
+  </si>
+  <si>
+    <t>Feels like a part of their school</t>
   </si>
 </sst>
 </file>
@@ -6064,19 +6070,19 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6721,7 +6727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -11629,7 +11635,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11657,10 +11663,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3A59AB-DC81-47F1-8E96-9E4FFA35C486}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12217,24 +12223,24 @@
         <v>539</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
-        <v>553</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>544</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>354</v>
-      </c>
-      <c r="D34" s="30">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="30">
         <v>1</v>
       </c>
-      <c r="E34" s="30" t="s">
-        <v>541</v>
-      </c>
-      <c r="F34" s="30" t="s">
-        <v>540</v>
+      <c r="E33" s="30" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -12242,16 +12248,16 @@
         <v>553</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D35" s="30">
         <v>1</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F35" s="30" t="s">
         <v>540</v>
@@ -12262,39 +12268,39 @@
         <v>553</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D36" s="30">
         <v>1</v>
       </c>
-      <c r="E36" s="29" t="s">
-        <v>543</v>
+      <c r="E36" s="30" t="s">
+        <v>542</v>
       </c>
       <c r="F36" s="30" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
-        <v>550</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>551</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>394</v>
-      </c>
-      <c r="D38" s="30">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
+        <v>553</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="D37" s="30">
         <v>1</v>
       </c>
-      <c r="E38" s="30" t="s">
-        <v>548</v>
-      </c>
-      <c r="F38" s="30" t="s">
-        <v>547</v>
+      <c r="E37" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -12302,38 +12308,58 @@
         <v>550</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="D39" s="30">
         <v>1</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F39" s="30" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="30" t="s">
+        <v>550</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>552</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="D40" s="30">
+        <v>1</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>549</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="30" t="s">
         <v>1913</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B42" s="30" t="s">
         <v>1914</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C42" s="30" t="s">
         <v>1859</v>
       </c>
-      <c r="D41" s="30">
+      <c r="D42" s="30">
         <v>1</v>
       </c>
-      <c r="E41" s="30" t="s">
+      <c r="E42" s="30" t="s">
         <v>1915</v>
       </c>
-      <c r="F41" s="30" t="s">
+      <c r="F42" s="30" t="s">
         <v>1916</v>
       </c>
     </row>
@@ -12349,7 +12375,7 @@
       <formula>_xlfn.ISFORMULA(C16)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18 E21:E23 E25:E28 E30:E32 E34:E35">
+  <conditionalFormatting sqref="E18 E21:E23 E25:E28 E30:E33 E35:E36">
     <cfRule type="expression" dxfId="10" priority="6">
       <formula>_xlfn.ISFORMULA(E18)</formula>
     </cfRule>
@@ -34139,6 +34165,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000A87E1EF3FB9FC4880E267B98BBEEEE2" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="14a1b04f31e98e89b62218351a71c0ee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1ea9f476-e5d7-46f3-a780-376ee5ddd2ee" xmlns:ns4="a5d3c314-d92b-413f-ada3-7410c346d515" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7cdfab4d19c10739c104847f1cdb6897" ns3:_="" ns4:_="">
     <xsd:import namespace="1ea9f476-e5d7-46f3-a780-376ee5ddd2ee"/>
@@ -34361,22 +34402,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABCE2DE6-17B5-4BB3-9252-EC9FC8DD82FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDBF97FC-5657-4433-9412-4B0BB8609358}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a5d3c314-d92b-413f-ada3-7410c346d515"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1ea9f476-e5d7-46f3-a780-376ee5ddd2ee"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E72A8210-9A33-47EA-AB10-F8FAA9E7FF82}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34393,29 +34444,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDBF97FC-5657-4433-9412-4B0BB8609358}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1ea9f476-e5d7-46f3-a780-376ee5ddd2ee"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="a5d3c314-d92b-413f-ada3-7410c346d515"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABCE2DE6-17B5-4BB3-9252-EC9FC8DD82FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/outputVariables.xlsx
+++ b/data/outputVariables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vuw-my.sharepoint.com/personal/fleminte_staff_vuw_ac_nz/Documents/3 a Res_HRC data/PrevReport/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="429" documentId="13_ncr:1_{66002B5A-1D09-43B0-BE8F-007DBCE076C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B756D599-A7F5-4746-A5AE-7B46CF9B2CEE}"/>
+  <xr:revisionPtr revIDLastSave="430" documentId="13_ncr:1_{66002B5A-1D09-43B0-BE8F-007DBCE076C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{26FCDA50-9A2F-4366-A648-B4DAFEC3F9E2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="735" yWindow="690" windowWidth="28755" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="1" r:id="rId1"/>
@@ -6747,7 +6747,7 @@
   <dimension ref="A1:G284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6758,6 +6758,7 @@
     <col min="4" max="4" width="10.28515625" style="5" customWidth="1"/>
     <col min="5" max="5" width="86.140625" customWidth="1"/>
     <col min="6" max="6" width="45.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -34220,12 +34221,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34452,15 +34450,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABCE2DE6-17B5-4BB3-9252-EC9FC8DD82FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDBF97FC-5657-4433-9412-4B0BB8609358}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="a5d3c314-d92b-413f-ada3-7410c346d515"/>
+    <ds:schemaRef ds:uri="1ea9f476-e5d7-46f3-a780-376ee5ddd2ee"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -34485,18 +34495,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDBF97FC-5657-4433-9412-4B0BB8609358}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABCE2DE6-17B5-4BB3-9252-EC9FC8DD82FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a5d3c314-d92b-413f-ada3-7410c346d515"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="1ea9f476-e5d7-46f3-a780-376ee5ddd2ee"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/outputVariables.xlsx
+++ b/data/outputVariables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vuw-my.sharepoint.com/personal/fleminte_staff_vuw_ac_nz/Documents/3 a Res_HRC data/PrevReport/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="430" documentId="13_ncr:1_{66002B5A-1D09-43B0-BE8F-007DBCE076C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{26FCDA50-9A2F-4366-A648-B4DAFEC3F9E2}"/>
+  <xr:revisionPtr revIDLastSave="436" documentId="13_ncr:1_{66002B5A-1D09-43B0-BE8F-007DBCE076C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B767ED4E-1F1B-4717-B35D-993FF8DFEB7B}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="735" yWindow="690" windowWidth="28755" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4423" uniqueCount="1934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4423" uniqueCount="1935">
   <si>
     <t>Emot2</t>
   </si>
@@ -5836,13 +5836,16 @@
     <t>footnote</t>
   </si>
   <si>
-    <t>question changed</t>
-  </si>
-  <si>
     <t>Very proud of being Māori*</t>
   </si>
   <si>
     <t>Physically hit or harmed by someone in past year*</t>
+  </si>
+  <si>
+    <t>*Question changed, no longer directly comparable</t>
+  </si>
+  <si>
+    <t>*Question has changed</t>
   </si>
 </sst>
 </file>
@@ -6746,8 +6749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G284"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6758,7 +6761,7 @@
     <col min="4" max="4" width="10.28515625" style="5" customWidth="1"/>
     <col min="5" max="5" width="86.140625" customWidth="1"/>
     <col min="6" max="6" width="45.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -6801,13 +6804,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="F4" t="s">
         <v>101</v>
       </c>
       <c r="G4" t="s">
-        <v>1931</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -11370,13 +11373,13 @@
         <v>1</v>
       </c>
       <c r="E282" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="F282" t="s">
         <v>1905</v>
       </c>
       <c r="G282" s="22" t="s">
-        <v>1931</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -34221,12 +34224,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000A87E1EF3FB9FC4880E267B98BBEEEE2" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="14a1b04f31e98e89b62218351a71c0ee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1ea9f476-e5d7-46f3-a780-376ee5ddd2ee" xmlns:ns4="a5d3c314-d92b-413f-ada3-7410c346d515" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7cdfab4d19c10739c104847f1cdb6897" ns3:_="" ns4:_="">
     <xsd:import namespace="1ea9f476-e5d7-46f3-a780-376ee5ddd2ee"/>
@@ -34449,33 +34461,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDBF97FC-5657-4433-9412-4B0BB8609358}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABCE2DE6-17B5-4BB3-9252-EC9FC8DD82FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="a5d3c314-d92b-413f-ada3-7410c346d515"/>
-    <ds:schemaRef ds:uri="1ea9f476-e5d7-46f3-a780-376ee5ddd2ee"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDBF97FC-5657-4433-9412-4B0BB8609358}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a5d3c314-d92b-413f-ada3-7410c346d515"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1ea9f476-e5d7-46f3-a780-376ee5ddd2ee"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E72A8210-9A33-47EA-AB10-F8FAA9E7FF82}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34492,12 +34503,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABCE2DE6-17B5-4BB3-9252-EC9FC8DD82FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/outputVariables.xlsx
+++ b/data/outputVariables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vuw-my.sharepoint.com/personal/fleminte_staff_vuw_ac_nz/Documents/3 a Res_HRC data/PrevReport/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="430" documentId="13_ncr:1_{66002B5A-1D09-43B0-BE8F-007DBCE076C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{26FCDA50-9A2F-4366-A648-B4DAFEC3F9E2}"/>
+  <xr:revisionPtr revIDLastSave="434" documentId="13_ncr:1_{66002B5A-1D09-43B0-BE8F-007DBCE076C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{886003B8-028A-4AD0-BCF9-E0FE9123E9F1}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="735" yWindow="690" windowWidth="28755" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4423" uniqueCount="1934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4423" uniqueCount="1935">
   <si>
     <t>Emot2</t>
   </si>
@@ -5843,6 +5843,9 @@
   </si>
   <si>
     <t>Physically hit or harmed by someone in past year*</t>
+  </si>
+  <si>
+    <t>question changed, no longer directly comparable</t>
   </si>
 </sst>
 </file>
@@ -6746,8 +6749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G284"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="B263" workbookViewId="0">
+      <selection activeCell="E272" sqref="E272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6758,7 +6761,7 @@
     <col min="4" max="4" width="10.28515625" style="5" customWidth="1"/>
     <col min="5" max="5" width="86.140625" customWidth="1"/>
     <col min="6" max="6" width="45.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -11376,7 +11379,7 @@
         <v>1905</v>
       </c>
       <c r="G282" s="22" t="s">
-        <v>1931</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -34221,12 +34224,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000A87E1EF3FB9FC4880E267B98BBEEEE2" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="14a1b04f31e98e89b62218351a71c0ee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1ea9f476-e5d7-46f3-a780-376ee5ddd2ee" xmlns:ns4="a5d3c314-d92b-413f-ada3-7410c346d515" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7cdfab4d19c10739c104847f1cdb6897" ns3:_="" ns4:_="">
     <xsd:import namespace="1ea9f476-e5d7-46f3-a780-376ee5ddd2ee"/>
@@ -34449,6 +34446,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -34459,23 +34462,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDBF97FC-5657-4433-9412-4B0BB8609358}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="a5d3c314-d92b-413f-ada3-7410c346d515"/>
-    <ds:schemaRef ds:uri="1ea9f476-e5d7-46f3-a780-376ee5ddd2ee"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E72A8210-9A33-47EA-AB10-F8FAA9E7FF82}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34494,6 +34480,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDBF97FC-5657-4433-9412-4B0BB8609358}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1ea9f476-e5d7-46f3-a780-376ee5ddd2ee"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a5d3c314-d92b-413f-ada3-7410c346d515"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABCE2DE6-17B5-4BB3-9252-EC9FC8DD82FE}">
   <ds:schemaRefs>
